--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1420.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1420.xlsx
@@ -9283,22 +9283,22 @@
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.02770836027627034</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0006956678142226919</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.05201472000000001</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0006141320201005028</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.03861759999999997</v>
+        <v>0.05723605379263147</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0002365947149430763</v>
+        <v>0.0003604942566182513</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9325,22 +9325,22 @@
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03393345325199347</v>
+        <v>0.04176120616562486</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007302173281741274</v>
+        <v>0.001598887042340669</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0396176</v>
+        <v>0.08732924964359479</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0004087228557716624</v>
+        <v>0.001842396060301508</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.1192417787346489</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.00114924005961379</v>
+        <v>0.001549678929225568</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.03782983142431966</v>
+        <v>0.06365255175747037</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001392149029831705</v>
+        <v>0.002514024203306413</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.04402944</v>
+        <v>0.05541672055254067</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001105437636180905</v>
+        <v>0.003316312908542714</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.08732924964359479</v>
+        <v>0.09682991666542762</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001417304091350179</v>
+        <v>0.003182960850025648</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1243020059003497</v>
+        <v>0.134417378071497</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001567794938869596</v>
+        <v>0.003180018969311317</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.05946947162482912</v>
+        <v>0.06376683608532269</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002088223544747557</v>
+        <v>0.004784566322420455</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.05541672055254067</v>
+        <v>0.06101370079729239</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.0021887414234042</v>
+        <v>0.004796661127022007</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.09317435514927397</v>
+        <v>0.1054383768496081</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002303106451255383</v>
+        <v>0.004774441275038472</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.1319724247456953</v>
+        <v>0.1480889061286811</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002351692408304394</v>
+        <v>0.004770028453966976</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.06365255175747037</v>
+        <v>0.07937250317763636</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002514024203306413</v>
+        <v>0.006379421763227274</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0586796251101938</v>
+        <v>0.0665258144467344</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00292086931269651</v>
+        <v>0.006395548169362677</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.100841225847807</v>
+        <v>0.1157446511732065</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003070808601673844</v>
+        <v>0.006365921700051296</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1411250410937915</v>
+        <v>0.1592044300334332</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003135589877739191</v>
+        <v>0.006360037938622634</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.03337775441300817</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.06123453517537943</v>
+        <v>0.08308489124311752</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003480372574579262</v>
+        <v>0.007974277204034092</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.06131961510431917</v>
+        <v>0.07130280260575962</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003651086640870637</v>
+        <v>0.007994435211703347</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1064717571570845</v>
+        <v>0.1232819331922814</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003838510752092305</v>
+        <v>0.007957402125064119</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1480746315854999</v>
+        <v>0.1711714933805623</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003919487347173989</v>
+        <v>0.007950047423278293</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.06406401724620148</v>
+        <v>0.08398978048010666</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004176447089495114</v>
+        <v>0.009569132644840911</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0642460139641942</v>
+        <v>0.07639309832735487</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004381303969044764</v>
+        <v>0.009593322254044015</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1119748423894736</v>
+        <v>0.1283834164628913</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004606212902510766</v>
+        <v>0.009548882550076944</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.1560359728616821</v>
+        <v>0.1783976397648774</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004703384816608787</v>
+        <v>0.009540056907933952</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.07273582669672413</v>
+        <v>0.0941729510869444</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004872521604410967</v>
+        <v>0.01116398808564773</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.06735921981252348</v>
+        <v>0.08014513466450711</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005111521297218892</v>
+        <v>0.01119220929638468</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1167593748573417</v>
+        <v>0.1342822945410946</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005373915052929227</v>
+        <v>0.01114036297508977</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.1643238415631993</v>
+        <v>0.1844904127811872</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005487282286043585</v>
+        <v>0.01113006639258961</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.07225220034395083</v>
+        <v>0.09672018326197124</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005568596119326819</v>
+        <v>0.01275884352645455</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.07015963077201155</v>
+        <v>0.08360734467020307</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005841738625393019</v>
+        <v>0.01279109633872535</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1221342478730562</v>
+        <v>0.1392117609829499</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006141617203347688</v>
+        <v>0.01273184340010259</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.1693530143309133</v>
+        <v>0.1916573560243008</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006271179755478383</v>
+        <v>0.01272007587724527</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.08061537500488508</v>
+        <v>0.09571725720352769</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006264670634242671</v>
+        <v>0.01435369896726137</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.07354764496536316</v>
+        <v>0.08622816139742977</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006571955953567147</v>
+        <v>0.01438998338106602</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1259083547489843</v>
+        <v>0.1429050093445156</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00690931935376615</v>
+        <v>0.01432332382511542</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1769382678056856</v>
+        <v>0.196206013089027</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007055077224913181</v>
+        <v>0.01431008536190093</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0858275874965303</v>
+        <v>0.1022499531099544</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006960745149158524</v>
+        <v>0.01594855440806818</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.07552366051528282</v>
+        <v>0.08925601789917394</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007302173281741275</v>
+        <v>0.01598887042340669</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1308905887974932</v>
+        <v>0.1459952331818501</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00767702150418461</v>
+        <v>0.01591480425012824</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1813943786283774</v>
+        <v>0.2000439275701749</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007838974694347979</v>
+        <v>0.01590009484655659</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.07789107463588996</v>
+        <v>0.1024040511795918</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007656819664074377</v>
+        <v>0.017543409848875</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.07838807554447512</v>
+        <v>0.09113934722842255</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008032390609915402</v>
+        <v>0.01758775746574736</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1344898433309503</v>
+        <v>0.1474156260510121</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008444723654603071</v>
+        <v>0.01750628467514107</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1877361234398505</v>
+        <v>0.2032786430625532</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008622872163782776</v>
+        <v>0.01749010433121224</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0868080732399675</v>
+        <v>0.1072653316107804</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008352894178990228</v>
+        <v>0.01913826528968182</v>
       </c>
       <c r="J77" t="n">
-        <v>0.08084128817564483</v>
+        <v>0.09382658243816248</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008762607938089528</v>
+        <v>0.01918664450808803</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1389150116617228</v>
+        <v>0.15009938150806</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009212425805021532</v>
+        <v>0.01909776510015389</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1914782788809664</v>
+        <v>0.2053177031609709</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009406769633217574</v>
+        <v>0.0190801138158679</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.09558082012576638</v>
+        <v>0.1039195746018609</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009048968693906081</v>
+        <v>0.02073312073048864</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0835836965314964</v>
+        <v>0.09496615658138054</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009492825266263655</v>
+        <v>0.0207855315504287</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1408749871021781</v>
+        <v>0.1517796931090521</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009980127955439993</v>
+        <v>0.02068924552516671</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1966356215925864</v>
+        <v>0.2073686514602369</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01019066710265237</v>
+        <v>0.02067012330052356</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.09021155211029008</v>
+        <v>0.1114525603511737</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009745043208821934</v>
+        <v>0.02232797617129546</v>
       </c>
       <c r="J79" t="n">
-        <v>0.08521569873473454</v>
+        <v>0.0965065027110636</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01022304259443778</v>
+        <v>0.02238441859276937</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1451786629646835</v>
+        <v>0.1547897544100472</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01074783010585845</v>
+        <v>0.02228072595017954</v>
       </c>
       <c r="N79" t="n">
-        <v>0.200222928215572</v>
+        <v>0.2107390315551602</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01097456457208717</v>
+        <v>0.02226013278517922</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.09470250601054206</v>
+        <v>0.1039481248667782</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01044111772373779</v>
+        <v>0.02392283161210228</v>
       </c>
       <c r="J80" t="n">
-        <v>0.08733769290806385</v>
+        <v>0.09839605388019861</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01095325992261191</v>
+        <v>0.02398330563511004</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1483349325616062</v>
+        <v>0.1556260214776327</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01151553225627691</v>
+        <v>0.02387220637519236</v>
       </c>
       <c r="N80" t="n">
-        <v>0.204754975390785</v>
+        <v>0.2137127680925036</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01175846204152197</v>
+        <v>0.02385014226983488</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.09305591864352578</v>
+        <v>0.1114205768425894</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01113719223865364</v>
+        <v>0.02551768705290909</v>
       </c>
       <c r="J81" t="n">
-        <v>0.08955007717418896</v>
+        <v>0.09979779828348724</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01168347725078604</v>
+        <v>0.02558219267745071</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1506526892053136</v>
+        <v>0.1579203687384106</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01228323440669538</v>
+        <v>0.02546368680020518</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2093465397590867</v>
+        <v>0.2162197736094768</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01254235951095677</v>
+        <v>0.02544015175449054</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.09527402682624467</v>
+        <v>0.1168497024490362</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01183326675356949</v>
+        <v>0.02711254249371592</v>
       </c>
       <c r="J82" t="n">
-        <v>0.09155324965581448</v>
+        <v>0.1008636012780099</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01241369457896017</v>
+        <v>0.02718107971979138</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1524408262081728</v>
+        <v>0.1597506529768321</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01305093655711384</v>
+        <v>0.02705516722521801</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2108123979613385</v>
+        <v>0.2183365733899356</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01332625698039156</v>
+        <v>0.0270301612391462</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1073590673757022</v>
+        <v>0.1102262930788913</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01252934126848534</v>
+        <v>0.02870739793452273</v>
       </c>
       <c r="J83" t="n">
-        <v>0.09284760847564498</v>
+        <v>0.1021871422682935</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01314391190713429</v>
+        <v>0.02877996676213204</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1546082368825514</v>
+        <v>0.1627043203181837</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0138186387075323</v>
+        <v>0.02864664765023083</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2136673266384022</v>
+        <v>0.2228460735106762</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01411015444982636</v>
+        <v>0.02862017072380185</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.09731327710890181</v>
+        <v>0.1195411401249275</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0132254157834012</v>
+        <v>0.03030225337532955</v>
       </c>
       <c r="J84" t="n">
-        <v>0.09473355175638511</v>
+        <v>0.1025603431710207</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01387412923530842</v>
+        <v>0.03037885380447272</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1572638145408164</v>
+        <v>0.1635688168877517</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01458634085795076</v>
+        <v>0.03023812807524365</v>
       </c>
       <c r="N84" t="n">
-        <v>0.2166261024311389</v>
+        <v>0.2238311800484946</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01489405191926116</v>
+        <v>0.03021018020845751</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1021388928428469</v>
+        <v>0.1137850349799178</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01392149029831705</v>
+        <v>0.03189710881613637</v>
       </c>
       <c r="J85" t="n">
-        <v>0.09671147762073949</v>
+        <v>0.1035751259028737</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01460434656348255</v>
+        <v>0.03197774084681339</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1597164524953353</v>
+        <v>0.1654315888108225</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01535404300836922</v>
+        <v>0.03182960850025648</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2181035019804105</v>
+        <v>0.2269747990801868</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01567794938869596</v>
+        <v>0.03180018969311317</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1028381513945411</v>
+        <v>0.1159487690366349</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0146175648132329</v>
+        <v>0.03349196425694319</v>
       </c>
       <c r="J86" t="n">
-        <v>0.09798178419141275</v>
+        <v>0.105623412380535</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01533456389165667</v>
+        <v>0.03357662788915405</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1614750440584753</v>
+        <v>0.167380082212683</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01612174515878768</v>
+        <v>0.03342108892526931</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2223143019270783</v>
+        <v>0.2278598366825485</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01646184685813076</v>
+        <v>0.03339019917776883</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1084132895809877</v>
+        <v>0.1230231336878517</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01531363932814875</v>
+        <v>0.03508681969775001</v>
       </c>
       <c r="J87" t="n">
-        <v>0.09964486959110953</v>
+        <v>0.1061971245206867</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0160647812198308</v>
+        <v>0.03517551493149472</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1620484825426038</v>
+        <v>0.1690017432186193</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01688944730920614</v>
+        <v>0.03501256935028213</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2229732789120038</v>
+        <v>0.2309691989323761</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01724574432756555</v>
+        <v>0.03498020866242448</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1128665442191903</v>
+        <v>0.1119989203263409</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01600971384306461</v>
+        <v>0.03668167513855682</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1002011319425344</v>
+        <v>0.1068881842400114</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01679499854800493</v>
+        <v>0.03677440197383539</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1636456612600879</v>
+        <v>0.168984017953918</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0176571494596246</v>
+        <v>0.03660404977529495</v>
       </c>
       <c r="N88" t="n">
-        <v>0.2256952095760485</v>
+        <v>0.2330857919064653</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01802964179700035</v>
+        <v>0.03657021814708015</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1092001521261522</v>
+        <v>0.1188669203448755</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01670578835798046</v>
+        <v>0.03827653057936364</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1018509693683919</v>
+        <v>0.1082885134551915</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01752521587617906</v>
+        <v>0.03837328901617606</v>
       </c>
       <c r="L89" t="n">
-        <v>0.165475473523295</v>
+        <v>0.1711143525438656</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01842485161004306</v>
+        <v>0.03819553020030778</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2250948705600739</v>
+        <v>0.2342925216816122</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01881353926643515</v>
+        <v>0.03816022763173581</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.111416350118877</v>
+        <v>0.1216179251362282</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01740186287289631</v>
+        <v>0.03987138602017046</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1028947799913868</v>
+        <v>0.1087900340829093</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01825543320435319</v>
+        <v>0.03997217605851673</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1661468126445924</v>
+        <v>0.1723801931137486</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01919255376046152</v>
+        <v>0.0397870106253206</v>
       </c>
       <c r="N90" t="n">
-        <v>0.2267870385049418</v>
+        <v>0.2348722943346129</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01959743673586995</v>
+        <v>0.03975023711639146</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1145173750143681</v>
+        <v>0.1192427260931719</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01809793738781216</v>
+        <v>0.04146624146097728</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1041329619342237</v>
+        <v>0.1088846680398472</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01898565053252731</v>
+        <v>0.0415710631008574</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1664685719363474</v>
+        <v>0.1717689857888534</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01996025591087999</v>
+        <v>0.04137849105033342</v>
       </c>
       <c r="N91" t="n">
-        <v>0.2288864900515131</v>
+        <v>0.2364080159422629</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02038133420530474</v>
+        <v>0.04134024660104713</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1185054636296289</v>
+        <v>0.1227321146084793</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01879401190272801</v>
+        <v>0.0430610969017841</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1046659133196071</v>
+        <v>0.1101643372426876</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01971586786070144</v>
+        <v>0.04316995014319807</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1668496447109274</v>
+        <v>0.1728681766944666</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02072795806129845</v>
+        <v>0.04296997147534624</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2278080018406498</v>
+        <v>0.2364825925813588</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02116523167473954</v>
+        <v>0.04293025608570278</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1163828527816629</v>
+        <v>0.1160768820749233</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01949008641764387</v>
+        <v>0.04465595234259092</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1053940322702417</v>
+        <v>0.1095209636081128</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02044608518887557</v>
+        <v>0.04476883718553874</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1677989242806994</v>
+        <v>0.1746584992871896</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02149566021171691</v>
+        <v>0.04456145190035907</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2300663505132132</v>
+        <v>0.2384835574692978</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02194912914417434</v>
+        <v>0.04452026557035844</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1131517792874735</v>
+        <v>0.1273051035149407</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02018616093255972</v>
+        <v>0.04625080778339773</v>
       </c>
       <c r="J94" t="n">
-        <v>0.105917716908832</v>
+        <v>0.1108334411050813</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0211763025170497</v>
+        <v>0.0463677242278794</v>
       </c>
       <c r="L94" t="n">
-        <v>0.167325303958031</v>
+        <v>0.1730475376983638</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02226336236213537</v>
+        <v>0.0461529323253719</v>
       </c>
       <c r="N94" t="n">
-        <v>0.230276312710065</v>
+        <v>0.2380799352610716</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02273302661360914</v>
+        <v>0.0461102750550141</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1228144799640643</v>
+        <v>0.1223005612331823</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02088223544747557</v>
+        <v>0.04784566322420455</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1066373653580829</v>
+        <v>0.1097327754934473</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02190651984522382</v>
+        <v>0.04796661127022008</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1676376770552893</v>
+        <v>0.1744318039402137</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02303106451255383</v>
+        <v>0.04774441275038471</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2286526650720664</v>
+        <v>0.2369289387180752</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02351692408304393</v>
+        <v>0.04770028453966976</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1123731916284386</v>
+        <v>0.1272334446209566</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02157830996239142</v>
+        <v>0.04944051866501137</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1073533757406987</v>
+        <v>0.1104042465536284</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02263673717339795</v>
+        <v>0.04956549831256075</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1688449368848417</v>
+        <v>0.1737018273839565</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02379876666297229</v>
+        <v>0.04933589317539754</v>
       </c>
       <c r="N96" t="n">
-        <v>0.229210184240079</v>
+        <v>0.2360293436917997</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02430082155247873</v>
+        <v>0.04929029402432541</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1188301510976001</v>
+        <v>0.1220898677695503</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02227438447730727</v>
+        <v>0.05103537410581819</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1071661461793842</v>
+        <v>0.1102066716993867</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02336695450157208</v>
+        <v>0.05116438535490141</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1688559767590554</v>
+        <v>0.1726697505519852</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02456646881339075</v>
+        <v>0.05092737360041037</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2303636468549644</v>
+        <v>0.2366919958720819</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02508471902191353</v>
+        <v>0.05088030350898107</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1171875951885519</v>
+        <v>0.1268746838805336</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02297045899222313</v>
+        <v>0.05263022954662501</v>
       </c>
       <c r="J98" t="n">
-        <v>0.107376074796844</v>
+        <v>0.1097446465167141</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0240971718297462</v>
+        <v>0.05276327239724208</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1681730357594999</v>
+        <v>0.1735421896983071</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02533417096380921</v>
+        <v>0.05251885402542319</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2287430346904507</v>
+        <v>0.2367259042494114</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02586861649134833</v>
+        <v>0.05247031299363673</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1154477607182978</v>
+        <v>0.1185927461554765</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02366653350713898</v>
+        <v>0.05422508498743183</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1078835597157826</v>
+        <v>0.1096224283884784</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02482738915792033</v>
+        <v>0.05436215943958275</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1689189314218228</v>
+        <v>0.1720257610769302</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02610187311422767</v>
+        <v>0.05411033445043601</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2293441352579532</v>
+        <v>0.2355400778142787</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02665251396078313</v>
+        <v>0.05406032247829239</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1166128845038409</v>
+        <v>0.1162489077959495</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02436260802205483</v>
+        <v>0.05581994042823864</v>
       </c>
       <c r="J100" t="n">
-        <v>0.107783189060627</v>
+        <v>0.1100442746975468</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02555760648609446</v>
+        <v>0.05596104648192342</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1686425634245018</v>
+        <v>0.172827080941862</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02686957526464613</v>
+        <v>0.05570181487544884</v>
       </c>
       <c r="N100" t="n">
-        <v>0.227969404234949</v>
+        <v>0.2361435255571731</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02743641143021792</v>
+        <v>0.05565033196294805</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.118685203362185</v>
+        <v>0.1148480220035227</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02505868253697069</v>
+        <v>0.05741479586904547</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1079375184286679</v>
+        <v>0.1091144428267867</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02628782381426859</v>
+        <v>0.05755993352426408</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1679860562901466</v>
+        <v>0.1715527655471103</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0276372774150646</v>
+        <v>0.05729329530046166</v>
       </c>
       <c r="N101" t="n">
-        <v>0.2259230708340864</v>
+        <v>0.234045256468585</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02822030889965272</v>
+        <v>0.0572403414476037</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1166667152629137</v>
+        <v>0.1213949419797663</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02575475705188654</v>
+        <v>0.05900965130985228</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1075534269814279</v>
+        <v>0.1093371901590655</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02701804114244271</v>
+        <v>0.05915882056660476</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1652915345413665</v>
+        <v>0.1716094311466828</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02840497956548306</v>
+        <v>0.05888477572547448</v>
       </c>
       <c r="N102" t="n">
-        <v>0.2219093642680137</v>
+        <v>0.2324542795390041</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02900420636908752</v>
+        <v>0.05883035093225936</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.120561334069323</v>
+        <v>0.1198945209262506</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02645083156680239</v>
+        <v>0.06060450675065911</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1066475315044472</v>
+        <v>0.1087167740772506</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02774825847061684</v>
+        <v>0.06075770760894544</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1651011227007708</v>
+        <v>0.1694036939945871</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02917268171590152</v>
+        <v>0.06047625615048731</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2199325137493789</v>
+        <v>0.2319796037589203</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02978810383852231</v>
+        <v>0.06042036041691503</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1243760543770444</v>
+        <v>0.1213516120445458</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02714690608171824</v>
+        <v>0.06219936219146591</v>
       </c>
       <c r="J104" t="n">
-        <v>0.106636448783266</v>
+        <v>0.1084574519642094</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02847847579879097</v>
+        <v>0.0623565946512861</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1626569452909691</v>
+        <v>0.168642170344831</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02994038386631998</v>
+        <v>0.06206773657550014</v>
       </c>
       <c r="N104" t="n">
-        <v>0.21709674849083</v>
+        <v>0.2307302381188236</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03057200130795711</v>
+        <v>0.06201036990157067</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1181179836562397</v>
+        <v>0.1207710685362222</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0278429805966341</v>
+        <v>0.06379421763227273</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1052367956034244</v>
+        <v>0.1073634812028093</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0292086931269651</v>
+        <v>0.06395548169362678</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1613011268345708</v>
+        <v>0.1683314764514222</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03070808601673844</v>
+        <v>0.06365921700051295</v>
       </c>
       <c r="N105" t="n">
-        <v>0.2136062977050153</v>
+        <v>0.2310151916092041</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03135589877739191</v>
+        <v>0.06360037938622634</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1117942293770706</v>
+        <v>0.1191577436028499</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02853905511154995</v>
+        <v>0.06538907307307955</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1053651887504626</v>
+        <v>0.1066391191759178</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02993891045513922</v>
+        <v>0.06555436873596744</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1601757918541852</v>
+        <v>0.1681782285683683</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0314757881671569</v>
+        <v>0.06525069742552578</v>
       </c>
       <c r="N106" t="n">
-        <v>0.212365390604583</v>
+        <v>0.2280434732205515</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03213979624682671</v>
+        <v>0.06519038887088199</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1144118990096988</v>
+        <v>0.1195164904459992</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0292351296264658</v>
+        <v>0.06698392851388638</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1037382450099208</v>
+        <v>0.1058886232664021</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03066912778331335</v>
+        <v>0.06715325577830811</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1578230648724219</v>
+        <v>0.1662890429496771</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03224349031757536</v>
+        <v>0.06684217785053861</v>
       </c>
       <c r="N107" t="n">
-        <v>0.2078782564021811</v>
+        <v>0.2272240919433557</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03292369371626151</v>
+        <v>0.06678039835553766</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1189781000242861</v>
+        <v>0.1148521622672403</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02993120414138165</v>
+        <v>0.06857878395469319</v>
       </c>
       <c r="J108" t="n">
-        <v>0.103572581167339</v>
+        <v>0.1059162508571297</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03139934511148747</v>
+        <v>0.06875214282064877</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1573850704118902</v>
+        <v>0.1658705358493562</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03301119246799383</v>
+        <v>0.06843365827555142</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2062491243104579</v>
+        <v>0.2262660567681069</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03370759118569631</v>
+        <v>0.06837040784019333</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1114999398909943</v>
+        <v>0.1191696122681435</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03062727865629751</v>
+        <v>0.07017363939550002</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1032848140082576</v>
+        <v>0.104826259330968</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03212956243966161</v>
+        <v>0.07035102986298944</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1561039329951995</v>
+        <v>0.1657293235214136</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03377889461841228</v>
+        <v>0.07002513870056426</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2039822235420614</v>
+        <v>0.2252783766852947</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0344914886551311</v>
+        <v>0.06996041732484896</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.109984526079985</v>
+        <v>0.1144736936502789</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03132335317121335</v>
+        <v>0.07176849483630683</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1014915603182166</v>
+        <v>0.1044229060707843</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03285977976783574</v>
+        <v>0.07194991690533011</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1546217771449593</v>
+        <v>0.1636720222198565</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03454659676883074</v>
+        <v>0.07161661912557708</v>
       </c>
       <c r="N110" t="n">
-        <v>0.2037817833096398</v>
+        <v>0.2246700606854092</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03527538612456591</v>
+        <v>0.07155042680950463</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.11143896606142</v>
+        <v>0.1187692596152169</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03201942768612921</v>
+        <v>0.07336335027711365</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1010094368827562</v>
+        <v>0.1034104484594462</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03358999709600986</v>
+        <v>0.07354880394767078</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1524807273837789</v>
+        <v>0.163405248198693</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03531429891924921</v>
+        <v>0.07320809955058989</v>
       </c>
       <c r="N111" t="n">
-        <v>0.2026520328258412</v>
+        <v>0.2216501177589403</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0360592835940007</v>
+        <v>0.0731404362941603</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1168703673054611</v>
+        <v>0.1120611633645276</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03271550220104506</v>
+        <v>0.07495820571792046</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1009550604874166</v>
+        <v>0.1030931438798209</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03432021442418399</v>
+        <v>0.07514769099001145</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1518229082342679</v>
+        <v>0.1614356177119307</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03608200106966766</v>
+        <v>0.07479957997560273</v>
       </c>
       <c r="N112" t="n">
-        <v>0.2016970538094401</v>
+        <v>0.221727556896378</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0368431810634355</v>
+        <v>0.07473044577881595</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.11928583728227</v>
+        <v>0.1163542580997813</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03341157671596091</v>
+        <v>0.07655306115872729</v>
       </c>
       <c r="J113" t="n">
-        <v>0.09924504791773793</v>
+        <v>0.1025752497147758</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03505043175235811</v>
+        <v>0.07674657803235212</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1501904442190354</v>
+        <v>0.1620697470135772</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03684970322008613</v>
+        <v>0.07639106040061555</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2024922831958714</v>
+        <v>0.2196113870882122</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0376270785328703</v>
+        <v>0.07632045526347161</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1076924834620084</v>
+        <v>0.1106533970225482</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03410765123087676</v>
+        <v>0.0781479165995341</v>
       </c>
       <c r="J114" t="n">
-        <v>0.09909601595926036</v>
+        <v>0.1023610233471784</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03578064908053225</v>
+        <v>0.0783454650746928</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1489254598606912</v>
+        <v>0.1602142523576402</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03761740537050459</v>
+        <v>0.07798254082562837</v>
       </c>
       <c r="N114" t="n">
-        <v>0.2011624972147434</v>
+        <v>0.2190102549642829</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03841097600230509</v>
+        <v>0.07791046474812727</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1150974133148381</v>
+        <v>0.1079408388878215</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03480372574579262</v>
+        <v>0.07974277204034093</v>
       </c>
       <c r="J115" t="n">
-        <v>0.09812458139752402</v>
+        <v>0.1011519784411325</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03651086640870637</v>
+        <v>0.07994435211703346</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1497700796818445</v>
+        <v>0.1597042067864196</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03838510752092305</v>
+        <v>0.0795740212506412</v>
       </c>
       <c r="N115" t="n">
-        <v>0.203196934826985</v>
+        <v>0.2164055266745731</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0391948734717399</v>
+        <v>0.07950047423278292</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1115077343109207</v>
+        <v>0.1081329646866356</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03549980026070847</v>
+        <v>0.08133762748114774</v>
       </c>
       <c r="J116" t="n">
-        <v>0.09834736101806914</v>
+        <v>0.1010798769794629</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0372410837368805</v>
+        <v>0.08154323915937413</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1491402709563146</v>
+        <v>0.1577571592390188</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03915280967134151</v>
+        <v>0.08116550167565402</v>
       </c>
       <c r="N116" t="n">
-        <v>0.2035848349935254</v>
+        <v>0.2158172904745035</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03997877094117469</v>
+        <v>0.08109048371743859</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1169305539204182</v>
+        <v>0.107235187479103</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03619587477562432</v>
+        <v>0.08293248292195456</v>
       </c>
       <c r="J117" t="n">
-        <v>0.09788097160643584</v>
+        <v>0.1001239321591138</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03797130106505462</v>
+        <v>0.08314212620171479</v>
       </c>
       <c r="L117" t="n">
-        <v>0.148692386555793</v>
+        <v>0.1568940548920963</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03992051182175997</v>
+        <v>0.08275698210066684</v>
       </c>
       <c r="N117" t="n">
-        <v>0.2025154366752934</v>
+        <v>0.213774898731982</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04076266841060949</v>
+        <v>0.08268049320209425</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.110372979613492</v>
+        <v>0.110263319576068</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03689194929054018</v>
+        <v>0.08452733836276137</v>
       </c>
       <c r="J118" t="n">
-        <v>0.09784202994816431</v>
+        <v>0.09879801504237427</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03870151839322875</v>
+        <v>0.08474101324405547</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1490888451178441</v>
+        <v>0.155436450292085</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04068821397217843</v>
+        <v>0.08434846252567967</v>
       </c>
       <c r="N118" t="n">
-        <v>0.2050779788332179</v>
+        <v>0.2117077038149167</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04154656588004429</v>
+        <v>0.08427050268674989</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1168421188603042</v>
+        <v>0.1112331732883748</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03758802380545603</v>
+        <v>0.0861221938035682</v>
       </c>
       <c r="J119" t="n">
-        <v>0.09734715282879468</v>
+        <v>0.09871599669153365</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03943173572140288</v>
+        <v>0.08633990028639614</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1502191156863688</v>
+        <v>0.1535059019854171</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04145591612259689</v>
+        <v>0.08593994295069249</v>
       </c>
       <c r="N119" t="n">
-        <v>0.2044617004282279</v>
+        <v>0.2111450580912154</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04233046334947908</v>
+        <v>0.08586051217140556</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1163450791310162</v>
+        <v>0.110160560926868</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03828409832037188</v>
+        <v>0.08771704924437501</v>
       </c>
       <c r="J120" t="n">
-        <v>0.09687464722000168</v>
+        <v>0.09759174816888101</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04016195304957701</v>
+        <v>0.08793878732873681</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1505726673052683</v>
+        <v>0.1520239665185252</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04222361827301536</v>
+        <v>0.08753142337570531</v>
       </c>
       <c r="N120" t="n">
-        <v>0.2074558404212524</v>
+        <v>0.2088163139287859</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04311436081891388</v>
+        <v>0.08745052165606122</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.10388896789579</v>
+        <v>0.1030612948023918</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03898017283528774</v>
+        <v>0.08931190468518184</v>
       </c>
       <c r="J121" t="n">
-        <v>0.09777135447800868</v>
+        <v>0.09673914053670564</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04089217037775113</v>
+        <v>0.08953767437107747</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1519389690184433</v>
+        <v>0.1507122004378418</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04299132042343382</v>
+        <v>0.08912290380071815</v>
       </c>
       <c r="N121" t="n">
-        <v>0.2065496377732202</v>
+        <v>0.2058508236955361</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04389825828834868</v>
+        <v>0.08904053114071687</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1064808926247873</v>
+        <v>0.1079511872257906</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03967624735020359</v>
+        <v>0.09090676012598864</v>
       </c>
       <c r="J122" t="n">
-        <v>0.09703239481012953</v>
+        <v>0.0955720448572966</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04162238770592526</v>
+        <v>0.09113656141341814</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1528074898697949</v>
+        <v>0.1487921602897992</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04375902257385228</v>
+        <v>0.09071438422573096</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2087323314450603</v>
+        <v>0.2040779397593739</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04468215575778348</v>
+        <v>0.09063054062537254</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1071279607881697</v>
+        <v>0.1018460505079087</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04037232186511944</v>
+        <v>0.09250161556679547</v>
       </c>
       <c r="J123" t="n">
-        <v>0.09755339958181126</v>
+        <v>0.09470433219294318</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04235260503409939</v>
+        <v>0.0927354484557588</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1522676989032239</v>
+        <v>0.1487854026208301</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04452672472427074</v>
+        <v>0.09230586465074379</v>
       </c>
       <c r="N123" t="n">
-        <v>0.2106931603977017</v>
+        <v>0.2015270144882074</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04546605322721828</v>
+        <v>0.09222055011002819</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1068372798560991</v>
+        <v>0.09776169695959047</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04106839638003529</v>
+        <v>0.09409647100760228</v>
       </c>
       <c r="J124" t="n">
-        <v>0.09823000015850099</v>
+        <v>0.09384987360593451</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04308282236227352</v>
+        <v>0.09433433549809948</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1535090651626316</v>
+        <v>0.146613483977367</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04529442687468919</v>
+        <v>0.09389734507575662</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2110213635920733</v>
+        <v>0.2006274002499441</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04624995069665307</v>
+        <v>0.09381055959468385</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1066159572987371</v>
+        <v>0.09571393889168028</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04176447089495115</v>
+        <v>0.09569132644840911</v>
       </c>
       <c r="J125" t="n">
-        <v>0.09825782790564581</v>
+        <v>0.09232254015855983</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04381303969044764</v>
+        <v>0.09593322254044016</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1555210576919186</v>
+        <v>0.1450979609058423</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04606212902510766</v>
+        <v>0.09548882550076943</v>
       </c>
       <c r="N125" t="n">
-        <v>0.212606179989104</v>
+        <v>0.1975084494124921</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04703384816608787</v>
+        <v>0.09540056907933951</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1074711005862455</v>
+        <v>0.1017132607750597</v>
       </c>
       <c r="G126" t="n">
-        <v>0.042460545409867</v>
+        <v>0.09728618188921592</v>
       </c>
       <c r="J126" t="n">
-        <v>0.09873251418869282</v>
+        <v>0.09193620291310829</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04454325701862177</v>
+        <v>0.09753210958278083</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1557931455349861</v>
+        <v>0.1431252867836212</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04682983117552612</v>
+        <v>0.09708030592578226</v>
       </c>
       <c r="N126" t="n">
-        <v>0.2143368485497228</v>
+        <v>0.1964262533616145</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04781774563552267</v>
+        <v>0.09699057856399518</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1124098171887861</v>
+        <v>0.09765498281446591</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04315661992478285</v>
+        <v>0.09888103733002274</v>
       </c>
       <c r="J127" t="n">
-        <v>0.09884969037308898</v>
+        <v>0.0910425754522894</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04527347434679591</v>
+        <v>0.0991309966251215</v>
       </c>
       <c r="L127" t="n">
-        <v>0.156514797735735</v>
+        <v>0.1428387325922958</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04759753332594458</v>
+        <v>0.09867178635079508</v>
       </c>
       <c r="N127" t="n">
-        <v>0.2163026082348586</v>
+        <v>0.1931770505173133</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04860164310495746</v>
+        <v>0.09858058804865082</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1084414570786734</v>
+        <v>0.09451009746792538</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0438526944396987</v>
+        <v>0.1004758927708296</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1001049878242816</v>
+        <v>0.09026715928687708</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04600369167497003</v>
+        <v>0.1007298836674622</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1579754833380662</v>
+        <v>0.1404428235464733</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04836523547636305</v>
+        <v>0.1002632667758079</v>
       </c>
       <c r="N128" t="n">
-        <v>0.2177926980054405</v>
+        <v>0.1907841327875474</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04938554057439226</v>
+        <v>0.1001705975333065</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1055695896379917</v>
+        <v>0.09830124006304411</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04454876895461455</v>
+        <v>0.1020707482116364</v>
       </c>
       <c r="J129" t="n">
-        <v>0.09969403790771748</v>
+        <v>0.08922895703907389</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04673390900314416</v>
+        <v>0.1023287707098028</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1588646713858807</v>
+        <v>0.1389684178486869</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0491329376267815</v>
+        <v>0.1018547472008207</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2204963568223972</v>
+        <v>0.1905895180955759</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05016943804382706</v>
+        <v>0.1017606070179621</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1067869706381801</v>
+        <v>0.1010510459274279</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04524484346953041</v>
+        <v>0.1036656036524432</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1002124719888439</v>
+        <v>0.08724782513861042</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04746412633131828</v>
+        <v>0.1039276577521435</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1612718309230795</v>
+        <v>0.1374463737014695</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04990063977719996</v>
+        <v>0.1034462276258336</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2199028236466579</v>
+        <v>0.1871352243646577</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05095333551326186</v>
+        <v>0.1033506165026178</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1140861511360012</v>
+        <v>0.08878215038868287</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04594091798444626</v>
+        <v>0.10526045909325</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1013559214331079</v>
+        <v>0.08674362001521708</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04819434365949241</v>
+        <v>0.1055265447944842</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1622864309935635</v>
+        <v>0.1348075493073545</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05066834192761843</v>
+        <v>0.1050377080508464</v>
       </c>
       <c r="N131" t="n">
-        <v>0.2219013374391512</v>
+        <v>0.1849632695180516</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05173723298269666</v>
+        <v>0.1049406259872735</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1114596821882175</v>
+        <v>0.08651718877441478</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04663699249936211</v>
+        <v>0.1068553145340568</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1020200176059567</v>
+        <v>0.08553619809862449</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04892456098766654</v>
+        <v>0.1071254318368248</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1624979406412338</v>
+        <v>0.1329828028688749</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05143604407803688</v>
+        <v>0.1066291884758592</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2239811371608063</v>
+        <v>0.1826156714790169</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05252113045213145</v>
+        <v>0.1065306354719291</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1079001148515919</v>
+        <v>0.09427879641222958</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04733306701427796</v>
+        <v>0.1084501699748637</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1026003918728371</v>
+        <v>0.08394541581856314</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04965477831584066</v>
+        <v>0.1087243188791655</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1646958289099912</v>
+        <v>0.1325029925885638</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05220374622845535</v>
+        <v>0.108220668900872</v>
       </c>
       <c r="N133" t="n">
-        <v>0.2248314617725522</v>
+        <v>0.1801344481708121</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05330502792156626</v>
+        <v>0.1081206449565848</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1144000001828869</v>
+        <v>0.09208960862973323</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04802914152919382</v>
+        <v>0.1100450254156705</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1024926755991963</v>
+        <v>0.08289112960476351</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05038499564401479</v>
+        <v>0.1103232059215062</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1652695648437368</v>
+        <v>0.1307989766689543</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0529714483788738</v>
+        <v>0.1098121493258849</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2275415502353176</v>
+        <v>0.1786616175166965</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05408892539100105</v>
+        <v>0.1097106544412404</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1079518892388653</v>
+        <v>0.09297226075453163</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04872521604410967</v>
+        <v>0.1116398808564773</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1040925001504815</v>
+        <v>0.08199319588695612</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05111521297218892</v>
+        <v>0.1119220929638468</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1663086174863715</v>
+        <v>0.1294016133125798</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05373915052929226</v>
+        <v>0.1114036297508977</v>
       </c>
       <c r="N135" t="n">
-        <v>0.2298006415100317</v>
+        <v>0.1760391974399289</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05487282286043584</v>
+        <v>0.1113006639258961</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1075483330762896</v>
+        <v>0.09294938811423067</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04942129055902552</v>
+        <v>0.1132347362972841</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1036954968921397</v>
+        <v>0.08167147109487151</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05184543030036305</v>
+        <v>0.1135209800061875</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1674024558817963</v>
+        <v>0.127641760721973</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05450685267971073</v>
+        <v>0.1129951101759105</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2304979745576232</v>
+        <v>0.1747092058637683</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05565672032987065</v>
+        <v>0.1128906734105518</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1121818827519225</v>
+        <v>0.09304362603643626</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05011736507394137</v>
+        <v>0.1148295917380909</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1047972971896179</v>
+        <v>0.08084581165824019</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05257564762853718</v>
+        <v>0.1151198670485282</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1690405490739121</v>
+        <v>0.1268502770996675</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0552745548301292</v>
+        <v>0.1145865906009233</v>
       </c>
       <c r="N137" t="n">
-        <v>0.2318227883390213</v>
+        <v>0.1736136607114735</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05644061779930545</v>
+        <v>0.1144806828952074</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1178450893225268</v>
+        <v>0.09027760984875441</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05081343958885722</v>
+        <v>0.1164244471788977</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1055935324083633</v>
+        <v>0.0795360740067927</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0533058649567113</v>
+        <v>0.1167187540908688</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1706123661066198</v>
+        <v>0.1260580206481959</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05604225698054766</v>
+        <v>0.1161780710259361</v>
       </c>
       <c r="N138" t="n">
-        <v>0.2333643218151547</v>
+        <v>0.1709945799063037</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05722451526874024</v>
+        <v>0.1160706923798631</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.107530503844865</v>
+        <v>0.08267397487879097</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05150951410377308</v>
+        <v>0.1180193026197046</v>
       </c>
       <c r="J139" t="n">
-        <v>0.106479833913823</v>
+        <v>0.07986211457025953</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05403608228488543</v>
+        <v>0.1183176411332095</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1713073760238205</v>
+        <v>0.1244958495700919</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05680995913096611</v>
+        <v>0.117769551450949</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2327118139469525</v>
+        <v>0.1703939813715177</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05800841273817504</v>
+        <v>0.1176607018645187</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1192306773756998</v>
+        <v>0.08325535645415189</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05220558861868893</v>
+        <v>0.1196141580605114</v>
       </c>
       <c r="J140" t="n">
-        <v>0.106451833071444</v>
+        <v>0.07844378977837117</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05476629961305955</v>
+        <v>0.1199165281755502</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1710150478694151</v>
+        <v>0.1235946220678882</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05757766128138458</v>
+        <v>0.1193610318759618</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2356545036953436</v>
+        <v>0.1692538830303745</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05879231020760983</v>
+        <v>0.1192507113491744</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.119938160971794</v>
+        <v>0.08704438990244306</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05290166313360478</v>
+        <v>0.1212090135013182</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1070051612466734</v>
+        <v>0.07920095606085818</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05549651694123368</v>
+        <v>0.1215154152178909</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1714248506873048</v>
+        <v>0.123285196344118</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05834536343180304</v>
+        <v>0.1209525123009746</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2358816300212567</v>
+        <v>0.169516302806133</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05957620767704463</v>
+        <v>0.1208407208338301</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.11764550568991</v>
+        <v>0.08202890529247006</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05359773764852064</v>
+        <v>0.122803868942125</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1074354498049583</v>
+        <v>0.07854699885133638</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05622673426940781</v>
+        <v>0.1231143022602315</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1732262535213901</v>
+        <v>0.1232973162294999</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05911306558222149</v>
+        <v>0.1225439927259874</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2358824318856213</v>
+        <v>0.1699446869341543</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06036010514647944</v>
+        <v>0.1224307303184857</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1113452625868107</v>
+        <v>0.08006552145847393</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05429381216343648</v>
+        <v>0.1243987243829318</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1079383301117458</v>
+        <v>0.07836999219394851</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05695695159758194</v>
+        <v>0.1247131893025722</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1724087254155724</v>
+        <v>0.123359053932976</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05988076773263996</v>
+        <v>0.1241354731510003</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2384835574692978</v>
+        <v>0.1695357445319399</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06114400261591423</v>
+        <v>0.1240207398031413</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1220299827192586</v>
+        <v>0.09113449452170502</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05498988667835233</v>
+        <v>0.1259935798237387</v>
       </c>
       <c r="J144" t="n">
-        <v>0.108609433532483</v>
+        <v>0.07912174362203296</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05768716892575607</v>
+        <v>0.1263120763449129</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1731617354137523</v>
+        <v>0.124364414737242</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06064846988305841</v>
+        <v>0.1257269535760131</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2387062050695481</v>
+        <v>0.1704859106595984</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06192790008534903</v>
+        <v>0.125610749287797</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1236922171440165</v>
+        <v>0.08223416124653615</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05568596119326819</v>
+        <v>0.1275884352645455</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1088443914326169</v>
+        <v>0.0791007940923663</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0584173862539302</v>
+        <v>0.1279109633872536</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1746584992871896</v>
+        <v>0.1235111311928166</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06141617203347688</v>
+        <v>0.1273184340010259</v>
       </c>
       <c r="N145" t="n">
-        <v>0.238460894372545</v>
+        <v>0.1696920978554345</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06271179755478383</v>
+        <v>0.1272007587724527</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.120324516917847</v>
+        <v>0.08436285839734028</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05638203570818405</v>
+        <v>0.1291832907053523</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1091388351775946</v>
+        <v>0.07930568456172489</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05914760358210432</v>
+        <v>0.1295098504295942</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1740293800340489</v>
+        <v>0.1247969358502182</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06218387418389534</v>
+        <v>0.1289099144260387</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2397130941724616</v>
+        <v>0.1694512186577529</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06349569502421862</v>
+        <v>0.1287907682571083</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1249194330975127</v>
+        <v>0.08651892273849018</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05707811022309989</v>
+        <v>0.1307781461461591</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1098883961328633</v>
+        <v>0.07853495598688524</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05987782091027845</v>
+        <v>0.1311087374719349</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1733793394050701</v>
+        <v>0.1240195612599652</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06295157633431379</v>
+        <v>0.1305013948510516</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2399613904175547</v>
+        <v>0.1699601856048584</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06427959249365342</v>
+        <v>0.130380777741764</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1194695167397763</v>
+        <v>0.08970069103435868</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05777418473801574</v>
+        <v>0.1323730015869659</v>
       </c>
       <c r="J148" t="n">
-        <v>0.10988870566387</v>
+        <v>0.07908714932462378</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06060803823845257</v>
+        <v>0.1327076245142755</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1739254051026298</v>
+        <v>0.1248767399725764</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06371927848473226</v>
+        <v>0.1320928752760644</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2399043690560819</v>
+        <v>0.1716159112350556</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06506348996308822</v>
+        <v>0.1319707872264196</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1159673189014005</v>
+        <v>0.08290650004931868</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0584702592529316</v>
+        <v>0.1339678570277728</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1108334411050813</v>
+        <v>0.07936080553171708</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0613382555666267</v>
+        <v>0.1343065115566162</v>
       </c>
       <c r="L149" t="n">
-        <v>0.175067467869632</v>
+        <v>0.1248662045385701</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06448698063515072</v>
+        <v>0.1336843557010772</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2411406160363004</v>
+        <v>0.1714153080866493</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06584738743252302</v>
+        <v>0.1335607967110753</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1254053906391479</v>
+        <v>0.08513468654774298</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05916633376784746</v>
+        <v>0.1355627124685796</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1099542601242034</v>
+        <v>0.07955446556494149</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06206847289480083</v>
+        <v>0.1359053985989569</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1750054184489806</v>
+        <v>0.1260856875084649</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06525468278556919</v>
+        <v>0.13527583612609</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2407687173064678</v>
+        <v>0.1718552886979443</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06663128490195781</v>
+        <v>0.135150806195731</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1267762830097812</v>
+        <v>0.08138358729400441</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0598624082827633</v>
+        <v>0.1371575679093864</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1111726525150416</v>
+        <v>0.07926667038107353</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06279869022297495</v>
+        <v>0.1375042856412975</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1740391475835796</v>
+        <v>0.1264329214327794</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06602238493598765</v>
+        <v>0.1368673165511028</v>
       </c>
       <c r="N151" t="n">
-        <v>0.2419872588148412</v>
+        <v>0.172932765607245</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06741518237139262</v>
+        <v>0.1367408156803867</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.121072547070063</v>
+        <v>0.09265153905247586</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06055848279767915</v>
+        <v>0.1387524233501932</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1105901048588619</v>
+        <v>0.07989596093688962</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06352890755114909</v>
+        <v>0.1391031726836382</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1747685460163329</v>
+        <v>0.125805638862032</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0667900870864061</v>
+        <v>0.1384587969761157</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2424948265096781</v>
+        <v>0.1714446513528565</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06819907984082742</v>
+        <v>0.1383308251650423</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1273051035149407</v>
+        <v>0.08293687858753016</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06125455731259501</v>
+        <v>0.140347278791</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1117061473919081</v>
+        <v>0.08064087818916631</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06425912487932321</v>
+        <v>0.1407020597259789</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1749935044901444</v>
+        <v>0.1266015723467413</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06755778923682457</v>
+        <v>0.1400502774011285</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2416900063392359</v>
+        <v>0.1719878584730833</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06898297731026221</v>
+        <v>0.1399208346496979</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1274469516462113</v>
+        <v>0.09324718982522701</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06195063182751087</v>
+        <v>0.1419421342318068</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1115203103504238</v>
+        <v>0.08059996309468</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06498934220749734</v>
+        <v>0.1423009467683196</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1751139137479181</v>
+        <v>0.1279655203998454</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06832549138724303</v>
+        <v>0.1416417578261413</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2418713842517718</v>
+        <v>0.1736530207190037</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06976687477969701</v>
+        <v>0.1415108441343536</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.125603970998885</v>
+        <v>0.09077449559393183</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06264670634242671</v>
+        <v>0.1435369896726137</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1120321239706524</v>
+        <v>0.08129064755982278</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06571955953567148</v>
+        <v>0.1438998338106602</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1747296645325578</v>
+        <v>0.1277748759838008</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06909319353766148</v>
+        <v>0.1432332382511542</v>
       </c>
       <c r="N155" t="n">
-        <v>0.2426375461955433</v>
+        <v>0.1761075276233753</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07055077224913181</v>
+        <v>0.1431008536190093</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1257582352405074</v>
+        <v>0.08855810038637826</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06334278085734256</v>
+        <v>0.1451318451134205</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1115411184888378</v>
+        <v>0.08171758499617292</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06644977686384559</v>
+        <v>0.1454987208530009</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1752406475869674</v>
+        <v>0.1299185566896477</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06986089568807995</v>
+        <v>0.144824718676167</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2450870781188077</v>
+        <v>0.1770082895115228</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0713346697185666</v>
+        <v>0.1446908631036649</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1229096498775947</v>
+        <v>0.08554779513334482</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06403885537225842</v>
+        <v>0.1467267005542273</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1116468241412232</v>
+        <v>0.08183684968386017</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06717999419201973</v>
+        <v>0.1470976078953416</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1759467536540509</v>
+        <v>0.1299281136902248</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07062859783849841</v>
+        <v>0.1464161991011798</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2449185659698223</v>
+        <v>0.1793621033667199</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0721185671880014</v>
+        <v>0.1462808725883206</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1220581204166635</v>
+        <v>0.08569337076560993</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06473492988717428</v>
+        <v>0.1483215559950341</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1120487711640526</v>
+        <v>0.08280439662949236</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06791021152019384</v>
+        <v>0.1486964949376822</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1746478734767122</v>
+        <v>0.132435098158371</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07139629998891688</v>
+        <v>0.1480076795261926</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2453305956968446</v>
+        <v>0.1809757661722409</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0729024646574362</v>
+        <v>0.1478708820729762</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1272035523642302</v>
+        <v>0.0979446182139522</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06543100440209013</v>
+        <v>0.1499164114358409</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1122464897935694</v>
+        <v>0.08497618083967735</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06864042884836798</v>
+        <v>0.1502953819800229</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1762438977978553</v>
+        <v>0.1347710612669247</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07216400213933533</v>
+        <v>0.1495991599512055</v>
       </c>
       <c r="N159" t="n">
-        <v>0.244521753248132</v>
+        <v>0.1842560749113599</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07368636212687099</v>
+        <v>0.1494608915576319</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1223458512268112</v>
+        <v>0.08925132840914993</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06612707891700598</v>
+        <v>0.1515112668766477</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1131395102660172</v>
+        <v>0.08520815732102301</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06937064617654209</v>
+        <v>0.1518942690223636</v>
       </c>
       <c r="L160" t="n">
-        <v>0.175434717360384</v>
+        <v>0.1353675541887246</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07293170428975379</v>
+        <v>0.1511906403762183</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2452906245719417</v>
+        <v>0.1849098265673507</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07447025959630579</v>
+        <v>0.1510509010422875</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.124484922510923</v>
+        <v>0.09056329228198179</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06682315343192183</v>
+        <v>0.1531061223174546</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1126273628176396</v>
+        <v>0.0865562810801372</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07010086350471623</v>
+        <v>0.1534931560647042</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1759202229072022</v>
+        <v>0.1372561280966097</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07369940644017225</v>
+        <v>0.1527821208012311</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2462357956165311</v>
+        <v>0.1890438181234874</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0752541570657406</v>
+        <v>0.1526409105269432</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1226206717230821</v>
+        <v>0.09083030076322612</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06751922794683769</v>
+        <v>0.1547009777582614</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1131095776846801</v>
+        <v>0.08787650712362781</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07083108083289036</v>
+        <v>0.1550920431070449</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1757003051812138</v>
+        <v>0.1388683341634183</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07446710859059072</v>
+        <v>0.1543736012262439</v>
       </c>
       <c r="N162" t="n">
-        <v>0.2462558523301576</v>
+        <v>0.1904648465630439</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07603805453517538</v>
+        <v>0.1542309200115989</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1207530043698047</v>
+        <v>0.09800214478366148</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06821530246175353</v>
+        <v>0.1562958331990682</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1135856851033825</v>
+        <v>0.08912479045810269</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07156129816106449</v>
+        <v>0.1566909301493856</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1754748549253229</v>
+        <v>0.1414357235619892</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07523481074100918</v>
+        <v>0.1559650816512567</v>
       </c>
       <c r="N163" t="n">
-        <v>0.2455493806610785</v>
+        <v>0.1919797088692943</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07682195200461019</v>
+        <v>0.1558209294962545</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1248818259576076</v>
+        <v>0.1000286152740664</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06891137697666938</v>
+        <v>0.157890688639875</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1137552153099903</v>
+        <v>0.08965708609016963</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07229151548923862</v>
+        <v>0.1582898171917263</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1756437628824334</v>
+        <v>0.1419943194758707</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07600251289142763</v>
+        <v>0.1575565620762696</v>
       </c>
       <c r="N164" t="n">
-        <v>0.2461149665575512</v>
+        <v>0.1935086804773386</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07760584947404499</v>
+        <v>0.1574109389809102</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1290070419930069</v>
+        <v>0.1019506580934967</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06960745149158525</v>
+        <v>0.1594855440806819</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1139176985407471</v>
+        <v>0.09027237672046605</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07302173281741274</v>
+        <v>0.1598887042340669</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1767069197954489</v>
+        <v>0.142749961011965</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0767702150418461</v>
+        <v>0.1591480425012824</v>
       </c>
       <c r="N165" t="n">
-        <v>0.2460511959678331</v>
+        <v>0.1971176702109809</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07838974694347979</v>
+        <v>0.1590009484655658</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1171285579825192</v>
+        <v>0.1018502256246209</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0703035260065011</v>
+        <v>0.1610803995214887</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1137726650318964</v>
+        <v>0.09176227940490918</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07375195014558687</v>
+        <v>0.1614875912764076</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1753642164072737</v>
+        <v>0.1454753962607558</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07753791719226456</v>
+        <v>0.1607395229262952</v>
       </c>
       <c r="N166" t="n">
-        <v>0.2467566548401813</v>
+        <v>0.1973857624398497</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07917364441291458</v>
+        <v>0.1605909579502215</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1232462794326611</v>
+        <v>0.104728942004757</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07099960052141695</v>
+        <v>0.1626752549622955</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1136196450196819</v>
+        <v>0.09253359164931953</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07448216747376099</v>
+        <v>0.1630864783187483</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1766155434608115</v>
+        <v>0.1456727966250571</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07830561934268303</v>
+        <v>0.162331003351308</v>
       </c>
       <c r="N167" t="n">
-        <v>0.2482299291228537</v>
+        <v>0.1997159138441564</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07995754188234938</v>
+        <v>0.1621809674348772</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1263601118499487</v>
+        <v>0.1045884000166989</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07169567503633278</v>
+        <v>0.1642701104031023</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1137581687403472</v>
+        <v>0.09298771069345348</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07521238480193512</v>
+        <v>0.1646853653610889</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1770607916989663</v>
+        <v>0.1463443335076824</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07907332149310148</v>
+        <v>0.1639224837763209</v>
       </c>
       <c r="N168" t="n">
-        <v>0.2470696047641071</v>
+        <v>0.2016110811041125</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08074143935178418</v>
+        <v>0.1637709769195328</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1224699607408987</v>
+        <v>0.104430192443241</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07239174955124865</v>
+        <v>0.1658649658439091</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1136877664301359</v>
+        <v>0.09342603377706725</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07594260213010924</v>
+        <v>0.1662842524034296</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1761998518646419</v>
+        <v>0.1488921783114455</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07984102364351994</v>
+        <v>0.1655139642013337</v>
       </c>
       <c r="N169" t="n">
-        <v>0.2474742677121993</v>
+        <v>0.2016742208999294</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08152533682121897</v>
+        <v>0.1653609864041885</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1265757316120275</v>
+        <v>0.1022559120671773</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0730878240661645</v>
+        <v>0.1674598212847159</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1136079683252915</v>
+        <v>0.09414995813991715</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07667281945828337</v>
+        <v>0.1678831394457703</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1762326147007425</v>
+        <v>0.1491185024391601</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08060872579393841</v>
+        <v>0.1671054446263465</v>
       </c>
       <c r="N170" t="n">
-        <v>0.2475425039153872</v>
+        <v>0.2048082899118186</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08230923429065377</v>
+        <v>0.1669509958888441</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1216773299698515</v>
+        <v>0.106067151671302</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07378389858108035</v>
+        <v>0.1690546767255227</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1147183046620578</v>
+        <v>0.09536088102175953</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0774030367864575</v>
+        <v>0.1694820264881109</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1758589709501716</v>
+        <v>0.1497254772936399</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08137642794435686</v>
+        <v>0.1686969250513593</v>
       </c>
       <c r="N171" t="n">
-        <v>0.2479728993219286</v>
+        <v>0.2061162448199916</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08309313176008858</v>
+        <v>0.1685410053734998</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1267746613208872</v>
+        <v>0.1018655040384092</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0744799730959962</v>
+        <v>0.1706495321663296</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1147183056766781</v>
+        <v>0.09636019966235064</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07813325411463164</v>
+        <v>0.1710809135304516</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1758788113558336</v>
+        <v>0.1517152742776987</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08214413009477532</v>
+        <v>0.1702884054763722</v>
       </c>
       <c r="N172" t="n">
-        <v>0.2481391843462023</v>
+        <v>0.2070010423046598</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08387702922952336</v>
+        <v>0.1701310148581555</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1218676311716509</v>
+        <v>0.1056525619512931</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07517604761091205</v>
+        <v>0.1722443876071364</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1140075016053962</v>
+        <v>0.09604931130144682</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07886347144280577</v>
+        <v>0.1726798005727923</v>
       </c>
       <c r="L173" t="n">
-        <v>0.176792026660632</v>
+        <v>0.1517900647941501</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08291183224519379</v>
+        <v>0.171879885901385</v>
       </c>
       <c r="N173" t="n">
-        <v>0.2464768101811889</v>
+        <v>0.2073656390460347</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08466092669895815</v>
+        <v>0.1717210243428111</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1209561450286592</v>
+        <v>0.1094299181927478</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07587212212582792</v>
+        <v>0.1738392430479432</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1148854226844557</v>
+        <v>0.09702961317880433</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07959368877097989</v>
+        <v>0.1742786876151329</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1760985076074709</v>
+        <v>0.1535520202458078</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08367953439561225</v>
+        <v>0.1734713663263978</v>
       </c>
       <c r="N174" t="n">
-        <v>0.2482884319315316</v>
+        <v>0.2099129917243278</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08544482416839297</v>
+        <v>0.1733110338274668</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1180401083984286</v>
+        <v>0.1031991655455674</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07656819664074377</v>
+        <v>0.17543409848875</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1142515991501001</v>
+        <v>0.09800250253417954</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08032390609915402</v>
+        <v>0.1758775746574736</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1758882750078</v>
+        <v>0.1549033120354857</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08444723654603072</v>
+        <v>0.1750628467514106</v>
       </c>
       <c r="N175" t="n">
-        <v>0.2479805256200479</v>
+        <v>0.2114460570197504</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08622872163782776</v>
+        <v>0.1749010433121224</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1221194267874753</v>
+        <v>0.1069678689467044</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07726427115565961</v>
+        <v>0.1770289539295569</v>
       </c>
       <c r="J176" t="n">
-        <v>0.115005561238573</v>
+        <v>0.09897053731251114</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08105412342732814</v>
+        <v>0.1774764616998143</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1771141655008695</v>
+        <v>0.1559628349458853</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08521493869644918</v>
+        <v>0.1766543271764235</v>
       </c>
       <c r="N176" t="n">
-        <v>0.2456595672695552</v>
+        <v>0.2120968527713279</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08701261910726256</v>
+        <v>0.1764910527967781</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1221940057023159</v>
+        <v>0.105779215531087</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07796034567057547</v>
+        <v>0.1786238093703637</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1143468391861181</v>
+        <v>0.09866992155243166</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08178434075550227</v>
+        <v>0.1790753487421549</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1755728646559173</v>
+        <v>0.1561837273878684</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08598264084686763</v>
+        <v>0.1782458076014363</v>
       </c>
       <c r="N177" t="n">
-        <v>0.2467320329028707</v>
+        <v>0.2140313965074084</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08779651657669736</v>
+        <v>0.1780810622814337</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1242637506494669</v>
+        <v>0.1126192565118212</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07865642018549132</v>
+        <v>0.1802186648111705</v>
       </c>
       <c r="J178" t="n">
-        <v>0.114674963228979</v>
+        <v>0.09939967932575962</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0825145580836764</v>
+        <v>0.1806742357844956</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1767676768365499</v>
+        <v>0.1571369392045568</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0867503429972861</v>
+        <v>0.1798372880264491</v>
       </c>
       <c r="N178" t="n">
-        <v>0.2439043985428119</v>
+        <v>0.215205900602551</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08858041404613215</v>
+        <v>0.1796710717660894</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1243285671354446</v>
+        <v>0.1134606306897396</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07935249470040717</v>
+        <v>0.1818135202519773</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1148894636033991</v>
+        <v>0.100435808517833</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08324477541185052</v>
+        <v>0.1822731228268363</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1752019064063737</v>
+        <v>0.1586851695253754</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08751804514770456</v>
+        <v>0.1814287684514619</v>
       </c>
       <c r="N179" t="n">
-        <v>0.2442831402121962</v>
+        <v>0.2174695745055032</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08936431151556695</v>
+        <v>0.1812610812507451</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1273883606667656</v>
+        <v>0.1062759768656751</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08004856921532302</v>
+        <v>0.1834083756927841</v>
       </c>
       <c r="J180" t="n">
-        <v>0.114786739259603</v>
+        <v>0.1019543070139899</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08397499274002466</v>
+        <v>0.183872009869177</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1758788577289953</v>
+        <v>0.1606911174797492</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08828574729812301</v>
+        <v>0.1830202488764748</v>
       </c>
       <c r="N180" t="n">
-        <v>0.2430747339338412</v>
+        <v>0.2191716276650125</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09014820898500175</v>
+        <v>0.1828510907354007</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1224430367499461</v>
+        <v>0.1120379338404602</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08074464373023887</v>
+        <v>0.1850032311335909</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1147459126993824</v>
+        <v>0.1021311726995684</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08470521006819878</v>
+        <v>0.1854708969115176</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1742018351680212</v>
+        <v>0.1620174821971029</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08905344944854147</v>
+        <v>0.1846117293014876</v>
       </c>
       <c r="N181" t="n">
-        <v>0.2416856557305639</v>
+        <v>0.2207612695298268</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09093210645443656</v>
+        <v>0.1844411002200564</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1184925008915028</v>
+        <v>0.1157191404149277</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08144071824515474</v>
+        <v>0.1865980865743977</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1151646769029554</v>
+        <v>0.1021424034599066</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08543542739637291</v>
+        <v>0.1870697839538583</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1751741430870578</v>
+        <v>0.1622269628068616</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08982115159895994</v>
+        <v>0.1862032097265004</v>
       </c>
       <c r="N182" t="n">
-        <v>0.240722381625182</v>
+        <v>0.2213877095486933</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09171600392387134</v>
+        <v>0.186031109704712</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.124536658597952</v>
+        <v>0.1102922353899104</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08213679276007058</v>
+        <v>0.1881929420152046</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1150448035912382</v>
+        <v>0.1032639971803425</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08616564472454703</v>
+        <v>0.188668670996199</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1732990858497115</v>
+        <v>0.1635822584384501</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09058885374937839</v>
+        <v>0.1877946901515132</v>
       </c>
       <c r="N183" t="n">
-        <v>0.2396913876405129</v>
+        <v>0.2219001571703599</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09249990139330615</v>
+        <v>0.1876211191893677</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1255754153758103</v>
+        <v>0.112729857566241</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08283286727498643</v>
+        <v>0.1897877974560114</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1148880644851471</v>
+        <v>0.1036719517462142</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08689586205272117</v>
+        <v>0.1902675580385396</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1732799678195889</v>
+        <v>0.1633460682212934</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09135655589979685</v>
+        <v>0.189386170576526</v>
       </c>
       <c r="N184" t="n">
-        <v>0.2380991497993737</v>
+        <v>0.2237478218435741</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09328379886274095</v>
+        <v>0.1892111286740233</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1286086767315939</v>
+        <v>0.1160459346186951</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08352894178990229</v>
+        <v>0.1913826528968182</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1142962313055985</v>
+        <v>0.1040603209028573</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08762607938089528</v>
+        <v>0.1918664450808803</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1735200933602964</v>
+        <v>0.1647690590377212</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09212425805021532</v>
+        <v>0.1909776510015389</v>
       </c>
       <c r="N185" t="n">
-        <v>0.2371521441245821</v>
+        <v>0.2244217363869686</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09406769633217574</v>
+        <v>0.190801138158679</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1266363481718194</v>
+        <v>0.113348015298367</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08422501630481814</v>
+        <v>0.192977508337625</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1141710757735086</v>
+        <v>0.1038251038095967</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08835629670906942</v>
+        <v>0.193465332123221</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1722227668354405</v>
+        <v>0.1646811484084839</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09289196020063377</v>
+        <v>0.1925691314265517</v>
       </c>
       <c r="N186" t="n">
-        <v>0.2365568466389554</v>
+        <v>0.2252830138915674</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09485159380161053</v>
+        <v>0.1923911476433347</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1256583352030032</v>
+        <v>0.1156435528043346</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08492109081973399</v>
+        <v>0.1945723637784318</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1138143696097935</v>
+        <v>0.1043841786819821</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08908651403724355</v>
+        <v>0.1950642191655617</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1711912926086276</v>
+        <v>0.1641842760031652</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09365966235105225</v>
+        <v>0.1941606118515645</v>
       </c>
       <c r="N187" t="n">
-        <v>0.235519733365311</v>
+        <v>0.2248320638602034</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09563549127104534</v>
+        <v>0.1939811571279904</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1276745433316618</v>
+        <v>0.1209324464436824</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08561716533464984</v>
+        <v>0.1961672192192387</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1128278845353697</v>
+        <v>0.104137457188984</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08981673136541767</v>
+        <v>0.1966631062079023</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1705289750434644</v>
+        <v>0.1659783045495143</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09442736450147071</v>
+        <v>0.1957520922765773</v>
       </c>
       <c r="N188" t="n">
-        <v>0.2329472803264662</v>
+        <v>0.2248686993767751</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09641938874048013</v>
+        <v>0.195571166612646</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1286848780643117</v>
+        <v>0.1142145955234949</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0863132398495657</v>
+        <v>0.1977620746600455</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1132133922711533</v>
+        <v>0.1052848509995722</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09054694869359181</v>
+        <v>0.198261993250243</v>
       </c>
       <c r="L189" t="n">
-        <v>0.169839118503557</v>
+        <v>0.1663630967752799</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09519506665188916</v>
+        <v>0.1973435727015902</v>
       </c>
       <c r="N189" t="n">
-        <v>0.2331459635452386</v>
+        <v>0.2267927335251811</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09720328620991492</v>
+        <v>0.1971611760973016</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1306892449074691</v>
+        <v>0.1134898993508568</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08700931436448156</v>
+        <v>0.1993569301008523</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1129726645380608</v>
+        <v>0.105026271782717</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09127716602176593</v>
+        <v>0.1998608802925836</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1695250273525123</v>
+        <v>0.1660385154082108</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09596276880230763</v>
+        <v>0.198935053126603</v>
       </c>
       <c r="N190" t="n">
-        <v>0.2296222590444453</v>
+        <v>0.2271039793893198</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09798718367934973</v>
+        <v>0.1987511855819573</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1216753484186359</v>
+        <v>0.1137582572328528</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0877053888793974</v>
+        <v>0.2009517855416591</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1124074730570082</v>
+        <v>0.1053616312073886</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09200738334994006</v>
+        <v>0.2014597673349243</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1693900059539365</v>
+        <v>0.1667044231760559</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09673047095272609</v>
+        <v>0.2005265335516158</v>
       </c>
       <c r="N191" t="n">
-        <v>0.228582642846904</v>
+        <v>0.2262022500530901</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09877108114878452</v>
+        <v>0.200341195066613</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1206170575528995</v>
+        <v>0.1100195684765674</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08840146339431325</v>
+        <v>0.2025466409824659</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1121195895489119</v>
+        <v>0.1058908409425571</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09273760067811418</v>
+        <v>0.203058654377265</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1690373586714362</v>
+        <v>0.166860682806564</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09749817310314454</v>
+        <v>0.2021180139766287</v>
       </c>
       <c r="N192" t="n">
-        <v>0.227133590975432</v>
+        <v>0.2271873586003905</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09955497861821933</v>
+        <v>0.2019312045512686</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1245154116402971</v>
+        <v>0.1202737323890853</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0890975379092291</v>
+        <v>0.2041414964232728</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1118107857346882</v>
+        <v>0.1056138126571926</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09346781800628831</v>
+        <v>0.2046575414196057</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1666703898686177</v>
+        <v>0.1663071570274839</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09826587525356301</v>
+        <v>0.2037094944016415</v>
       </c>
       <c r="N193" t="n">
-        <v>0.2268815794528465</v>
+        <v>0.2281591181151191</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1003388760876541</v>
+        <v>0.2035212140359243</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1233724673100313</v>
+        <v>0.1175206482774913</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08979361242414496</v>
+        <v>0.2057363518640796</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1109828333352533</v>
+        <v>0.1060304580202652</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09419803533446243</v>
+        <v>0.2062564284619463</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1659924039090876</v>
+        <v>0.1679437085665646</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09903357740398147</v>
+        <v>0.2053009748266543</v>
       </c>
       <c r="N194" t="n">
-        <v>0.2251330843019652</v>
+        <v>0.229617341681175</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1011227735570889</v>
+        <v>0.2051112235205799</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1261902811913048</v>
+        <v>0.1107602154488697</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09048968693906081</v>
+        <v>0.2073312073048864</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1103375040715235</v>
+        <v>0.1061406887007452</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09492825266263656</v>
+        <v>0.207855315504287</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1661067051564524</v>
+        <v>0.1679702001515548</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09980127955439992</v>
+        <v>0.2068924552516671</v>
       </c>
       <c r="N195" t="n">
-        <v>0.2231945815456052</v>
+        <v>0.2280618423824565</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1019066710265237</v>
+        <v>0.2067012330052356</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1199709099133201</v>
+        <v>0.1229923332103053</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09118576145397665</v>
+        <v>0.2089260627456932</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1106765696644152</v>
+        <v>0.1060444163676028</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09565846999081069</v>
+        <v>0.2094542025466277</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1659165979743185</v>
+        <v>0.1671864945102034</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1005689817048184</v>
+        <v>0.2084839356766799</v>
       </c>
       <c r="N196" t="n">
-        <v>0.2209725472065842</v>
+        <v>0.2297924333028621</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1026905684959585</v>
+        <v>0.2082912424898913</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1297164101052798</v>
+        <v>0.1232169008688827</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09188183596889252</v>
+        <v>0.2105209181865</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1102018018348444</v>
+        <v>0.1065415526898079</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09638868731898481</v>
+        <v>0.2110530895889683</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1649253867262924</v>
+        <v>0.1685924543702591</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1013366838552369</v>
+        <v>0.2100754161016928</v>
       </c>
       <c r="N197" t="n">
-        <v>0.2212734573077194</v>
+        <v>0.2304089275262907</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1034744659653933</v>
+        <v>0.2098812519745469</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1204288383963864</v>
+        <v>0.1184338177316866</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09257791048380837</v>
+        <v>0.2121157736273069</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1096149723037275</v>
+        <v>0.1068320093363309</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09711890464715896</v>
+        <v>0.212651976631309</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1640363757759806</v>
+        <v>0.1681879424594709</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1021043860056553</v>
+        <v>0.2116668965267056</v>
       </c>
       <c r="N198" t="n">
-        <v>0.2196037878718282</v>
+        <v>0.2305111381366406</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1042583634348281</v>
+        <v>0.2114712614592026</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1221102514158426</v>
+        <v>0.1166429831058016</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09327398499872422</v>
+        <v>0.2137106290681137</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1092178527919808</v>
+        <v>0.1066156979761417</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09784912197533308</v>
+        <v>0.2142508636736497</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1630528694869895</v>
+        <v>0.1693728215055876</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1028720881560738</v>
+        <v>0.2132583769517184</v>
       </c>
       <c r="N199" t="n">
-        <v>0.217470014921728</v>
+        <v>0.2306988782178103</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1050422609042629</v>
+        <v>0.2130612709438582</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1247627057928509</v>
+        <v>0.1128442962983122</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09397005951364007</v>
+        <v>0.2153054845089205</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1078122150205206</v>
+        <v>0.1074925302782107</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09857933930350721</v>
+        <v>0.2158497507159904</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1611781722229257</v>
+        <v>0.1684469542363581</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1036397903064922</v>
+        <v>0.2148498573767312</v>
       </c>
       <c r="N200" t="n">
-        <v>0.2157786144802363</v>
+        <v>0.2312719608536987</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1058261583736977</v>
+        <v>0.2146512804285139</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1213882581566139</v>
+        <v>0.1210376566163032</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09466613402855592</v>
+        <v>0.2169003399497273</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1078998307102631</v>
+        <v>0.1074624179115079</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09930955663168133</v>
+        <v>0.217448637758331</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1611155883473956</v>
+        <v>0.1690102033795313</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1044074924569107</v>
+        <v>0.216441337801744</v>
       </c>
       <c r="N201" t="n">
-        <v>0.2148327647404112</v>
+        <v>0.2315301991282041</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1066100558431325</v>
+        <v>0.2162412899131696</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1219889651363342</v>
+        <v>0.1192229633668591</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09536220854347179</v>
+        <v>0.2184951953905341</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1068824715821246</v>
+        <v>0.1072252725450034</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1000397739598555</v>
+        <v>0.2190475248006717</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1603684222240057</v>
+        <v>0.1692624316628557</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1051751946073292</v>
+        <v>0.2180328182267569</v>
       </c>
       <c r="N202" t="n">
-        <v>0.2137925708602583</v>
+        <v>0.2311734061252252</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1073939533125673</v>
+        <v>0.2178312993978252</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1185668833612143</v>
+        <v>0.1224001158570646</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09605828305838764</v>
+        <v>0.2200900508313409</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1069619093570214</v>
+        <v>0.1080810058476675</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1007699912880296</v>
+        <v>0.2206464118430123</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1598399782163624</v>
+        <v>0.1697035018140804</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1059428967577476</v>
+        <v>0.2196242986517697</v>
       </c>
       <c r="N203" t="n">
-        <v>0.2139445039037016</v>
+        <v>0.2315013949286603</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1081778507820021</v>
+        <v>0.2194213088824809</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1231240694604569</v>
+        <v>0.1145690133940044</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09675435757330347</v>
+        <v>0.2216849062721478</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1059399157558697</v>
+        <v>0.1080295294884703</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1015002086162037</v>
+        <v>0.222245298885353</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1589316216253181</v>
+        <v>0.1708332765609543</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1067105989081661</v>
+        <v>0.2212157790767825</v>
       </c>
       <c r="N204" t="n">
-        <v>0.21228853641286</v>
+        <v>0.2323139786224082</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1089617482514369</v>
+        <v>0.2210113183671365</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1166625800632644</v>
+        <v>0.116729555284763</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09745043208821934</v>
+        <v>0.2232797617129546</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1055182624995857</v>
+        <v>0.1077707551363819</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1022304259443778</v>
+        <v>0.2238441859276937</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1583221841999237</v>
+        <v>0.170251618631226</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1074783010585845</v>
+        <v>0.2228072595017954</v>
       </c>
       <c r="N205" t="n">
-        <v>0.211424640929852</v>
+        <v>0.2329109702903674</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1097456457208717</v>
+        <v>0.2226013278517922</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1201844717988395</v>
+        <v>0.124881640836425</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09814650660313519</v>
+        <v>0.2248746171537614</v>
       </c>
       <c r="J206" t="n">
-        <v>0.104698721309086</v>
+        <v>0.1085045944603725</v>
       </c>
       <c r="K206" t="n">
-        <v>0.102960643272552</v>
+        <v>0.2254430729700344</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1581049970132206</v>
+        <v>0.1709583907526446</v>
       </c>
       <c r="M206" t="n">
-        <v>0.108246003209003</v>
+        <v>0.2243987399268082</v>
       </c>
       <c r="N206" t="n">
-        <v>0.210152789996796</v>
+        <v>0.2338921830164367</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1105295431903065</v>
+        <v>0.2241913373364479</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1146918012963849</v>
+        <v>0.1160251693560752</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09884258111805104</v>
+        <v>0.2264694725945682</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1040830639052865</v>
+        <v>0.1081309591294122</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1036908606007261</v>
+        <v>0.227041960012375</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1560800571731195</v>
+        <v>0.1713534556529588</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1090137053594215</v>
+        <v>0.225990220351821</v>
       </c>
       <c r="N207" t="n">
-        <v>0.2080729561558106</v>
+        <v>0.2337574298845141</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1113134406597413</v>
+        <v>0.2257813468211035</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1201866251851029</v>
+        <v>0.123160040150798</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09953865563296689</v>
+        <v>0.228064328035375</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1044730620091036</v>
+        <v>0.1088497608124712</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1044210779289002</v>
+        <v>0.2286408470547157</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1552473617875311</v>
+        <v>0.1701366760599174</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1097814075098399</v>
+        <v>0.2275817007768338</v>
       </c>
       <c r="N208" t="n">
-        <v>0.2057851119490147</v>
+        <v>0.2328065239784987</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1120973381291761</v>
+        <v>0.2273713563057592</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1186710000941963</v>
+        <v>0.1172861525276783</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1002347301478827</v>
+        <v>0.2296591834761819</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1036704873414536</v>
+        <v>0.1081609111785196</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1051512952570744</v>
+        <v>0.2302397340970563</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1552069079643662</v>
+        <v>0.1715079147012694</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1105491096602584</v>
+        <v>0.2291731812018467</v>
       </c>
       <c r="N209" t="n">
-        <v>0.2059892299185264</v>
+        <v>0.2346392783822888</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1128812355986109</v>
+        <v>0.2289613657904148</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1211469826528676</v>
+        <v>0.1184034057938005</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1009308046627986</v>
+        <v>0.2312540389169887</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1033771116232528</v>
+        <v>0.1089643218965276</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1058815125852485</v>
+        <v>0.231838621139397</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1543586928115358</v>
+        <v>0.1704670343047636</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1113168118106768</v>
+        <v>0.2307646616268595</v>
       </c>
       <c r="N210" t="n">
-        <v>0.2042852826064646</v>
+        <v>0.234855506179783</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1136651330680457</v>
+        <v>0.2305513752750705</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1116166294903194</v>
+        <v>0.1205116992562493</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1016268791777144</v>
+        <v>0.2328488943577955</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1025947065754174</v>
+        <v>0.1088599046354653</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1066117299134226</v>
+        <v>0.2334375081817377</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1546027134369506</v>
+        <v>0.1716138975981487</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1120845139610953</v>
+        <v>0.2323561420518723</v>
       </c>
       <c r="N211" t="n">
-        <v>0.2023732425549477</v>
+        <v>0.23445502045488</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1144490305374805</v>
+        <v>0.2321413847597261</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1120819972357542</v>
+        <v>0.1196109322221094</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1023229536926303</v>
+        <v>0.2344437497986023</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1019178683382444</v>
+        <v>0.108247571064303</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1073419472415967</v>
+        <v>0.2350363952240784</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1522389669485214</v>
+        <v>0.1710483673091736</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1128522161115138</v>
+        <v>0.2339476224768851</v>
       </c>
       <c r="N212" t="n">
-        <v>0.2009530823060943</v>
+        <v>0.2352376342914783</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1152329280069153</v>
+        <v>0.2337313942443818</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1115451425183747</v>
+        <v>0.1217010039984653</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1030190282075462</v>
+        <v>0.2360386052394091</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1014341210444012</v>
+        <v>0.1086272328520106</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1080721645697709</v>
+        <v>0.236635282266419</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1514674504541589</v>
+        <v>0.1716703061655871</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1136199182619322</v>
+        <v>0.2355391029018979</v>
       </c>
       <c r="N213" t="n">
-        <v>0.201024774402023</v>
+        <v>0.2339031607734763</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1160168254763501</v>
+        <v>0.2353214037290375</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1110081219673834</v>
+        <v>0.1137818138924018</v>
       </c>
       <c r="G214" t="n">
-        <v>0.103715102722462</v>
+        <v>0.2376334606802159</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1013432040528221</v>
+        <v>0.1084988016675584</v>
       </c>
       <c r="K214" t="n">
-        <v>0.108802381897945</v>
+        <v>0.2382341693087597</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1510881610617742</v>
+        <v>0.1720795768951383</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1143876204123507</v>
+        <v>0.2371305833269108</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1994882913848525</v>
+        <v>0.2337514129847729</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1168007229457849</v>
+        <v>0.2369114132136931</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1144729922119828</v>
+        <v>0.1238532612110033</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1044111772373779</v>
+        <v>0.2392283161210227</v>
       </c>
       <c r="J215" t="n">
-        <v>0.100145141651239</v>
+        <v>0.1089621891799165</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1095325992261191</v>
+        <v>0.2398330563511004</v>
       </c>
       <c r="L215" t="n">
-        <v>0.150901095879278</v>
+        <v>0.1712760422255757</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1151553225627692</v>
+        <v>0.2387220637519236</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1981436057967011</v>
+        <v>0.2340822040092663</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1175846204152197</v>
+        <v>0.2385014226983488</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1209418098813757</v>
+        <v>0.1179152452613546</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1051072517522937</v>
+        <v>0.2408231715618296</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1004399581273841</v>
+        <v>0.1086173070580551</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1102628165542932</v>
+        <v>0.241431943393441</v>
       </c>
       <c r="L216" t="n">
-        <v>0.149506252014581</v>
+        <v>0.1710595648846485</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1159230247131876</v>
+        <v>0.2403135441769364</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1964906901796876</v>
+        <v>0.2336953469308554</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1183685178846545</v>
+        <v>0.2400914321830044</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1134166316047645</v>
+        <v>0.1149676653505403</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1058033262672096</v>
+        <v>0.2424180270026364</v>
       </c>
       <c r="J217" t="n">
-        <v>0.09942767776898952</v>
+        <v>0.1091640669709443</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1109930338824674</v>
+        <v>0.2430308304357817</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1484036265755942</v>
+        <v>0.1717300076001052</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1166907268636061</v>
+        <v>0.2419050246019492</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1948295170759303</v>
+        <v>0.2356906548334383</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1191524153540893</v>
+        <v>0.2416814416676601</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1108995140113518</v>
+        <v>0.1180104207856451</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1064994007821254</v>
+        <v>0.2440128824434432</v>
       </c>
       <c r="J218" t="n">
-        <v>0.09960832486378725</v>
+        <v>0.1091023805875544</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1117232512106415</v>
+        <v>0.2446297174781224</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1483932166702281</v>
+        <v>0.1719872330996947</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1174584290140245</v>
+        <v>0.243496505026962</v>
       </c>
       <c r="N218" t="n">
-        <v>0.194360059027548</v>
+        <v>0.235467940800914</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1199363128235241</v>
+        <v>0.2432714511523157</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1093895226852268</v>
+        <v>0.1190434108737534</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1071954752970413</v>
+        <v>0.2456077378842501</v>
       </c>
       <c r="J219" t="n">
-        <v>0.09888192369950945</v>
+        <v>0.1095321595768552</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1124534685388156</v>
+        <v>0.2462286045204631</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1469750194063939</v>
+        <v>0.171731104111166</v>
       </c>
       <c r="M219" t="n">
-        <v>0.118226131164443</v>
+        <v>0.2450879854519749</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1922822885766592</v>
+        <v>0.2345270179171809</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1207202102929589</v>
+        <v>0.2448614606369714</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1148693905718629</v>
+        <v>0.11906653492195</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1078915498119571</v>
+        <v>0.2472025933250569</v>
       </c>
       <c r="J220" t="n">
-        <v>0.09774849856388816</v>
+        <v>0.1092533156078172</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1131836858669897</v>
+        <v>0.2478274915628037</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1462490318920022</v>
+        <v>0.1724614833622678</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1189938333148614</v>
+        <v>0.2466794658769877</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1897961782653825</v>
+        <v>0.2357676992661377</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1215041077623937</v>
+        <v>0.246451470121627</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1103360851473555</v>
+        <v>0.1160796922373195</v>
       </c>
       <c r="G221" t="n">
-        <v>0.108587624326873</v>
+        <v>0.2487974487658637</v>
       </c>
       <c r="J221" t="n">
-        <v>0.09720807374465555</v>
+        <v>0.1095657603494104</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1139139031951639</v>
+        <v>0.2494263786051444</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1454152512349638</v>
+        <v>0.1718782335807491</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1197615354652799</v>
+        <v>0.2482709463020006</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1893017006358365</v>
+        <v>0.2360897979316828</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1222880052318285</v>
+        <v>0.2480414796062827</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1057896993342147</v>
+        <v>0.121076928763735</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1092836988417888</v>
+        <v>0.2503923042066705</v>
       </c>
       <c r="J222" t="n">
-        <v>0.09696067352954373</v>
+        <v>0.1097683486432766</v>
       </c>
       <c r="K222" t="n">
-        <v>0.114644120523338</v>
+        <v>0.2510252656474851</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1456736745431897</v>
+        <v>0.1727642305517429</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1205292376156984</v>
+        <v>0.2498624267270134</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1870988282301396</v>
+        <v>0.2338632015522651</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1230719027012633</v>
+        <v>0.2496314890909384</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1172303260549506</v>
+        <v>0.1148627233419773</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1099797733567047</v>
+        <v>0.2519871596474773</v>
       </c>
       <c r="J223" t="n">
-        <v>0.09700632220628459</v>
+        <v>0.108808952773662</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1153743378515121</v>
+        <v>0.2526241526898257</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1437242989245904</v>
+        <v>0.1723351367260741</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1212969397661168</v>
+        <v>0.2514539071520262</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1873875335904105</v>
+        <v>0.2337931002268451</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1238558001706981</v>
+        <v>0.2512214985755941</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1146580582320731</v>
+        <v>0.1153648715792223</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1106758478716205</v>
+        <v>0.2535820150882841</v>
       </c>
       <c r="J224" t="n">
-        <v>0.09634504406261045</v>
+        <v>0.1083985139347763</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1161045551796863</v>
+        <v>0.2542230397321664</v>
       </c>
       <c r="L224" t="n">
-        <v>0.143667121487077</v>
+        <v>0.1712222553819425</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1220646419165353</v>
+        <v>0.253045387577039</v>
       </c>
       <c r="N224" t="n">
-        <v>0.185367789258768</v>
+        <v>0.2333021431791078</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1246396976401328</v>
+        <v>0.2528115080602497</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1140729887880922</v>
+        <v>0.1226147638255026</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1113719223865364</v>
+        <v>0.2551768705290909</v>
       </c>
       <c r="J225" t="n">
-        <v>0.09567686338625329</v>
+        <v>0.1082645687406456</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1168347725078604</v>
+        <v>0.2558219267745071</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1420021393385601</v>
+        <v>0.1698683802352485</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1228323440669538</v>
+        <v>0.2546368680020518</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1837395677773301</v>
+        <v>0.2315486002667596</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1254235951095677</v>
+        <v>0.2544015175449054</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1064752106455179</v>
+        <v>0.1126437904308505</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1120679969014522</v>
+        <v>0.2567717259698978</v>
       </c>
       <c r="J226" t="n">
-        <v>0.09480180446494525</v>
+        <v>0.1070346538052958</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1175649898360345</v>
+        <v>0.2574208138168477</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1414293495869507</v>
+        <v>0.1692163050018931</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1236000462173722</v>
+        <v>0.2562283484270647</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1828028416882158</v>
+        <v>0.2290907413475068</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1262074925790025</v>
+        <v>0.255991527029561</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1068648167268604</v>
+        <v>0.1104833417452987</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1127640714163681</v>
+        <v>0.2583665814107046</v>
       </c>
       <c r="J227" t="n">
-        <v>0.09461989158641838</v>
+        <v>0.1059363057427529</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1182952071642086</v>
+        <v>0.2590197008591884</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1398487493401595</v>
+        <v>0.1662088233977768</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1243677483677907</v>
+        <v>0.2578198288520775</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1797575835335435</v>
+        <v>0.2285868362790561</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1269913900484372</v>
+        <v>0.2575815365142167</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1092418999546294</v>
+        <v>0.1181648081188794</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1134601459312839</v>
+        <v>0.2599614368515114</v>
       </c>
       <c r="J228" t="n">
-        <v>0.09413114903840479</v>
+        <v>0.105497061167043</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1190254244923828</v>
+        <v>0.2606185879015291</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1392603357060974</v>
+        <v>0.1659887291388006</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1251354505182091</v>
+        <v>0.2594113092770903</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1796037658554319</v>
+        <v>0.2263951549191138</v>
       </c>
       <c r="O228" t="n">
-        <v>0.127775287517872</v>
+        <v>0.2591715459988723</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1056065532513352</v>
+        <v>0.1157195799016253</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1141562204461998</v>
+        <v>0.2615562922923182</v>
       </c>
       <c r="J229" t="n">
-        <v>0.09333560110863655</v>
+        <v>0.1039444566921919</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1197556418205569</v>
+        <v>0.2622174749438698</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1391641057926751</v>
+        <v>0.162598815940865</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1259031526686276</v>
+        <v>0.2610027897021031</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1775413611959994</v>
+        <v>0.2218739671253864</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1285591849873068</v>
+        <v>0.260761555483528</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1119588695394876</v>
+        <v>0.1121790474435687</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1148522949611157</v>
+        <v>0.263151147733125</v>
       </c>
       <c r="J230" t="n">
-        <v>0.09203327208484581</v>
+        <v>0.1029060289322258</v>
       </c>
       <c r="K230" t="n">
-        <v>0.120485859148731</v>
+        <v>0.2638163619862104</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1387600567078034</v>
+        <v>0.1605818775198707</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1266708548190461</v>
+        <v>0.2625942701271159</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1770703420973647</v>
+        <v>0.2196815427555803</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1293430824567416</v>
+        <v>0.2623515649681836</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1002989417415967</v>
+        <v>0.1055746010947421</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1155483694760315</v>
+        <v>0.2647460031739318</v>
       </c>
       <c r="J231" t="n">
-        <v>0.09172418625476465</v>
+        <v>0.1005093145011704</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1212160764769051</v>
+        <v>0.2654152490285511</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1367481855593934</v>
+        <v>0.1586807075917187</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1274385569694645</v>
+        <v>0.2641857505521288</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1753906811016464</v>
+        <v>0.216676151667402</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1301269799261764</v>
+        <v>0.2639415744528393</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1006268627801725</v>
+        <v>0.111937631205178</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1162444439909473</v>
+        <v>0.2663408586147387</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0914083679061251</v>
+        <v>0.099481850013052</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1219462938050793</v>
+        <v>0.2670141360708917</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1369284894553555</v>
+        <v>0.1571380998723095</v>
       </c>
       <c r="M232" t="n">
-        <v>0.128206259119883</v>
+        <v>0.2657772309771416</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1739023507509629</v>
+        <v>0.2136160637185577</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1309108773956112</v>
+        <v>0.265531583937495</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1059427255777251</v>
+        <v>0.1092995281249089</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1169405185058632</v>
+        <v>0.2679357140555455</v>
       </c>
       <c r="J233" t="n">
-        <v>0.09078584132665928</v>
+        <v>0.09875117208189639</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1226765111332534</v>
+        <v>0.2686130231132324</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1355009655036009</v>
+        <v>0.1537968480775438</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1289739612703014</v>
+        <v>0.2673687114021545</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1729053235874329</v>
+        <v>0.2102595487667543</v>
       </c>
       <c r="O233" t="n">
-        <v>0.131694774865046</v>
+        <v>0.2671215934221506</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1082466230567643</v>
+        <v>0.1086916822039672</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1176365930207791</v>
+        <v>0.2695305694963523</v>
       </c>
       <c r="J234" t="n">
-        <v>0.08975663080409928</v>
+        <v>0.09664481732172962</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1234067284614275</v>
+        <v>0.2702119101555731</v>
       </c>
       <c r="L234" t="n">
-        <v>0.13376561081204</v>
+        <v>0.1522997459233224</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1297416634207199</v>
+        <v>0.2689601918271672</v>
       </c>
       <c r="N234" t="n">
-        <v>0.169299572153175</v>
+        <v>0.2084648766696979</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1324786723344808</v>
+        <v>0.2687116029068063</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1065386481398003</v>
+        <v>0.1051454837923853</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1183326675356949</v>
+        <v>0.2711254249371591</v>
       </c>
       <c r="J235" t="n">
-        <v>0.08902076062617724</v>
+        <v>0.09569032234657764</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1241369457896017</v>
+        <v>0.2718107971979138</v>
       </c>
       <c r="L235" t="n">
-        <v>0.134122422488584</v>
+        <v>0.1505895871255461</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1305093655711384</v>
+        <v>0.2705516722521801</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1684850689903076</v>
+        <v>0.204690317285095</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1332625698039156</v>
+        <v>0.2703016123914619</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1068188937493429</v>
+        <v>0.09769232324019583</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1190287420506108</v>
+        <v>0.272720280377966</v>
       </c>
       <c r="J236" t="n">
-        <v>0.08887825508062518</v>
+        <v>0.09421522377046641</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1248671631177758</v>
+        <v>0.2734096842402545</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1323713976411435</v>
+        <v>0.1487091654001156</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1312770677215568</v>
+        <v>0.2721431526771929</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1671617866409494</v>
+        <v>0.2020941404706521</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1340464672733504</v>
+        <v>0.2718916218761176</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1030874528079024</v>
+        <v>0.09836062736435996</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1197248165655266</v>
+        <v>0.2743151358187728</v>
       </c>
       <c r="J237" t="n">
-        <v>0.08792913845517529</v>
+        <v>0.09254597521436518</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1255973804459499</v>
+        <v>0.2750085712825951</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1312125333776294</v>
+        <v>0.1467944453295776</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1320447698719753</v>
+        <v>0.2737346331022057</v>
       </c>
       <c r="N237" t="n">
-        <v>0.164629697647219</v>
+        <v>0.2004233370551393</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1348303647427852</v>
+        <v>0.2734816313607733</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1073444182379886</v>
+        <v>0.09907156885057875</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1204208910804425</v>
+        <v>0.2759099912595795</v>
       </c>
       <c r="J238" t="n">
-        <v>0.08717343503755949</v>
+        <v>0.09142114361999241</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1263275977741241</v>
+        <v>0.2766074583249358</v>
       </c>
       <c r="L238" t="n">
-        <v>0.1299458268059524</v>
+        <v>0.1453292782764894</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1328124720223938</v>
+        <v>0.2753261135272185</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1635887745512348</v>
+        <v>0.1962151407822538</v>
       </c>
       <c r="O238" t="n">
-        <v>0.13561426221222</v>
+        <v>0.275071640845429</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.09458988296211154</v>
+        <v>0.1007777483220141</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1211169655953583</v>
+        <v>0.2775048467003864</v>
       </c>
       <c r="J239" t="n">
-        <v>0.08631116911551003</v>
+        <v>0.09019214944478206</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1270578151022982</v>
+        <v>0.2782063453672765</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1303712750340235</v>
+        <v>0.142457599925012</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1335801741728122</v>
+        <v>0.2769175939522314</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1628389898951155</v>
+        <v>0.1944980669087024</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1363981596816548</v>
+        <v>0.2766616503300846</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1038239399027812</v>
+        <v>0.09247909141376254</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1218130401102742</v>
+        <v>0.2790997021411932</v>
       </c>
       <c r="J240" t="n">
-        <v>0.08624236497675901</v>
+        <v>0.08955892745347425</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1277880324304723</v>
+        <v>0.2798052324096171</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1293888751697534</v>
+        <v>0.1407793088952453</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1343478763232307</v>
+        <v>0.2785090743772442</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1606803162209798</v>
+        <v>0.193271977391031</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1371820571510896</v>
+        <v>0.2782516598147402</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09704668198250774</v>
+        <v>0.09617552376092103</v>
       </c>
       <c r="G241" t="n">
-        <v>0.12250911462519</v>
+        <v>0.2806945575820001</v>
       </c>
       <c r="J241" t="n">
-        <v>0.08586704690903839</v>
+        <v>0.08902141241080928</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1285182497586464</v>
+        <v>0.2814041194519578</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1278986243210529</v>
+        <v>0.1386943038072895</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1351155784736491</v>
+        <v>0.280100554802257</v>
       </c>
       <c r="N241" t="n">
-        <v>0.158512726070946</v>
+        <v>0.1912367341857862</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1379659546205244</v>
+        <v>0.2798416692993959</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.101258202123801</v>
+        <v>0.09286697099858615</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1232051891401059</v>
+        <v>0.2822894130228069</v>
       </c>
       <c r="J242" t="n">
-        <v>0.08498523920008035</v>
+        <v>0.08687953908152728</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1292484670868206</v>
+        <v>0.2830030064942985</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1269005195958329</v>
+        <v>0.1372024832812447</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1358832806240676</v>
+        <v>0.2816920352272698</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1582361919871327</v>
+        <v>0.1874921992495138</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1387498520899592</v>
+        <v>0.2814316787840516</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.09545859324917105</v>
+        <v>0.09355335876185467</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1239012636550217</v>
+        <v>0.2838842684636137</v>
       </c>
       <c r="J243" t="n">
-        <v>0.08389696613761698</v>
+        <v>0.0861332422303686</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1299786844149947</v>
+        <v>0.2846018935366391</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1255945581020041</v>
+        <v>0.136503745937211</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1366509827744861</v>
+        <v>0.2832835156522827</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1553506865116587</v>
+        <v>0.1848382345387605</v>
       </c>
       <c r="O243" t="n">
-        <v>0.139533749559394</v>
+        <v>0.2830216882687072</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09164794828112793</v>
+        <v>0.09323461268582328</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1245973381699376</v>
+        <v>0.2854791239044205</v>
       </c>
       <c r="J244" t="n">
-        <v>0.08330225200938036</v>
+        <v>0.08558245662207327</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1307089017431688</v>
+        <v>0.2862007805789798</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1243807369474774</v>
+        <v>0.1330979903952884</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1374186849249045</v>
+        <v>0.2848749960772954</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1542561821866423</v>
+        <v>0.1837747020100723</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1403176470288288</v>
+        <v>0.2846116977533629</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09482636014218163</v>
+        <v>0.08891065840558862</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1252934126848534</v>
+        <v>0.2870739793452273</v>
       </c>
       <c r="J245" t="n">
-        <v>0.08270112110310253</v>
+        <v>0.08332711702138167</v>
       </c>
       <c r="K245" t="n">
-        <v>0.131439119071343</v>
+        <v>0.2877996676213204</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1235590532401635</v>
+        <v>0.132785115275577</v>
       </c>
       <c r="M245" t="n">
-        <v>0.138186387075323</v>
+        <v>0.2864664765023083</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1522526515542023</v>
+        <v>0.1814014636199957</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1411015444982636</v>
+        <v>0.2862017072380185</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.09099392175484211</v>
+        <v>0.08758142155624751</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1259894871997693</v>
+        <v>0.2886688347860341</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0816935977065157</v>
+        <v>0.08266715819303395</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1321693363995171</v>
+        <v>0.2893985546636612</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1222295040879734</v>
+        <v>0.129565019198177</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1389540892257414</v>
+        <v>0.2880579569273212</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1524400671564571</v>
+        <v>0.1775183813250765</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1418854419676984</v>
+        <v>0.2877917167226742</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.08815072604161944</v>
+        <v>0.08924682777289655</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1266855617146851</v>
+        <v>0.290263690226841</v>
       </c>
       <c r="J247" t="n">
-        <v>0.08137970610735186</v>
+        <v>0.08130251490177036</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1328995537276912</v>
+        <v>0.2909974417060018</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1215920865988178</v>
+        <v>0.1281376007831884</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1397217913761599</v>
+        <v>0.2896494373523339</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1497184015355253</v>
+        <v>0.1750253170818611</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1426693394371332</v>
+        <v>0.2893817262073299</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.09729686592502362</v>
+        <v>0.09190680269063251</v>
       </c>
       <c r="G248" t="n">
-        <v>0.127381636229601</v>
+        <v>0.2918585456676478</v>
       </c>
       <c r="J248" t="n">
-        <v>0.08065947059334312</v>
+        <v>0.08093312191233105</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1336297710558653</v>
+        <v>0.2925963287483425</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1210467978806074</v>
+        <v>0.1258027586507114</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1404894935265784</v>
+        <v>0.2912409177773468</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1482876272335256</v>
+        <v>0.172922132846896</v>
       </c>
       <c r="O248" t="n">
-        <v>0.143453236906568</v>
+        <v>0.2909717356919855</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0954324343275646</v>
+        <v>0.08256127194455209</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1280777107445168</v>
+        <v>0.2934534011084546</v>
       </c>
       <c r="J249" t="n">
-        <v>0.07963291545222163</v>
+        <v>0.07935891398945637</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1343599883840395</v>
+        <v>0.2941952157906831</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1201936350412532</v>
+        <v>0.1250603914208459</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1412571956769968</v>
+        <v>0.2928323982023596</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1469477167925763</v>
+        <v>0.1709086905767274</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1442371343760028</v>
+        <v>0.2925617451766412</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08755752417175247</v>
+        <v>0.08021016116975205</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1287737852594327</v>
+        <v>0.2950482565492614</v>
       </c>
       <c r="J250" t="n">
-        <v>0.07860006497171941</v>
+        <v>0.07797982589788642</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1350902057122136</v>
+        <v>0.2957941028330238</v>
       </c>
       <c r="L250" t="n">
-        <v>0.118132595188666</v>
+        <v>0.1230103977136921</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1420248978274153</v>
+        <v>0.2944238786273724</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1454986427547963</v>
+        <v>0.1686848522279012</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1450210318454376</v>
+        <v>0.2941517546612968</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.09267222838009717</v>
+        <v>0.08885339600132905</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1294698597743486</v>
+        <v>0.2966431119900682</v>
       </c>
       <c r="J251" t="n">
-        <v>0.07866094343956863</v>
+        <v>0.07679579240236149</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1358204230403877</v>
+        <v>0.2973929898753644</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1178636754307565</v>
+        <v>0.1213526761493501</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1427925999778338</v>
+        <v>0.2960153590523853</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1427403776623039</v>
+        <v>0.166150479756964</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1458049293148724</v>
+        <v>0.2957417641459525</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.08977663987510881</v>
+        <v>0.08449090207437976</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1301659342892644</v>
+        <v>0.2982379674308751</v>
       </c>
       <c r="J252" t="n">
-        <v>0.07791557514350127</v>
+        <v>0.07590674826762171</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1365506403685618</v>
+        <v>0.2989918769177051</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1156868728754356</v>
+        <v>0.11908712534792</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1435603021282522</v>
+        <v>0.2976068394773981</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1424728940572177</v>
+        <v>0.1617054351204618</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1465888267843072</v>
+        <v>0.2973317736306081</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.09387085157929728</v>
+        <v>0.08412260502400096</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1308620088041803</v>
+        <v>0.2998328228716818</v>
       </c>
       <c r="J253" t="n">
-        <v>0.07666398437124954</v>
+        <v>0.07491262825840746</v>
       </c>
       <c r="K253" t="n">
-        <v>0.137280857696736</v>
+        <v>0.3005907639600458</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1158021846306142</v>
+        <v>0.1175136439295019</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1443280042786707</v>
+        <v>0.2991983199024109</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1402961644816565</v>
+        <v>0.160349580274941</v>
       </c>
       <c r="O253" t="n">
-        <v>0.147372724253742</v>
+        <v>0.2989217831152638</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.08395495641517264</v>
+        <v>0.07274843048528937</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1315580833190961</v>
+        <v>0.3014276783124887</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0754061954105454</v>
+        <v>0.07351336713945873</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1380110750249101</v>
+        <v>0.3021896510023865</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1138096078042029</v>
+        <v>0.1162321305141959</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1450957064290891</v>
+        <v>0.3007898003274237</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1374101614777387</v>
+        <v>0.1568827771769478</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1481566217231768</v>
+        <v>0.3005117925999194</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.08202904730524491</v>
+        <v>0.07536830409334161</v>
       </c>
       <c r="G255" t="n">
-        <v>0.132254157834012</v>
+        <v>0.3030225337532955</v>
       </c>
       <c r="J255" t="n">
-        <v>0.07514223254912107</v>
+        <v>0.0717088996755159</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1387412923530842</v>
+        <v>0.3037885380447271</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1137091395041127</v>
+        <v>0.113142483722102</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1458634085795076</v>
+        <v>0.3023812807524365</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1359148575875828</v>
+        <v>0.1557048877830284</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1489405191926116</v>
+        <v>0.3021018020845751</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.08309321717202409</v>
+        <v>0.07598215148325441</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1329502323489278</v>
+        <v>0.3046173891941024</v>
       </c>
       <c r="J256" t="n">
-        <v>0.07497212007470856</v>
+        <v>0.07089916063131919</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1394715096812583</v>
+        <v>0.3053874250870678</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1123007768382542</v>
+        <v>0.1113446021733204</v>
       </c>
       <c r="M256" t="n">
-        <v>0.146631110729926</v>
+        <v>0.3039727611774494</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1360102253533074</v>
+        <v>0.1516157740497291</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1497244166620464</v>
+        <v>0.3036918115692308</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.09014755893802018</v>
+        <v>0.07158989829012458</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1336463068638437</v>
+        <v>0.3062122446349091</v>
       </c>
       <c r="J257" t="n">
-        <v>0.07419588227504002</v>
+        <v>0.06988408477160878</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1402017270094325</v>
+        <v>0.3069863121294085</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1104845169145384</v>
+        <v>0.109738384487951</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1473988128803445</v>
+        <v>0.3055642416024622</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1324962373170312</v>
+        <v>0.1506152979335961</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1505083141314812</v>
+        <v>0.3052818210538865</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.09019216552574316</v>
+        <v>0.07819147014904873</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1343423813787595</v>
+        <v>0.3078071000757159</v>
       </c>
       <c r="J258" t="n">
-        <v>0.07301354343784748</v>
+        <v>0.06836360686112487</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1409319443376066</v>
+        <v>0.3085851991717491</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1088603568408761</v>
+        <v>0.1078237292860941</v>
       </c>
       <c r="M258" t="n">
-        <v>0.148166515030763</v>
+        <v>0.307155722027475</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1325728660208726</v>
+        <v>0.1479033213911758</v>
       </c>
       <c r="O258" t="n">
-        <v>0.151292211600916</v>
+        <v>0.3068718305385421</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.08122712985770311</v>
+        <v>0.07478679269512362</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1350384558936754</v>
+        <v>0.3094019555165228</v>
       </c>
       <c r="J259" t="n">
-        <v>0.07202512785086308</v>
+        <v>0.0669376616646077</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1416621616657807</v>
+        <v>0.3101840862140898</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1087282937251781</v>
+        <v>0.1059005351878498</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1489342171811814</v>
+        <v>0.3087472024524878</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1304400840069504</v>
+        <v>0.1448797063790143</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1520761090703508</v>
+        <v>0.3084618400231978</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.07825254485641003</v>
+        <v>0.06937579156344589</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1357345304085912</v>
+        <v>0.3109968109573296</v>
       </c>
       <c r="J260" t="n">
-        <v>0.07133065980181889</v>
+        <v>0.0664061839467975</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1423923789939548</v>
+        <v>0.3117829732564305</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1080883246753552</v>
+        <v>0.103768700813318</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1497019193315999</v>
+        <v>0.3103386828775007</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1289978638173829</v>
+        <v>0.1407443148536577</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1528600065397856</v>
+        <v>0.3100518495078534</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.07526850344437386</v>
+        <v>0.07095839238911236</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1364306049235071</v>
+        <v>0.3125916663981364</v>
       </c>
       <c r="J261" t="n">
-        <v>0.07073016357844704</v>
+        <v>0.06446910847243446</v>
       </c>
       <c r="K261" t="n">
-        <v>0.143122596322129</v>
+        <v>0.3133818602987712</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1058404467993181</v>
+        <v>0.1019281247825989</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1504696214820184</v>
+        <v>0.3119301633025135</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1265461779942887</v>
+        <v>0.1394970087716526</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1536439040092204</v>
+        <v>0.3116418589925091</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.07927509854410464</v>
+        <v>0.06353452080721966</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1371266794384229</v>
+        <v>0.3141865218389432</v>
       </c>
       <c r="J262" t="n">
-        <v>0.06972366346847957</v>
+        <v>0.06342637000625885</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1438528136503031</v>
+        <v>0.3149807473411118</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1050846572049778</v>
+        <v>0.09947870571579276</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1512373236324368</v>
+        <v>0.3135216437275263</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1249849990797867</v>
+        <v>0.137137650089545</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1544278014786552</v>
+        <v>0.3132318684771647</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.08527242307811242</v>
+        <v>0.06010410245286447</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1378227539533388</v>
+        <v>0.3157813772797501</v>
       </c>
       <c r="J263" t="n">
-        <v>0.06941118375964857</v>
+        <v>0.0616779033130108</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1445830309784772</v>
+        <v>0.3165796343834525</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1040209530002451</v>
+        <v>0.09822034223299941</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1520050257828553</v>
+        <v>0.3151131241525391</v>
       </c>
       <c r="N263" t="n">
-        <v>0.122014299615995</v>
+        <v>0.1329661007638811</v>
       </c>
       <c r="O263" t="n">
-        <v>0.15521169894809</v>
+        <v>0.3148218779618204</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.08026056996890715</v>
+        <v>0.07066706296114361</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1385188284682546</v>
+        <v>0.3173762327205569</v>
       </c>
       <c r="J264" t="n">
-        <v>0.06839274873968619</v>
+        <v>0.06092364315743069</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1453132483066513</v>
+        <v>0.3181785214257932</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1030493312930306</v>
+        <v>0.09685293295431902</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1527727279332737</v>
+        <v>0.316704604577552</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1206340521450325</v>
+        <v>0.1323822227512073</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1559955964175248</v>
+        <v>0.316411887446476</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1420.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1420.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7580781044003323</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.05562959068834695</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.05562959068834695</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.08900734510135512</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1370349517574704</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06365255175747037</v>
+        <v>0.05541672055254067</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002514024203306413</v>
+        <v>0.0021887414234042</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9283,22 +9257,22 @@
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.02770836027627034</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0006956678142226919</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.05201472000000001</v>
+        <v>0</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0006141320201005028</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.05723605379263147</v>
+        <v>0.04888912928120603</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003604942566182513</v>
+        <v>0.0003432049270365165</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.03337775441300817</v>
+        <v>0.02549169145416871</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008380080677688044</v>
+        <v>0.0006400143890848766</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.04176120616562486</v>
+        <v>0.02549169145416871</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001598887042340669</v>
+        <v>0.0006400143890848766</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.08732924964359479</v>
+        <v>0.05201472000000001</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001842396060301508</v>
+        <v>0.0005757487688442213</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.1192417787346489</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001549678929225568</v>
+        <v>0.001316837568307468</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06365255175747037</v>
+        <v>0.03670210821793811</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002514024203306413</v>
+        <v>0.001053560432796045</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.05541672055254067</v>
+        <v>0.03670210821793811</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003316312908542714</v>
+        <v>0.001053560432796045</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.09682991666542762</v>
+        <v>0.08732924964359479</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003182960850025648</v>
+        <v>0.001520649181344463</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.134417378071497</v>
+        <v>0.1265808534212162</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003180018969311317</v>
+        <v>0.001944439392750358</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.06376683608532269</v>
+        <v>0.04881366506370807</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004784566322420455</v>
+        <v>0.001580340649194067</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.06101370079729239</v>
+        <v>0.04881366506370807</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004796661127022007</v>
+        <v>0.001580340649194067</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1054383768496081</v>
+        <v>0.09854859799532117</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004774441275038472</v>
+        <v>0.002919731626005491</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.1480889061286811</v>
+        <v>0.1358606901842488</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004770028453966976</v>
+        <v>0.002916659089125537</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07937250317763636</v>
+        <v>0.05541672055254067</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006379421763227274</v>
+        <v>0.0021887414234042</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0665258144467344</v>
+        <v>0.05541672055254067</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006395548169362677</v>
+        <v>0.0021887414234042</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1157446511732065</v>
+        <v>0.1046845281468529</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006365921700051296</v>
+        <v>0.003892975501340656</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1592044300334332</v>
+        <v>0.1453441319749598</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006360037938622634</v>
+        <v>0.003888878785500715</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0008380080677688044</v>
+        <v>0.0006400143890848766</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03337775441300817</v>
+        <v>0.02549169145416871</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.08308489124311752</v>
+        <v>0.05609279150748138</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007974277204034092</v>
+        <v>0.002633901081990111</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.07130280260575962</v>
+        <v>0.05609279150748138</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007994435211703347</v>
+        <v>0.002633901081990111</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1232819331922814</v>
+        <v>0.1116691772337224</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007957402125064119</v>
+        <v>0.00486621937667582</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1711714933805623</v>
+        <v>0.1545534689347237</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007950047423278293</v>
+        <v>0.004861098481875895</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.08398978048010666</v>
+        <v>0.05687861180788321</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009569132644840911</v>
+        <v>0.003160681298388133</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.07639309832735487</v>
+        <v>0.05687861180788321</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009593322254044015</v>
+        <v>0.003160681298388133</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1283834164628913</v>
+        <v>0.117615847732678</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009548882550076944</v>
+        <v>0.005839463252010983</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.1783976397648774</v>
+        <v>0.1639109912049154</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009540056907933952</v>
+        <v>0.005833318178251073</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0941729510869444</v>
+        <v>0.05764917040537949</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01116398808564773</v>
+        <v>0.003687461514786156</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.08014513466450711</v>
+        <v>0.05764917040537949</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01119220929638468</v>
+        <v>0.003687461514786156</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1342822945410946</v>
+        <v>0.1237378421204682</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01114036297508977</v>
+        <v>0.006812707127346148</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.1844904127811872</v>
+        <v>0.1729389889269096</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01113006639258961</v>
+        <v>0.006805537874626252</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.09672018326197124</v>
+        <v>0.05840461556534939</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01275884352645455</v>
+        <v>0.004214241731184179</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.08360734467020307</v>
+        <v>0.05840461556534939</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01279109633872535</v>
+        <v>0.004214241731184179</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1392117609829499</v>
+        <v>0.1286484628738415</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01273184340010259</v>
+        <v>0.007785951002681311</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.1916573560243008</v>
+        <v>0.1808597522420811</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01272007587724527</v>
+        <v>0.007777757571001431</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.09571725720352769</v>
+        <v>0.05914509555317211</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01435369896726137</v>
+        <v>0.004741021947582201</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.08622816139742977</v>
+        <v>0.05914509555317211</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01438998338106602</v>
+        <v>0.004741021947582201</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1429050093445156</v>
+        <v>0.1337610124695462</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01432332382511542</v>
+        <v>0.008759194878016475</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.196206013089027</v>
+        <v>0.1879955712918045</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01431008536190093</v>
+        <v>0.008749977267376609</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1022499531099544</v>
+        <v>0.05987075863422671</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01594855440806818</v>
+        <v>0.005267802163980223</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.08925601789917394</v>
+        <v>0.05987075863422671</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01598887042340669</v>
+        <v>0.005267802163980223</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1459952331818501</v>
+        <v>0.140188793384331</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01591480425012824</v>
+        <v>0.009732438753351639</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2000439275701749</v>
+        <v>0.1927687362174546</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01590009484655659</v>
+        <v>0.009722196963751789</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1024040511795918</v>
+        <v>0.06058175307389239</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.017543409848875</v>
+        <v>0.005794582380378246</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.09113934722842255</v>
+        <v>0.06058175307389239</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01758775746574736</v>
+        <v>0.005794582380378246</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1474156260510121</v>
+        <v>0.1432451080949441</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01750628467514107</v>
+        <v>0.0107056826286868</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2032786430625532</v>
+        <v>0.2004015371604062</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01749010433121224</v>
+        <v>0.01069441666012697</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1072653316107804</v>
+        <v>0.06127822713754837</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01913826528968182</v>
+        <v>0.006321362596776267</v>
       </c>
       <c r="J77" t="n">
-        <v>0.09382658243816248</v>
+        <v>0.06127822713754837</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01918664450808803</v>
+        <v>0.006321362596776267</v>
       </c>
       <c r="L77" t="n">
-        <v>0.15009938150806</v>
+        <v>0.1470432590781342</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01909776510015389</v>
+        <v>0.01167892650402197</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2053177031609709</v>
+        <v>0.2054162642620339</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0190801138158679</v>
+        <v>0.01166663635650215</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1039195746018609</v>
+        <v>0.06196032909057374</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02073312073048864</v>
+        <v>0.00684814281317429</v>
       </c>
       <c r="J78" t="n">
-        <v>0.09496615658138054</v>
+        <v>0.06196032909057374</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0207855315504287</v>
+        <v>0.00684814281317429</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1517796931090521</v>
+        <v>0.1509965488106497</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02068924552516671</v>
+        <v>0.01265217037935713</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2073686514602369</v>
+        <v>0.2102352076637126</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02067012330052356</v>
+        <v>0.01263885605287732</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1114525603511737</v>
+        <v>0.06262820719834765</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02232797617129546</v>
+        <v>0.007374923029572312</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0965065027110636</v>
+        <v>0.06262820719834765</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02238441859276937</v>
+        <v>0.007374923029572312</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1547897544100472</v>
+        <v>0.154618279769239</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02228072595017954</v>
+        <v>0.0136254142546923</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2107390315551602</v>
+        <v>0.213280657506817</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02226013278517922</v>
+        <v>0.0136110757492525</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1039481248667782</v>
+        <v>0.06328200972624932</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02392283161210228</v>
+        <v>0.007901703245970334</v>
       </c>
       <c r="J80" t="n">
-        <v>0.09839605388019861</v>
+        <v>0.06328200972624932</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02398330563511004</v>
+        <v>0.007901703245970334</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1556260214776327</v>
+        <v>0.1571217544306504</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02387220637519236</v>
+        <v>0.01459865813002746</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2137127680925036</v>
+        <v>0.2169749039327216</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02385014226983488</v>
+        <v>0.01458329544562768</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1114205768425894</v>
+        <v>0.06392188493965782</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02551768705290909</v>
+        <v>0.008428483462368358</v>
       </c>
       <c r="J81" t="n">
-        <v>0.09979779828348724</v>
+        <v>0.06392188493965782</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02558219267745071</v>
+        <v>0.008428483462368358</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1579203687384106</v>
+        <v>0.1605202752716327</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02546368680020518</v>
+        <v>0.01557190200536262</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2162197736094768</v>
+        <v>0.2216402370828016</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02544015175449054</v>
+        <v>0.01555551514200286</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1168497024490362</v>
+        <v>0.06454798110395236</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02711254249371592</v>
+        <v>0.00895526367876638</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1008636012780099</v>
+        <v>0.06454798110395236</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02718107971979138</v>
+        <v>0.00895526367876638</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1597506529768321</v>
+        <v>0.162327144768934</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02705516722521801</v>
+        <v>0.01654514588069779</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2183365733899356</v>
+        <v>0.2230989470984313</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0270301612391462</v>
+        <v>0.01652773483837804</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1102262930788913</v>
+        <v>0.06516044648451209</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02870739793452273</v>
+        <v>0.009482043895164402</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1021871422682935</v>
+        <v>0.06516044648451209</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02877996676213204</v>
+        <v>0.009482043895164402</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1627043203181837</v>
+        <v>0.1645556653993031</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02864664765023083</v>
+        <v>0.01751838975603295</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2228460735106762</v>
+        <v>0.2274733241209858</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02862017072380185</v>
+        <v>0.01749995453475322</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1195411401249275</v>
+        <v>0.06575942934671615</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03030225337532955</v>
+        <v>0.01000882411156242</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1025603431710207</v>
+        <v>0.06575942934671615</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03037885380447272</v>
+        <v>0.01000882411156242</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1635688168877517</v>
+        <v>0.1664191396394882</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03023812807524365</v>
+        <v>0.01849163363136811</v>
       </c>
       <c r="N84" t="n">
-        <v>0.2238311800484946</v>
+        <v>0.2293856582918393</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03021018020845751</v>
+        <v>0.0184721742311284</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1137850349799178</v>
+        <v>0.06634507795594373</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03189710881613637</v>
+        <v>0.01053560432796045</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1035751259028737</v>
+        <v>0.06634507795594373</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03197774084681339</v>
+        <v>0.01053560432796045</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1654315888108225</v>
+        <v>0.1679308699662378</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03182960850025648</v>
+        <v>0.01946487750670328</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2269747990801868</v>
+        <v>0.2312582397523671</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03180018969311317</v>
+        <v>0.01944439392750358</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1159487690366349</v>
+        <v>0.06691754057757394</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03349196425694319</v>
+        <v>0.01106238454435847</v>
       </c>
       <c r="J86" t="n">
-        <v>0.105623412380535</v>
+        <v>0.06691754057757394</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03357662788915405</v>
+        <v>0.01106238454435847</v>
       </c>
       <c r="L86" t="n">
-        <v>0.167380082212683</v>
+        <v>0.1697041588563004</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03342108892526931</v>
+        <v>0.02043812138203844</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2278598366825485</v>
+        <v>0.2329133586439438</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03339019917776883</v>
+        <v>0.02041661362387876</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1230231336878517</v>
+        <v>0.06747696547698602</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03508681969775001</v>
+        <v>0.01158916476075649</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1061971245206867</v>
+        <v>0.06747696547698602</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03517551493149472</v>
+        <v>0.01158916476075649</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1690017432186193</v>
+        <v>0.1704523087864245</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03501256935028213</v>
+        <v>0.02141136525737361</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2309691989323761</v>
+        <v>0.2352733051079439</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03498020866242448</v>
+        <v>0.02138883332025394</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1119989203263409</v>
+        <v>0.06802350091955901</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03668167513855682</v>
+        <v>0.01211594497715451</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1068881842400114</v>
+        <v>0.06802350091955901</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03677440197383539</v>
+        <v>0.01211594497715451</v>
       </c>
       <c r="L88" t="n">
-        <v>0.168984017953918</v>
+        <v>0.1720886222333585</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03660404977529495</v>
+        <v>0.02238460913270877</v>
       </c>
       <c r="N88" t="n">
-        <v>0.2330857919064653</v>
+        <v>0.2341603692857422</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03657021814708015</v>
+        <v>0.02236105301662912</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1188669203448755</v>
+        <v>0.06855729517067212</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03827653057936364</v>
+        <v>0.01264272519355253</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1082885134551915</v>
+        <v>0.06855729517067212</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03837328901617606</v>
+        <v>0.01264272519355253</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1711143525438656</v>
+        <v>0.1726264016738508</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03819553020030778</v>
+        <v>0.02335785300804393</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2342925216816122</v>
+        <v>0.2352968413187138</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03816022763173581</v>
+        <v>0.02333327271300429</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1216179251362282</v>
+        <v>0.06907849649570454</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03987138602017046</v>
+        <v>0.01316950540995056</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1087900340829093</v>
+        <v>0.06907849649570454</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03997217605851673</v>
+        <v>0.01316950540995056</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1723801931137486</v>
+        <v>0.1733789495846502</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0397870106253206</v>
+        <v>0.0243310968833791</v>
       </c>
       <c r="N90" t="n">
-        <v>0.2348722943346129</v>
+        <v>0.2361050113482329</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03975023711639146</v>
+        <v>0.02430549240937947</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1192427260931719</v>
+        <v>0.0695872531600354</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04146624146097728</v>
+        <v>0.01369628562634858</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1088846680398472</v>
+        <v>0.0695872531600354</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0415710631008574</v>
+        <v>0.01369628562634858</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1717689857888534</v>
+        <v>0.1727595684425046</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04137849105033342</v>
+        <v>0.02530434075871426</v>
       </c>
       <c r="N91" t="n">
-        <v>0.2364080159422629</v>
+        <v>0.2381071695156747</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04134024660104713</v>
+        <v>0.02527771210575465</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1227321146084793</v>
+        <v>0.07008371342904386</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0430610969017841</v>
+        <v>0.0142230658427466</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1101643372426876</v>
+        <v>0.07008371342904386</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04316995014319807</v>
+        <v>0.0142230658427466</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1728681766944666</v>
+        <v>0.1746584992871896</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04296997147534624</v>
+        <v>0.02627758463404943</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2364825925813588</v>
+        <v>0.2384835574692978</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04293025608570278</v>
+        <v>0.02624993180212983</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1160768820749233</v>
+        <v>0.07056802556810902</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04465595234259092</v>
+        <v>0.01474984605914462</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1095209636081128</v>
+        <v>0.07056802556810902</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04476883718553874</v>
+        <v>0.01474984605914462</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1746584992871896</v>
+        <v>0.1738582289063731</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04456145190035907</v>
+        <v>0.02725082850938459</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2384835574692978</v>
+        <v>0.2373829553311141</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04452026557035844</v>
+        <v>0.02722215149850501</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1273051035149407</v>
+        <v>0.07104033784261014</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04625080778339773</v>
+        <v>0.01527662627554265</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1108334411050813</v>
+        <v>0.07104033784261014</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0463677242278794</v>
+        <v>0.01527662627554265</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1730475376983638</v>
+        <v>0.1736317558915183</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0461529323253719</v>
+        <v>0.02822407238471976</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2380799352610716</v>
+        <v>0.2361289103380128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0461102750550141</v>
+        <v>0.02819437119488019</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1223005612331823</v>
+        <v>0.0715007985179263</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04784566322420455</v>
+        <v>0.01580340649194067</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1097327754934473</v>
+        <v>0.0715007985179263</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04796661127022008</v>
+        <v>0.01580340649194067</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1744318039402137</v>
+        <v>0.1739463985061243</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04774441275038471</v>
+        <v>0.02919731626005492</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2369289387180752</v>
+        <v>0.2376911979010607</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04770028453966976</v>
+        <v>0.02916659089125537</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1272334446209566</v>
+        <v>0.0719495558594367</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04944051866501137</v>
+        <v>0.01633018670833869</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1104042465536284</v>
+        <v>0.0719495558594367</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04956549831256075</v>
+        <v>0.01633018670833869</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1737018273839565</v>
+        <v>0.1728060289808758</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04933589317539754</v>
+        <v>0.03017056013539008</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2360293436917997</v>
+        <v>0.2372753257614815</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04929029402432541</v>
+        <v>0.03013881058763055</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1220898677695503</v>
+        <v>0.07238675813252048</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05103537410581819</v>
+        <v>0.01685696692473672</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1102066716993867</v>
+        <v>0.07238675813252048</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05116438535490141</v>
+        <v>0.01685696692473672</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1726697505519852</v>
+        <v>0.1735143773344732</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05092737360041037</v>
+        <v>0.03114380401072524</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2366919958720819</v>
+        <v>0.2366868016604985</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05088030350898107</v>
+        <v>0.03111103028400572</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1268746838805336</v>
+        <v>0.07281255360255677</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05263022954662501</v>
+        <v>0.01738374714113473</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1097446465167141</v>
+        <v>0.07281255360255677</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05276327239724208</v>
+        <v>0.01738374714113473</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1735421896983071</v>
+        <v>0.1736751735856168</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05251885402542319</v>
+        <v>0.03211704788606041</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2367259042494114</v>
+        <v>0.2373311333393355</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05247031299363673</v>
+        <v>0.0320832499803809</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1185927461554765</v>
+        <v>0.07322709053492475</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05422508498743183</v>
+        <v>0.01791052735753276</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1096224283884784</v>
+        <v>0.07322709053492475</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05436215943958275</v>
+        <v>0.01791052735753276</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1720257610769302</v>
+        <v>0.1724921477530074</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05411033445043601</v>
+        <v>0.03309029176139557</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2355400778142787</v>
+        <v>0.2355138285392159</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05406032247829239</v>
+        <v>0.03305546967675608</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1162489077959495</v>
+        <v>0.07363051719500362</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05581994042823864</v>
+        <v>0.01843730757393078</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1100442746975468</v>
+        <v>0.07363051719500362</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05596104648192342</v>
+        <v>0.01843730757393078</v>
       </c>
       <c r="L100" t="n">
-        <v>0.172827080941862</v>
+        <v>0.1733690298553449</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05570181487544884</v>
+        <v>0.03406353563673074</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2361435255571731</v>
+        <v>0.2351403950013633</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05565033196294805</v>
+        <v>0.03402768937313125</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1148480220035227</v>
+        <v>0.07402298184817242</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05741479586904547</v>
+        <v>0.0189640877903288</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1091144428267867</v>
+        <v>0.07402298184817242</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05755993352426408</v>
+        <v>0.0189640877903288</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1715527655471103</v>
+        <v>0.1728095499113299</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05729329530046166</v>
+        <v>0.0350367795120659</v>
       </c>
       <c r="N101" t="n">
-        <v>0.234045256468585</v>
+        <v>0.2349163404670014</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0572403414476037</v>
+        <v>0.03499990906950644</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1213949419797663</v>
+        <v>0.07440463275981045</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05900965130985228</v>
+        <v>0.01949086800672683</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1093371901590655</v>
+        <v>0.07440463275981045</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05915882056660476</v>
+        <v>0.01949086800672683</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1716094311466828</v>
+        <v>0.1710174379396627</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05888477572547448</v>
+        <v>0.03601002338740106</v>
       </c>
       <c r="N102" t="n">
-        <v>0.2324542795390041</v>
+        <v>0.2337471726773535</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05883035093225936</v>
+        <v>0.03597212876588161</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1198945209262506</v>
+        <v>0.07477561819529675</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06060450675065911</v>
+        <v>0.02001764822312485</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1087167740772506</v>
+        <v>0.07477561819529675</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06075770760894544</v>
+        <v>0.02001764822312485</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1694036939945871</v>
+        <v>0.1710964239590439</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06047625615048731</v>
+        <v>0.03698326726273623</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2319796037589203</v>
+        <v>0.2326383993736435</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06042036041691503</v>
+        <v>0.0369443484622568</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1213516120445458</v>
+        <v>0.07513608642001053</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06219936219146591</v>
+        <v>0.02054442843952287</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1084574519642094</v>
+        <v>0.07513608642001053</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0623565946512861</v>
+        <v>0.02054442843952287</v>
       </c>
       <c r="L104" t="n">
-        <v>0.168642170344831</v>
+        <v>0.1704502379881737</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06206773657550014</v>
+        <v>0.03795651113807139</v>
       </c>
       <c r="N104" t="n">
-        <v>0.2307302381188236</v>
+        <v>0.2318955282970947</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06201036990157067</v>
+        <v>0.03791656815863197</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1207710685362222</v>
+        <v>0.07548618569933095</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06379421763227273</v>
+        <v>0.02107120865592089</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1073634812028093</v>
+        <v>0.07548618569933095</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06395548169362678</v>
+        <v>0.02107120865592089</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1683314764514222</v>
+        <v>0.1698826100457526</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06365921700051295</v>
+        <v>0.03892975501340656</v>
       </c>
       <c r="N105" t="n">
-        <v>0.2310151916092041</v>
+        <v>0.2314240671889308</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06360037938622634</v>
+        <v>0.03888878785500716</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1191577436028499</v>
+        <v>0.07582606429863716</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06538907307307955</v>
+        <v>0.02159798887231891</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1066391191759178</v>
+        <v>0.07582606429863716</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06555436873596744</v>
+        <v>0.02159798887231891</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1681782285683683</v>
+        <v>0.170697270150481</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06525069742552578</v>
+        <v>0.03990299888874172</v>
       </c>
       <c r="N106" t="n">
-        <v>0.2280434732205515</v>
+        <v>0.2326295237903755</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06519038887088199</v>
+        <v>0.03986100755138233</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1195164904459992</v>
+        <v>0.07615587048330831</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06698392851388638</v>
+        <v>0.02212476908871694</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1058886232664021</v>
+        <v>0.07615587048330831</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06715325577830811</v>
+        <v>0.02212476908871694</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1662890429496771</v>
+        <v>0.1697979483210592</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06684217785053861</v>
+        <v>0.04087624276407689</v>
       </c>
       <c r="N107" t="n">
-        <v>0.2272240919433557</v>
+        <v>0.230917405842652</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06678039835553766</v>
+        <v>0.04083322724775752</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1148521622672403</v>
+        <v>0.07647575251872353</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06857878395469319</v>
+        <v>0.02265154930511496</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1059162508571297</v>
+        <v>0.07647575251872353</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06875214282064877</v>
+        <v>0.02265154930511496</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1658705358493562</v>
+        <v>0.1685883745761876</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06843365827555142</v>
+        <v>0.04184948663941205</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2262660567681069</v>
+        <v>0.2308932210869842</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06837040784019333</v>
+        <v>0.04180544694413269</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1191696122681435</v>
+        <v>0.07678585867026207</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07017363939550002</v>
+        <v>0.02317832952151298</v>
       </c>
       <c r="J109" t="n">
-        <v>0.104826259330968</v>
+        <v>0.07678585867026207</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07035102986298944</v>
+        <v>0.02317832952151298</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1657293235214136</v>
+        <v>0.1686722789345667</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07002513870056426</v>
+        <v>0.04282273051474721</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2252783766852947</v>
+        <v>0.2288624772645954</v>
       </c>
       <c r="O109" t="n">
-        <v>0.06996041732484896</v>
+        <v>0.04277766664050787</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1144736936502789</v>
+        <v>0.07708633720330295</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07176849483630683</v>
+        <v>0.023705109737911</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1044229060707843</v>
+        <v>0.07708633720330295</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07194991690533011</v>
+        <v>0.023705109737911</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1636720222198565</v>
+        <v>0.1677533914148968</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07161661912557708</v>
+        <v>0.04379597439008237</v>
       </c>
       <c r="N110" t="n">
-        <v>0.2246700606854092</v>
+        <v>0.2282306821167095</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07155042680950463</v>
+        <v>0.04374988633688305</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1187692596152169</v>
+        <v>0.07737733638322543</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07336335027711365</v>
+        <v>0.02423188995430903</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1034104484594462</v>
+        <v>0.07737733638322543</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07354880394767078</v>
+        <v>0.02423188995430903</v>
       </c>
       <c r="L111" t="n">
-        <v>0.163405248198693</v>
+        <v>0.1682354420358784</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07320809955058989</v>
+        <v>0.04476921826541754</v>
       </c>
       <c r="N111" t="n">
-        <v>0.2216501177589403</v>
+        <v>0.2269033433845499</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0731404362941603</v>
+        <v>0.04472210603325823</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1120611633645276</v>
+        <v>0.07765900447540862</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07495820571792046</v>
+        <v>0.02475867017070705</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1030931438798209</v>
+        <v>0.07765900447540862</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07514769099001145</v>
+        <v>0.02475867017070705</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1614356177119307</v>
+        <v>0.1665221608162117</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07479957997560273</v>
+        <v>0.04574246214075271</v>
       </c>
       <c r="N112" t="n">
-        <v>0.221727556896378</v>
+        <v>0.22728596880934</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07473044577881595</v>
+        <v>0.04569432572963341</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1163542580997813</v>
+        <v>0.07793148974523172</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07655306115872729</v>
+        <v>0.02528545038710507</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1025752497147758</v>
+        <v>0.07793148974523172</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07674657803235212</v>
+        <v>0.02528545038710507</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1620697470135772</v>
+        <v>0.1657172777745973</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07639106040061555</v>
+        <v>0.04671570601608786</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2196113870882122</v>
+        <v>0.2268840661323036</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07632045526347161</v>
+        <v>0.04666654542600859</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1106533970225482</v>
+        <v>0.07819494045807383</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0781479165995341</v>
+        <v>0.02581223060350309</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1023610233471784</v>
+        <v>0.07819494045807383</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0783454650746928</v>
+        <v>0.02581223060350309</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1602142523576402</v>
+        <v>0.1650245229297355</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07798254082562837</v>
+        <v>0.04768894989142303</v>
       </c>
       <c r="N114" t="n">
-        <v>0.2190102549642829</v>
+        <v>0.2258031430946643</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07791046474812727</v>
+        <v>0.04763876512238376</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1079408388878215</v>
+        <v>0.07844950487931414</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07974277204034093</v>
+        <v>0.02633901081990112</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1011519784411325</v>
+        <v>0.07844950487931414</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07994435211703346</v>
+        <v>0.02633901081990112</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1597042067864196</v>
+        <v>0.1662476263003267</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0795740212506412</v>
+        <v>0.0486621937667582</v>
       </c>
       <c r="N115" t="n">
-        <v>0.2164055266745731</v>
+        <v>0.2259487074376455</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07950047423278292</v>
+        <v>0.04861098481875894</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1081329646866356</v>
+        <v>0.0786953312743318</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08133762748114774</v>
+        <v>0.02686579103629913</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1010798769794629</v>
+        <v>0.0786953312743318</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08154323915937413</v>
+        <v>0.02686579103629913</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1577571592390188</v>
+        <v>0.1640903179050713</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08116550167565402</v>
+        <v>0.04963543764209336</v>
       </c>
       <c r="N116" t="n">
-        <v>0.2158172904745035</v>
+        <v>0.2239262669024708</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08109048371743859</v>
+        <v>0.04958320451513412</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.107235187479103</v>
+        <v>0.07893256790850599</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08293248292195456</v>
+        <v>0.02739257125269716</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1001239321591138</v>
+        <v>0.07893256790850599</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08314212620171479</v>
+        <v>0.02739257125269716</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1568940548920963</v>
+        <v>0.1648563277626697</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08275698210066684</v>
+        <v>0.05060868151742853</v>
       </c>
       <c r="N117" t="n">
-        <v>0.213774898731982</v>
+        <v>0.2237413292303639</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08268049320209425</v>
+        <v>0.0505554242115093</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.110263319576068</v>
+        <v>0.07916136304721581</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08452733836276137</v>
+        <v>0.02791935146909518</v>
       </c>
       <c r="J118" t="n">
-        <v>0.09879801504237427</v>
+        <v>0.07916136304721581</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08474101324405547</v>
+        <v>0.02791935146909518</v>
       </c>
       <c r="L118" t="n">
-        <v>0.155436450292085</v>
+        <v>0.1633493858918223</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08434846252567967</v>
+        <v>0.05158192539276368</v>
       </c>
       <c r="N118" t="n">
-        <v>0.2117077038149167</v>
+        <v>0.2240994021625482</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08427050268674989</v>
+        <v>0.05152764390788448</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1112331732883748</v>
+        <v>0.07938186495584047</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0861221938035682</v>
+        <v>0.02844613168549321</v>
       </c>
       <c r="J119" t="n">
-        <v>0.09871599669153365</v>
+        <v>0.07938186495584047</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08633990028639614</v>
+        <v>0.02844613168549321</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1535059019854171</v>
+        <v>0.1630732223112294</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08593994295069249</v>
+        <v>0.05255516926809885</v>
       </c>
       <c r="N119" t="n">
-        <v>0.2111450580912154</v>
+        <v>0.2226059934402473</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08586051217140556</v>
+        <v>0.05249986360425966</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.110160560926868</v>
+        <v>0.07959422189975911</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08771704924437501</v>
+        <v>0.02897291190189123</v>
       </c>
       <c r="J120" t="n">
-        <v>0.09759174816888101</v>
+        <v>0.07959422189975911</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08793878732873681</v>
+        <v>0.02897291190189123</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1520239665185252</v>
+        <v>0.1641315670395916</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08753142337570531</v>
+        <v>0.05352841314343401</v>
       </c>
       <c r="N120" t="n">
-        <v>0.2088163139287859</v>
+        <v>0.2230666108046849</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08745052165606122</v>
+        <v>0.05347208330063483</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1030612948023918</v>
+        <v>0.07979858214435089</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08931190468518184</v>
+        <v>0.02949969211828925</v>
       </c>
       <c r="J121" t="n">
-        <v>0.09673914053670564</v>
+        <v>0.07979858214435089</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08953767437107747</v>
+        <v>0.02949969211828925</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1507122004378418</v>
+        <v>0.1638281500956091</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08912290380071815</v>
+        <v>0.05450165701876918</v>
       </c>
       <c r="N121" t="n">
-        <v>0.2058508236955361</v>
+        <v>0.2223867619970845</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08904053114071687</v>
+        <v>0.05444430299701002</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1079511872257906</v>
+        <v>0.07999509395499492</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09090676012598864</v>
+        <v>0.03002647233468727</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0955720448572966</v>
+        <v>0.07999509395499492</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09113656141341814</v>
+        <v>0.03002647233468727</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1487921602897992</v>
+        <v>0.1627562394786339</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09071438422573096</v>
+        <v>0.05547490089410435</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2040779397593739</v>
+        <v>0.2224515102820104</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09063054062537254</v>
+        <v>0.0554165226933852</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1018460505079087</v>
+        <v>0.08018390559707043</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09250161556679547</v>
+        <v>0.03055325255108529</v>
       </c>
       <c r="J123" t="n">
-        <v>0.09470433219294318</v>
+        <v>0.08018390559707043</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0927354484557588</v>
+        <v>0.03055325255108529</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1487854026208301</v>
+        <v>0.1616815205014195</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09230586465074379</v>
+        <v>0.05644814476943951</v>
       </c>
       <c r="N123" t="n">
-        <v>0.2015270144882074</v>
+        <v>0.2226204842964069</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09222055011002819</v>
+        <v>0.05638874238976038</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09776169695959047</v>
+        <v>0.08036516533595654</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09409647100760228</v>
+        <v>0.03108003276748331</v>
       </c>
       <c r="J124" t="n">
-        <v>0.09384987360593451</v>
+        <v>0.08036516533595654</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09433433549809948</v>
+        <v>0.03108003276748331</v>
       </c>
       <c r="L124" t="n">
-        <v>0.146613483977367</v>
+        <v>0.1624021764871887</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09389734507575662</v>
+        <v>0.05742138864477467</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2006274002499441</v>
+        <v>0.2206928603026453</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09381055959468385</v>
+        <v>0.05736096208613555</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09571393889168028</v>
+        <v>0.08053902143703238</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09569132644840911</v>
+        <v>0.03160681298388134</v>
       </c>
       <c r="J125" t="n">
-        <v>0.09232254015855983</v>
+        <v>0.08053902143703238</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09593322254044016</v>
+        <v>0.03160681298388134</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1450979609058423</v>
+        <v>0.1613195791983493</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09548882550076943</v>
+        <v>0.05839463252010983</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1975084494124921</v>
+        <v>0.2209691757849883</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09540056907933951</v>
+        <v>0.05833318178251073</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1017132607750597</v>
+        <v>0.08070562216567716</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09728618188921592</v>
+        <v>0.03213359320027936</v>
       </c>
       <c r="J126" t="n">
-        <v>0.09193620291310829</v>
+        <v>0.08070562216567716</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09753210958278083</v>
+        <v>0.03213359320027936</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1431252867836212</v>
+        <v>0.1609351003973087</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09708030592578226</v>
+        <v>0.059367876395445</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1964262533616145</v>
+        <v>0.2215499682276983</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09699057856399518</v>
+        <v>0.05930540147888591</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.09765498281446591</v>
+        <v>0.08086511578727</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09888103733002274</v>
+        <v>0.03266037341667739</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0910425754522894</v>
+        <v>0.08086511578727</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0991309966251215</v>
+        <v>0.03266037341667739</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1428387325922958</v>
+        <v>0.1615501118464746</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09867178635079508</v>
+        <v>0.06034112027078017</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1931770505173133</v>
+        <v>0.2213357751150379</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09858058804865082</v>
+        <v>0.06027762117526109</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.09451009746792538</v>
+        <v>0.08101765056719008</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1004758927708296</v>
+        <v>0.0331871536330754</v>
       </c>
       <c r="J128" t="n">
-        <v>0.09026715928687708</v>
+        <v>0.08101765056719008</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1007298836674622</v>
+        <v>0.0331871536330754</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1404428235464733</v>
+        <v>0.1619659853082545</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1002632667758079</v>
+        <v>0.06131436414611533</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1907841327875474</v>
+        <v>0.2197271339312695</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1001705975333065</v>
+        <v>0.06124984087163626</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.09830124006304411</v>
+        <v>0.08116337477081655</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1020707482116364</v>
+        <v>0.03371393384947343</v>
       </c>
       <c r="J129" t="n">
-        <v>0.08922895703907389</v>
+        <v>0.08116337477081655</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1023287707098028</v>
+        <v>0.03371393384947343</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1389684178486869</v>
+        <v>0.1602840925450558</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1018547472008207</v>
+        <v>0.06228760802145049</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1905895180955759</v>
+        <v>0.2195245821606558</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1017606070179621</v>
+        <v>0.06222206056801145</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1010510459274279</v>
+        <v>0.08130243666352853</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1036656036524432</v>
+        <v>0.03424071406587145</v>
       </c>
       <c r="J130" t="n">
-        <v>0.08724782513861042</v>
+        <v>0.08130243666352853</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1039276577521435</v>
+        <v>0.03424071406587145</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1374463737014695</v>
+        <v>0.1599058053192865</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1034462276258336</v>
+        <v>0.06326085189678565</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1871352243646577</v>
+        <v>0.2198286572874593</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1033506165026178</v>
+        <v>0.06319428026438663</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.08878215038868287</v>
+        <v>0.08143498451070526</v>
       </c>
       <c r="G131" t="n">
-        <v>0.10526045909325</v>
+        <v>0.03476749428226947</v>
       </c>
       <c r="J131" t="n">
-        <v>0.08674362001521708</v>
+        <v>0.08143498451070526</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1055265447944842</v>
+        <v>0.03476749428226947</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1348075493073545</v>
+        <v>0.1595324953933539</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1050377080508464</v>
+        <v>0.06423409577212082</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1849632695180516</v>
+        <v>0.2198398967959422</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1049406259872735</v>
+        <v>0.06416649996076181</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08651718877441478</v>
+        <v>0.08156116657772579</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1068553145340568</v>
+        <v>0.03529427449866749</v>
       </c>
       <c r="J132" t="n">
-        <v>0.08553619809862449</v>
+        <v>0.08156116657772579</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1071254318368248</v>
+        <v>0.03529427449866749</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1329828028688749</v>
+        <v>0.1604655345296656</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1066291884758592</v>
+        <v>0.06520733964745599</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1826156714790169</v>
+        <v>0.2197588381703675</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1065306354719291</v>
+        <v>0.06513871965713698</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.09427879641222958</v>
+        <v>0.08168113112996934</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1084501699748637</v>
+        <v>0.03582105471506552</v>
       </c>
       <c r="J133" t="n">
-        <v>0.08394541581856314</v>
+        <v>0.08168113112996934</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1087243188791655</v>
+        <v>0.03582105471506552</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1325029925885638</v>
+        <v>0.1595062944906293</v>
       </c>
       <c r="M133" t="n">
-        <v>0.108220668900872</v>
+        <v>0.06618058352279114</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1801344481708121</v>
+        <v>0.2185860188949972</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1081206449565848</v>
+        <v>0.06611093935351216</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.09208960862973323</v>
+        <v>0.08179502643281507</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1100450254156705</v>
+        <v>0.03634783493146354</v>
       </c>
       <c r="J134" t="n">
-        <v>0.08289112960476351</v>
+        <v>0.08179502643281507</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1103232059215062</v>
+        <v>0.03634783493146354</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1307989766689543</v>
+        <v>0.1591561470386524</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1098121493258849</v>
+        <v>0.06715382739812631</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1786616175166965</v>
+        <v>0.2194219764540943</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1097106544412404</v>
+        <v>0.06708315904988735</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09297226075453163</v>
+        <v>0.08190300075164215</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1116398808564773</v>
+        <v>0.03687461514786156</v>
       </c>
       <c r="J135" t="n">
-        <v>0.08199319588695612</v>
+        <v>0.08190300075164215</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1119220929638468</v>
+        <v>0.03687461514786156</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1294016133125798</v>
+        <v>0.1588164639361426</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1114036297508977</v>
+        <v>0.06812707127346147</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1760391974399289</v>
+        <v>0.218967248331921</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1113006639258961</v>
+        <v>0.06805537874626251</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.09294938811423067</v>
+        <v>0.08200520235182966</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1132347362972841</v>
+        <v>0.03740139536425958</v>
       </c>
       <c r="J136" t="n">
-        <v>0.08167147109487151</v>
+        <v>0.08200520235182966</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1135209800061875</v>
+        <v>0.03740139536425958</v>
       </c>
       <c r="L136" t="n">
-        <v>0.127641760721973</v>
+        <v>0.1596886169455073</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1129951101759105</v>
+        <v>0.06910031514879664</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1747092058637683</v>
+        <v>0.2186223720127399</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1128906734105518</v>
+        <v>0.0690275984426377</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.09304362603643626</v>
+        <v>0.08210177949875687</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1148295917380909</v>
+        <v>0.03792817558065761</v>
       </c>
       <c r="J137" t="n">
-        <v>0.08084581165824019</v>
+        <v>0.08210177949875687</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1151198670485282</v>
+        <v>0.03792817558065761</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1268502770996675</v>
+        <v>0.1586739778291544</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1145865906009233</v>
+        <v>0.0700735590241318</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1736136607114735</v>
+        <v>0.2179878849808137</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1144806828952074</v>
+        <v>0.06999981813901288</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09027760984875441</v>
+        <v>0.08219288045780281</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1164244471788977</v>
+        <v>0.03845495579705563</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0795360740067927</v>
+        <v>0.08219288045780281</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1167187540908688</v>
+        <v>0.03845495579705563</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1260580206481959</v>
+        <v>0.1593739183494912</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1161780710259361</v>
+        <v>0.07104680289946697</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1709945799063037</v>
+        <v>0.2177643247204046</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1160706923798631</v>
+        <v>0.07097203783538807</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.08267397487879097</v>
+        <v>0.08227865349434672</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1180193026197046</v>
+        <v>0.03898173601345365</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07986211457025953</v>
+        <v>0.08227865349434672</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1183176411332095</v>
+        <v>0.03898173601345365</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1244958495700919</v>
+        <v>0.1577898102689255</v>
       </c>
       <c r="M139" t="n">
-        <v>0.117769551450949</v>
+        <v>0.07202004677480213</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1703939813715177</v>
+        <v>0.2165522287157753</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1176607018645187</v>
+        <v>0.07194425753176323</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.08325535645415189</v>
+        <v>0.08235924687376774</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1196141580605114</v>
+        <v>0.03950851622985167</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07844378977837117</v>
+        <v>0.08235924687376774</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1199165281755502</v>
+        <v>0.03950851622985167</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1235946220678882</v>
+        <v>0.1589230253498646</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1193610318759618</v>
+        <v>0.07299329065013729</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1692538830303745</v>
+        <v>0.2177521344511882</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1192507113491744</v>
+        <v>0.07291647722813842</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.08704438990244306</v>
+        <v>0.08243480886144504</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1212090135013182</v>
+        <v>0.04003529644624969</v>
       </c>
       <c r="J141" t="n">
-        <v>0.07920095606085818</v>
+        <v>0.08243480886144504</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1215154152178909</v>
+        <v>0.04003529644624969</v>
       </c>
       <c r="L141" t="n">
-        <v>0.123285196344118</v>
+        <v>0.1575749353547163</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1209525123009746</v>
+        <v>0.07396653452547246</v>
       </c>
       <c r="N141" t="n">
-        <v>0.169516302806133</v>
+        <v>0.215864579410906</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1208407208338301</v>
+        <v>0.07388869692451359</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.08202890529247006</v>
+        <v>0.08250548772275777</v>
       </c>
       <c r="G142" t="n">
-        <v>0.122803868942125</v>
+        <v>0.04056207666264772</v>
       </c>
       <c r="J142" t="n">
-        <v>0.07854699885133638</v>
+        <v>0.08250548772275777</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1231143022602315</v>
+        <v>0.04056207666264772</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1232973162294999</v>
+        <v>0.1576469120458882</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1225439927259874</v>
+        <v>0.07493977840080762</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1699446869341543</v>
+        <v>0.2175901010791911</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1224307303184857</v>
+        <v>0.07486091662088878</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.08006552145847393</v>
+        <v>0.08257143172308502</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1243987243829318</v>
+        <v>0.04108885687904574</v>
       </c>
       <c r="J143" t="n">
-        <v>0.07836999219394851</v>
+        <v>0.08257143172308502</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1247131893025722</v>
+        <v>0.04108885687904574</v>
       </c>
       <c r="L143" t="n">
-        <v>0.123359053932976</v>
+        <v>0.1584403271857876</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1241354731510003</v>
+        <v>0.07591302227614279</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1695357445319399</v>
+        <v>0.215429236940306</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1240207398031413</v>
+        <v>0.07583313631726395</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.09113449452170502</v>
+        <v>0.08263278912780604</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1259935798237387</v>
+        <v>0.04161563709544376</v>
       </c>
       <c r="J144" t="n">
-        <v>0.07912174362203296</v>
+        <v>0.08263278912780604</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1263120763449129</v>
+        <v>0.04161563709544376</v>
       </c>
       <c r="L144" t="n">
-        <v>0.124364414737242</v>
+        <v>0.1585565525368224</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1257269535760131</v>
+        <v>0.07688626615147795</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1704859106595984</v>
+        <v>0.2159825244785131</v>
       </c>
       <c r="O144" t="n">
-        <v>0.125610749287797</v>
+        <v>0.07680535601363914</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.08223416124653615</v>
+        <v>0.08268970820229991</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1275884352645455</v>
+        <v>0.04214241731184178</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0791007940923663</v>
+        <v>0.08268970820229991</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1279109633872536</v>
+        <v>0.04214241731184178</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1235111311928166</v>
+        <v>0.1584969598613999</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1273184340010259</v>
+        <v>0.07785951002681311</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1696920978554345</v>
+        <v>0.2168505011780753</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1272007587724527</v>
+        <v>0.07777757571001431</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.08436285839734028</v>
+        <v>0.08274233721194586</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1291832907053523</v>
+        <v>0.04266919752823981</v>
       </c>
       <c r="J146" t="n">
-        <v>0.07930568456172489</v>
+        <v>0.08274233721194586</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1295098504295942</v>
+        <v>0.04266919752823981</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1247969358502182</v>
+        <v>0.157462920921928</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1289099144260387</v>
+        <v>0.07883275390214828</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1694512186577529</v>
+        <v>0.2163337045232547</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1287907682571083</v>
+        <v>0.07874979540638949</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.08651892273849018</v>
+        <v>0.082790824422123</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1307781461461591</v>
+        <v>0.04319597774463783</v>
       </c>
       <c r="J147" t="n">
-        <v>0.07853495598688524</v>
+        <v>0.082790824422123</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1311087374719349</v>
+        <v>0.04319597774463783</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1240195612599652</v>
+        <v>0.1573552812351349</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1305013948510516</v>
+        <v>0.07980599777748344</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1699601856048584</v>
+        <v>0.2153320248510236</v>
       </c>
       <c r="O147" t="n">
-        <v>0.130380777741764</v>
+        <v>0.07972201510276467</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.08970069103435868</v>
+        <v>0.08283531809821053</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1323730015869659</v>
+        <v>0.04372275796103585</v>
       </c>
       <c r="J148" t="n">
-        <v>0.07908714932462378</v>
+        <v>0.08283531809821053</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1327076245142755</v>
+        <v>0.04372275796103585</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1248767399725764</v>
+        <v>0.1569626383150841</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1320928752760644</v>
+        <v>0.08077924165281861</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1716159112350556</v>
+        <v>0.2147386330469962</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1319707872264196</v>
+        <v>0.08069423479913984</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.08290650004931868</v>
+        <v>0.08287596650558755</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1339678570277728</v>
+        <v>0.04424953817743388</v>
       </c>
       <c r="J149" t="n">
-        <v>0.07936080553171708</v>
+        <v>0.08287596650558755</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1343065115566162</v>
+        <v>0.04424953817743388</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1248662045385701</v>
+        <v>0.1582794828042619</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1336843557010772</v>
+        <v>0.08175248552815377</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1714153080866493</v>
+        <v>0.2146512926271757</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1335607967110753</v>
+        <v>0.08166645449551503</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.08513468654774298</v>
+        <v>0.08291291790963325</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1355627124685796</v>
+        <v>0.04477631839383189</v>
       </c>
       <c r="J150" t="n">
-        <v>0.07955446556494149</v>
+        <v>0.08291291790963325</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1359053985989569</v>
+        <v>0.04477631839383189</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1260856875084649</v>
+        <v>0.1579052889800607</v>
       </c>
       <c r="M150" t="n">
-        <v>0.13527583612609</v>
+        <v>0.08272572940348893</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1718552886979443</v>
+        <v>0.2166696587485668</v>
       </c>
       <c r="O150" t="n">
-        <v>0.135150806195731</v>
+        <v>0.08263867419189019</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.08138358729400441</v>
+        <v>0.08294632057572678</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1371575679093864</v>
+        <v>0.04530309861022992</v>
       </c>
       <c r="J151" t="n">
-        <v>0.07926667038107353</v>
+        <v>0.08294632057572678</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1375042856412975</v>
+        <v>0.04530309861022992</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1264329214327794</v>
+        <v>0.1579395311198729</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1368673165511028</v>
+        <v>0.0836989732788241</v>
       </c>
       <c r="N151" t="n">
-        <v>0.172932765607245</v>
+        <v>0.2144933865681741</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1367408156803867</v>
+        <v>0.08361089388826538</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.09265153905247586</v>
+        <v>0.08297632276924728</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1387524233501932</v>
+        <v>0.04582987882662794</v>
       </c>
       <c r="J152" t="n">
-        <v>0.07989596093688962</v>
+        <v>0.08297632276924728</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1391031726836382</v>
+        <v>0.04582987882662794</v>
       </c>
       <c r="L152" t="n">
-        <v>0.125805638862032</v>
+        <v>0.1574816835010911</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1384587969761157</v>
+        <v>0.08467221715415926</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1714446513528565</v>
+        <v>0.2156221312430023</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1383308251650423</v>
+        <v>0.08458311358464056</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.08293687858753016</v>
+        <v>0.08300307275557391</v>
       </c>
       <c r="G153" t="n">
-        <v>0.140347278791</v>
+        <v>0.04635665904302597</v>
       </c>
       <c r="J153" t="n">
-        <v>0.08064087818916631</v>
+        <v>0.08300307275557391</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1407020597259789</v>
+        <v>0.04635665904302597</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1266015723467413</v>
+        <v>0.1580312204011076</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1400502774011285</v>
+        <v>0.08564546102949443</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1719878584730833</v>
+        <v>0.215155547930056</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1399208346496979</v>
+        <v>0.08555533328101575</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.09324718982522701</v>
+        <v>0.08302671880008584</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1419421342318068</v>
+        <v>0.04688343925942398</v>
       </c>
       <c r="J154" t="n">
-        <v>0.08059996309468</v>
+        <v>0.08302671880008584</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1423009467683196</v>
+        <v>0.04688343925942398</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1279655203998454</v>
+        <v>0.1580876160973149</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1416417578261413</v>
+        <v>0.08661870490482959</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1736530207190037</v>
+        <v>0.2154932917863401</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1415108441343536</v>
+        <v>0.08652755297739091</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.09077449559393183</v>
+        <v>0.08304740916816224</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1435369896726137</v>
+        <v>0.047410219475822</v>
       </c>
       <c r="J155" t="n">
-        <v>0.08129064755982278</v>
+        <v>0.08304740916816224</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1438998338106602</v>
+        <v>0.047410219475822</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1277748759838008</v>
+        <v>0.1576503448671055</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1432332382511542</v>
+        <v>0.08759194878016474</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1761075276233753</v>
+        <v>0.216035017968859</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1431008536190093</v>
+        <v>0.0874997726737661</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.08855810038637826</v>
+        <v>0.08306529212518222</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1451318451134205</v>
+        <v>0.04793699969222003</v>
       </c>
       <c r="J156" t="n">
-        <v>0.08171758499617292</v>
+        <v>0.08306529212518222</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1454987208530009</v>
+        <v>0.04793699969222003</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1299185566896477</v>
+        <v>0.1580188809878718</v>
       </c>
       <c r="M156" t="n">
-        <v>0.144824718676167</v>
+        <v>0.08856519265549992</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1770082895115228</v>
+        <v>0.2149803816346175</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1446908631036649</v>
+        <v>0.08847199237014128</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.08554779513334482</v>
+        <v>0.083080515936525</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1467267005542273</v>
+        <v>0.04846377990861805</v>
       </c>
       <c r="J157" t="n">
-        <v>0.08183684968386017</v>
+        <v>0.083080515936525</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1470976078953416</v>
+        <v>0.04846377990861805</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1299281136902248</v>
+        <v>0.1574926987370063</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1464161991011798</v>
+        <v>0.08953843653083508</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1793621033667199</v>
+        <v>0.2143290379406203</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1462808725883206</v>
+        <v>0.08944421206651647</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08569337076560993</v>
+        <v>0.08309322886756972</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1483215559950341</v>
+        <v>0.04899056012501607</v>
       </c>
       <c r="J158" t="n">
-        <v>0.08280439662949236</v>
+        <v>0.08309322886756972</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1486964949376822</v>
+        <v>0.04899056012501607</v>
       </c>
       <c r="L158" t="n">
-        <v>0.132435098158371</v>
+        <v>0.1586712723919015</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1480076795261926</v>
+        <v>0.09051168040617025</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1809757661722409</v>
+        <v>0.214980642043872</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1478708820729762</v>
+        <v>0.09041643176289163</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0979446182139522</v>
+        <v>0.08310357918369547</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1499164114358409</v>
+        <v>0.0495173403414141</v>
       </c>
       <c r="J159" t="n">
-        <v>0.08497618083967735</v>
+        <v>0.08310357918369547</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1502953819800229</v>
+        <v>0.0495173403414141</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1347710612669247</v>
+        <v>0.1575540762299498</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1495991599512055</v>
+        <v>0.09148492428150541</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1842560749113599</v>
+        <v>0.2142348491013774</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1494608915576319</v>
+        <v>0.09138865145926682</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.08925132840914993</v>
+        <v>0.0831117151502815</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1515112668766477</v>
+        <v>0.05004412055781212</v>
       </c>
       <c r="J160" t="n">
-        <v>0.08520815732102301</v>
+        <v>0.0831117151502815</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1518942690223636</v>
+        <v>0.05004412055781212</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1353675541887246</v>
+        <v>0.1589405845285436</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1511906403762183</v>
+        <v>0.09245816815684056</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1849098265673507</v>
+        <v>0.214791314270141</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1510509010422875</v>
+        <v>0.092360871155642</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.09056329228198179</v>
+        <v>0.08311778503270685</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1531061223174546</v>
+        <v>0.05057090077421014</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0865562810801372</v>
+        <v>0.08311778503270685</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1534931560647042</v>
+        <v>0.05057090077421014</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1372561280966097</v>
+        <v>0.1583302715650754</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1527821208012311</v>
+        <v>0.09343141203217573</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1890438181234874</v>
+        <v>0.2151496927071676</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1526409105269432</v>
+        <v>0.09333309085201717</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.09083030076322612</v>
+        <v>0.08312193709635081</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1547009777582614</v>
+        <v>0.05109768099060816</v>
       </c>
       <c r="J162" t="n">
-        <v>0.08787650712362781</v>
+        <v>0.08312193709635081</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1550920431070449</v>
+        <v>0.05109768099060816</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1388683341634183</v>
+        <v>0.1588226116169377</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1543736012262439</v>
+        <v>0.0944046559075109</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1904648465630439</v>
+        <v>0.2153096395694618</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1542309200115989</v>
+        <v>0.09430531054839235</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.09800214478366148</v>
+        <v>0.08312431960659249</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1562958331990682</v>
+        <v>0.05162446120700619</v>
       </c>
       <c r="J163" t="n">
-        <v>0.08912479045810269</v>
+        <v>0.08312431960659249</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1566909301493856</v>
+        <v>0.05162446120700619</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1414357235619892</v>
+        <v>0.158417078961523</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1559650816512567</v>
+        <v>0.09537789978284607</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1919797088692943</v>
+        <v>0.2159708100140283</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1558209294962545</v>
+        <v>0.09527753024476752</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1000286152740664</v>
+        <v>0.083125080828811</v>
       </c>
       <c r="G164" t="n">
-        <v>0.157890688639875</v>
+        <v>0.05215124142340421</v>
       </c>
       <c r="J164" t="n">
-        <v>0.08965708609016963</v>
+        <v>0.083125080828811</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1582898171917263</v>
+        <v>0.05215124142340421</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1419943194758707</v>
+        <v>0.1587131478762235</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1575565620762696</v>
+        <v>0.09635114365818123</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1935086804773386</v>
+        <v>0.2158328591978718</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1574109389809102</v>
+        <v>0.09624974994114271</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1019506580934967</v>
+        <v>0.083125080828811</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1594855440806819</v>
+        <v>0.05215124142340421</v>
       </c>
       <c r="J165" t="n">
-        <v>0.09027237672046605</v>
+        <v>0.083125080828811</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1598887042340669</v>
+        <v>0.05215124142340421</v>
       </c>
       <c r="L165" t="n">
-        <v>0.142749961011965</v>
+        <v>0.159010292638432</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1591480425012824</v>
+        <v>0.0973243875335164</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1971176702109809</v>
+        <v>0.2150954422779969</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1590009484655658</v>
+        <v>0.09722196963751788</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1018502256246209</v>
+        <v>0.08170319320395096</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1610803995214887</v>
+        <v>0.0521509728949402</v>
       </c>
       <c r="J166" t="n">
-        <v>0.09176227940490918</v>
+        <v>0.08170319320395096</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1614875912764076</v>
+        <v>0.0521509728949402</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1454753962607558</v>
+        <v>0.1582079875255407</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1607395229262952</v>
+        <v>0.09829763140885155</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1973857624398497</v>
+        <v>0.2136582144114083</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1605909579502215</v>
+        <v>0.09819418933389307</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.104728942004757</v>
+        <v>0.08029760702655279</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1626752549622955</v>
+        <v>0.05215070436647617</v>
       </c>
       <c r="J167" t="n">
-        <v>0.09253359164931953</v>
+        <v>0.08029760702655279</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1630864783187483</v>
+        <v>0.05215070436647617</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1456727966250571</v>
+        <v>0.1585057068149421</v>
       </c>
       <c r="M167" t="n">
-        <v>0.162331003351308</v>
+        <v>0.09927087528418672</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1997159138441564</v>
+        <v>0.2154208307551107</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1621809674348772</v>
+        <v>0.09916640903026824</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1045884000166989</v>
+        <v>0.07890918535037535</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1642701104031023</v>
+        <v>0.05215043583801216</v>
       </c>
       <c r="J168" t="n">
-        <v>0.09298771069345348</v>
+        <v>0.07890918535037535</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1646853653610889</v>
+        <v>0.05215043583801216</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1463443335076824</v>
+        <v>0.1591029247840288</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1639224837763209</v>
+        <v>0.1002441191595219</v>
       </c>
       <c r="N168" t="n">
-        <v>0.2016110811041125</v>
+        <v>0.2150829464661088</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1637709769195328</v>
+        <v>0.1001386287266434</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.104430192443241</v>
+        <v>0.07753879122905595</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1658649658439091</v>
+        <v>0.05215016730954814</v>
       </c>
       <c r="J169" t="n">
-        <v>0.09342603377706725</v>
+        <v>0.07753879122905595</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1662842524034296</v>
+        <v>0.05215016730954814</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1488921783114455</v>
+        <v>0.1587991157101931</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1655139642013337</v>
+        <v>0.1012173630348571</v>
       </c>
       <c r="N169" t="n">
-        <v>0.2016742208999294</v>
+        <v>0.2151442167014073</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1653609864041885</v>
+        <v>0.1011108484230186</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1022559120671773</v>
+        <v>0.07618728771635193</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1674598212847159</v>
+        <v>0.05214989878108413</v>
       </c>
       <c r="J170" t="n">
-        <v>0.09414995813991715</v>
+        <v>0.07618728771635193</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1678831394457703</v>
+        <v>0.05214989878108413</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1491185024391601</v>
+        <v>0.1601937538708275</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1671054446263465</v>
+        <v>0.1021906069101922</v>
       </c>
       <c r="N170" t="n">
-        <v>0.2048082899118186</v>
+        <v>0.2148042966180107</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1669509958888441</v>
+        <v>0.1020830681193938</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.106067151671302</v>
+        <v>0.0748555378659022</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1690546767255227</v>
+        <v>0.05214963025262011</v>
       </c>
       <c r="J171" t="n">
-        <v>0.09536088102175953</v>
+        <v>0.0748555378659022</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1694820264881109</v>
+        <v>0.05214963025262011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1497254772936399</v>
+        <v>0.1587863135433245</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1686969250513593</v>
+        <v>0.1031638507855274</v>
       </c>
       <c r="N171" t="n">
-        <v>0.2061162448199916</v>
+        <v>0.2150628413729238</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1685410053734998</v>
+        <v>0.103055287815769</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1018655040384092</v>
+        <v>0.07354440473146241</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1706495321663296</v>
+        <v>0.05214936172415609</v>
       </c>
       <c r="J172" t="n">
-        <v>0.09636019966235064</v>
+        <v>0.07354440473146241</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1710809135304516</v>
+        <v>0.05214936172415609</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1517152742776987</v>
+        <v>0.1593762690050764</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1702884054763722</v>
+        <v>0.1041370946608625</v>
       </c>
       <c r="N172" t="n">
-        <v>0.2070010423046598</v>
+        <v>0.2154195061231512</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1701310148581555</v>
+        <v>0.1040275075121441</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1056525619512931</v>
+        <v>0.07225475136667321</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1722443876071364</v>
+        <v>0.05214909319569207</v>
       </c>
       <c r="J173" t="n">
-        <v>0.09604931130144682</v>
+        <v>0.07225475136667321</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1726798005727923</v>
+        <v>0.05214909319569207</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1517900647941501</v>
+        <v>0.1591630945334759</v>
       </c>
       <c r="M173" t="n">
-        <v>0.171879885901385</v>
+        <v>0.1051103385361977</v>
       </c>
       <c r="N173" t="n">
-        <v>0.2073656390460347</v>
+        <v>0.2141739460256977</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1717210243428111</v>
+        <v>0.1049997272085193</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1094299181927478</v>
+        <v>0.07098744082528848</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1738392430479432</v>
+        <v>0.05214882466722805</v>
       </c>
       <c r="J174" t="n">
-        <v>0.09702961317880433</v>
+        <v>0.07098744082528848</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1742786876151329</v>
+        <v>0.05214882466722805</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1535520202458078</v>
+        <v>0.1589462644059153</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1734713663263978</v>
+        <v>0.1060835824115329</v>
       </c>
       <c r="N174" t="n">
-        <v>0.2099129917243278</v>
+        <v>0.2146258162375678</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1733110338274668</v>
+        <v>0.1059719469048945</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1031991655455674</v>
+        <v>0.06974333616095073</v>
       </c>
       <c r="G175" t="n">
-        <v>0.17543409848875</v>
+        <v>0.05214855613876403</v>
       </c>
       <c r="J175" t="n">
-        <v>0.09800250253417954</v>
+        <v>0.06974333616095073</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1758775746574736</v>
+        <v>0.05214855613876403</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1549033120354857</v>
+        <v>0.1596252528997871</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1750628467514106</v>
+        <v>0.107056826286868</v>
       </c>
       <c r="N175" t="n">
-        <v>0.2114460570197504</v>
+        <v>0.2151747719157664</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1749010433121224</v>
+        <v>0.1069441666012697</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1069678689467044</v>
+        <v>0.06852330042741185</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1770289539295569</v>
+        <v>0.05214828761030002</v>
       </c>
       <c r="J176" t="n">
-        <v>0.09897053731251114</v>
+        <v>0.06852330042741185</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1774764616998143</v>
+        <v>0.05214828761030002</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1559628349458853</v>
+        <v>0.1605995342924837</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1766543271764235</v>
+        <v>0.1080300701622032</v>
       </c>
       <c r="N176" t="n">
-        <v>0.2120968527713279</v>
+        <v>0.215420468217298</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1764910527967781</v>
+        <v>0.1079163862976449</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.105779215531087</v>
+        <v>0.06732819667831645</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1786238093703637</v>
+        <v>0.052148019081836</v>
       </c>
       <c r="J177" t="n">
-        <v>0.09866992155243166</v>
+        <v>0.06732819667831645</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1790753487421549</v>
+        <v>0.052148019081836</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1561837273878684</v>
+        <v>0.1594685828613976</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1782458076014363</v>
+        <v>0.1090033140375384</v>
       </c>
       <c r="N177" t="n">
-        <v>0.2140313965074084</v>
+        <v>0.2146625602991672</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1780810622814337</v>
+        <v>0.10888860599402</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1126192565118212</v>
+        <v>0.06615888796741425</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1802186648111705</v>
+        <v>0.05214775055337199</v>
       </c>
       <c r="J178" t="n">
-        <v>0.09939967932575962</v>
+        <v>0.06615888796741425</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1806742357844956</v>
+        <v>0.05214775055337199</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1571369392045568</v>
+        <v>0.1605318728839212</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1798372880264491</v>
+        <v>0.1099765579128735</v>
       </c>
       <c r="N178" t="n">
-        <v>0.215205900602551</v>
+        <v>0.214200703318379</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1796710717660894</v>
+        <v>0.1098608256903952</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1134606306897396</v>
+        <v>0.06501623734835212</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1818135202519773</v>
+        <v>0.05214748202490797</v>
       </c>
       <c r="J179" t="n">
-        <v>0.100435808517833</v>
+        <v>0.06501623734835212</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1822731228268363</v>
+        <v>0.05214748202490797</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1586851695253754</v>
+        <v>0.1599888786374472</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1814287684514619</v>
+        <v>0.1109498017882087</v>
       </c>
       <c r="N179" t="n">
-        <v>0.2174695745055032</v>
+        <v>0.2148345524319377</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1812610812507451</v>
+        <v>0.1108330453867704</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1062759768656751</v>
+        <v>0.06390110787487739</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1834083756927841</v>
+        <v>0.05214721349644395</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1019543070139899</v>
+        <v>0.06390110787487739</v>
       </c>
       <c r="K180" t="n">
-        <v>0.183872009869177</v>
+        <v>0.05214721349644395</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1606911174797492</v>
+        <v>0.1607390743993677</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1830202488764748</v>
+        <v>0.1119230456635438</v>
       </c>
       <c r="N180" t="n">
-        <v>0.2191716276650125</v>
+        <v>0.2134637627968481</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1828510907354007</v>
+        <v>0.1118052650831456</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1120379338404602</v>
+        <v>0.06281436260063937</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1850032311335909</v>
+        <v>0.05214694496797993</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1021311726995684</v>
+        <v>0.06281436260063937</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1854708969115176</v>
+        <v>0.05214694496797993</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1620174821971029</v>
+        <v>0.1598819344470754</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1846117293014876</v>
+        <v>0.112896289538879</v>
       </c>
       <c r="N181" t="n">
-        <v>0.2207612695298268</v>
+        <v>0.213787989570115</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1844411002200564</v>
+        <v>0.1127774847795208</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1157191404149277</v>
+        <v>0.06175686457938297</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1865980865743977</v>
+        <v>0.05214667643951592</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1021424034599066</v>
+        <v>0.06175686457938297</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1870697839538583</v>
+        <v>0.05214667643951592</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1622269628068616</v>
+        <v>0.1601169330579626</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1862032097265004</v>
+        <v>0.1138695334142142</v>
       </c>
       <c r="N182" t="n">
-        <v>0.2213877095486933</v>
+        <v>0.214006887908743</v>
       </c>
       <c r="O182" t="n">
-        <v>0.186031109704712</v>
+        <v>0.1137497044758959</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1102922353899104</v>
+        <v>0.06072947686478199</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1881929420152046</v>
+        <v>0.05214640791105191</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1032639971803425</v>
+        <v>0.06072947686478199</v>
       </c>
       <c r="K183" t="n">
-        <v>0.188668670996199</v>
+        <v>0.05214640791105191</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1635822584384501</v>
+        <v>0.1609435445094219</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1877946901515132</v>
+        <v>0.1148427772895493</v>
       </c>
       <c r="N183" t="n">
-        <v>0.2219001571703599</v>
+        <v>0.2135201129697367</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1876211191893677</v>
+        <v>0.1147219241722711</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.112729857566241</v>
+        <v>0.0597330625105127</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1897877974560114</v>
+        <v>0.05214613938258789</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1036719517462142</v>
+        <v>0.0597330625105127</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1902675580385396</v>
+        <v>0.05214613938258789</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1633460682212934</v>
+        <v>0.1608612430788457</v>
       </c>
       <c r="M184" t="n">
-        <v>0.189386170576526</v>
+        <v>0.1158160211648845</v>
       </c>
       <c r="N184" t="n">
-        <v>0.2237478218435741</v>
+        <v>0.2147273199101009</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1892111286740233</v>
+        <v>0.1156941438686463</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1160459346186951</v>
+        <v>0.05876848457031623</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1913826528968182</v>
+        <v>0.05214587085412387</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1040603209028573</v>
+        <v>0.05876848457031623</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1918664450808803</v>
+        <v>0.05214587085412387</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1647690590377212</v>
+        <v>0.1605695030436263</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1909776510015389</v>
+        <v>0.1167892650402197</v>
       </c>
       <c r="N185" t="n">
-        <v>0.2244217363869686</v>
+        <v>0.21372816388684</v>
       </c>
       <c r="O185" t="n">
-        <v>0.190801138158679</v>
+        <v>0.1166663635650215</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.113348015298367</v>
+        <v>0.05783660609784828</v>
       </c>
       <c r="G186" t="n">
-        <v>0.192977508337625</v>
+        <v>0.05214560232565985</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1038251038095967</v>
+        <v>0.05783660609784828</v>
       </c>
       <c r="K186" t="n">
-        <v>0.193465332123221</v>
+        <v>0.05214560232565985</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1646811484084839</v>
+        <v>0.1594522022354053</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1925691314265517</v>
+        <v>0.1177625089155548</v>
       </c>
       <c r="N186" t="n">
-        <v>0.2252830138915674</v>
+        <v>0.2131115498566585</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1923911476433347</v>
+        <v>0.1176385832613966</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1156435528043346</v>
+        <v>0.05693829014684713</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1945723637784318</v>
+        <v>0.05214533379719583</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1043841786819821</v>
+        <v>0.05693829014684713</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1950642191655617</v>
+        <v>0.05214533379719583</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1641842760031652</v>
+        <v>0.1601602113850635</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1941606118515645</v>
+        <v>0.11873575279089</v>
       </c>
       <c r="N187" t="n">
-        <v>0.2248320638602034</v>
+        <v>0.2138520841053387</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1939811571279904</v>
+        <v>0.1186108029577718</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1209324464436824</v>
+        <v>0.05607439977097141</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1961672192192387</v>
+        <v>0.05214506526873181</v>
       </c>
       <c r="J188" t="n">
-        <v>0.104137457188984</v>
+        <v>0.05607439977097141</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1966631062079023</v>
+        <v>0.05214506526873181</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1659783045495143</v>
+        <v>0.160094025568749</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1957520922765773</v>
+        <v>0.1197089966662252</v>
       </c>
       <c r="N188" t="n">
-        <v>0.2248686993767751</v>
+        <v>0.2132509249436782</v>
       </c>
       <c r="O188" t="n">
-        <v>0.195571166612646</v>
+        <v>0.119583022654147</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1142145955234949</v>
+        <v>0.05524579802395647</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1977620746600455</v>
+        <v>0.0521447967402678</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1052848509995722</v>
+        <v>0.05524579802395647</v>
       </c>
       <c r="K189" t="n">
-        <v>0.198261993250243</v>
+        <v>0.0521447967402678</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1663630967752799</v>
+        <v>0.1590581850137325</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1973435727015902</v>
+        <v>0.1206822405415603</v>
       </c>
       <c r="N189" t="n">
-        <v>0.2267927335251811</v>
+        <v>0.2130104789131158</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1971611760973016</v>
+        <v>0.1205552423505222</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1134898993508568</v>
+        <v>0.0544498238235316</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1993569301008523</v>
+        <v>0.05214452821180378</v>
       </c>
       <c r="J190" t="n">
-        <v>0.105026271782717</v>
+        <v>0.0544498238235316</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1998608802925836</v>
+        <v>0.05214452821180378</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1660385154082108</v>
+        <v>0.1585572299472852</v>
       </c>
       <c r="M190" t="n">
-        <v>0.198935053126603</v>
+        <v>0.1216554844168955</v>
       </c>
       <c r="N190" t="n">
-        <v>0.2271039793893198</v>
+        <v>0.2124331525550905</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1987511855819573</v>
+        <v>0.1215274620468974</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1137582572328528</v>
+        <v>0.05366619540783556</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2009517855416591</v>
+        <v>0.05214425968333977</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1053616312073886</v>
+        <v>0.05366619540783556</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2014597673349243</v>
+        <v>0.05214425968333977</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1667044231760559</v>
+        <v>0.1594957005966777</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2005265335516158</v>
+        <v>0.1226287282922307</v>
       </c>
       <c r="N191" t="n">
-        <v>0.2262022500530901</v>
+        <v>0.2133213524110414</v>
       </c>
       <c r="O191" t="n">
-        <v>0.200341195066613</v>
+        <v>0.1224996817432725</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1100195684765674</v>
+        <v>0.05289225169459937</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2025466409824659</v>
+        <v>0.05214399115487574</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1058908409425571</v>
+        <v>0.05289225169459937</v>
       </c>
       <c r="K192" t="n">
-        <v>0.203058654377265</v>
+        <v>0.05214399115487574</v>
       </c>
       <c r="L192" t="n">
-        <v>0.166860682806564</v>
+        <v>0.1578781371891811</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2021180139766287</v>
+        <v>0.1236019721675658</v>
       </c>
       <c r="N192" t="n">
-        <v>0.2271873586003905</v>
+        <v>0.211277485022407</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2019312045512686</v>
+        <v>0.1234719014396477</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1202737323890853</v>
+        <v>0.05212885573755442</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2041414964232728</v>
+        <v>0.05214372262641173</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1056138126571926</v>
+        <v>0.05212885573755442</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2046575414196057</v>
+        <v>0.05214372262641173</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1663071570274839</v>
+        <v>0.1574090799520663</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2037094944016415</v>
+        <v>0.124575216042901</v>
       </c>
       <c r="N193" t="n">
-        <v>0.2281591181151191</v>
+        <v>0.2118039569306265</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2035212140359243</v>
+        <v>0.1244441211360229</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1175206482774913</v>
+        <v>0.05137687059036525</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2057363518640796</v>
+        <v>0.05214345409794771</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1060304580202652</v>
+        <v>0.05137687059036525</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2062564284619463</v>
+        <v>0.05214345409794771</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1679437085665646</v>
+        <v>0.1569930691126041</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2053009748266543</v>
+        <v>0.1255484599182362</v>
       </c>
       <c r="N194" t="n">
-        <v>0.229617341681175</v>
+        <v>0.2122031746771389</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2051112235205799</v>
+        <v>0.1254163408323981</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1107602154488697</v>
+        <v>0.05063715930676223</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2073312073048864</v>
+        <v>0.0521431855694837</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1061406887007452</v>
+        <v>0.05063715930676223</v>
       </c>
       <c r="K195" t="n">
-        <v>0.207855315504287</v>
+        <v>0.0521431855694837</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1679702001515548</v>
+        <v>0.1562346448980654</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2068924552516671</v>
+        <v>0.1265217037935713</v>
       </c>
       <c r="N195" t="n">
-        <v>0.2280618423824565</v>
+        <v>0.2104775448033828</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2067012330052356</v>
+        <v>0.1263885605287733</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1229923332103053</v>
+        <v>0.04991058494041095</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2089260627456932</v>
+        <v>0.05214291704101968</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1060444163676028</v>
+        <v>0.04991058494041095</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2094542025466277</v>
+        <v>0.05214291704101968</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1671864945102034</v>
+        <v>0.1556383475357212</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2084839356766799</v>
+        <v>0.1274949476689065</v>
       </c>
       <c r="N196" t="n">
-        <v>0.2297924333028621</v>
+        <v>0.2095294738507973</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2082912424898913</v>
+        <v>0.1273607802251484</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1232169008688827</v>
+        <v>0.04919801054504069</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2105209181865</v>
+        <v>0.05214264851255566</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1065415526898079</v>
+        <v>0.04919801054504069</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2110530895889683</v>
+        <v>0.05214264851255566</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1685924543702591</v>
+        <v>0.1561087172528423</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2100754161016928</v>
+        <v>0.1284681915442416</v>
       </c>
       <c r="N197" t="n">
-        <v>0.2304089275262907</v>
+        <v>0.2099613683608213</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2098812519745469</v>
+        <v>0.1283329999215236</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1184338177316866</v>
+        <v>0.04850029917433321</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2121157736273069</v>
+        <v>0.05214237998409164</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1068320093363309</v>
+        <v>0.04850029917433321</v>
       </c>
       <c r="K198" t="n">
-        <v>0.212651976631309</v>
+        <v>0.05214237998409164</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1681879424594709</v>
+        <v>0.1554502942766996</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2116668965267056</v>
+        <v>0.1294414354195768</v>
       </c>
       <c r="N198" t="n">
-        <v>0.2305111381366406</v>
+        <v>0.2095756348748937</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2114712614592026</v>
+        <v>0.1293052196178988</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1166429831058016</v>
+        <v>0.04781831388197151</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2137106290681137</v>
+        <v>0.05214211145562762</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1066156979761417</v>
+        <v>0.04781831388197151</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2142508636736497</v>
+        <v>0.05214211145562762</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1693728215055876</v>
+        <v>0.1539676188345641</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2132583769517184</v>
+        <v>0.130414679294912</v>
       </c>
       <c r="N199" t="n">
-        <v>0.2306988782178103</v>
+        <v>0.2088746799344534</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2130612709438582</v>
+        <v>0.130277439314274</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1128442962983122</v>
+        <v>0.04715291772168299</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2153054845089205</v>
+        <v>0.05214184292716361</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1074925302782107</v>
+        <v>0.04715291772168299</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2158497507159904</v>
+        <v>0.05214184292716361</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1684469542363581</v>
+        <v>0.1541652311537066</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2148498573767312</v>
+        <v>0.1313879231702471</v>
       </c>
       <c r="N200" t="n">
-        <v>0.2312719608536987</v>
+        <v>0.2085609100809393</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2146512804285139</v>
+        <v>0.1312496590106492</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1210376566163032</v>
+        <v>0.04650497374713643</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2169003399497273</v>
+        <v>0.05214157439869959</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1074624179115079</v>
+        <v>0.04650497374713643</v>
       </c>
       <c r="K201" t="n">
-        <v>0.217448637758331</v>
+        <v>0.05214157439869959</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1690102033795313</v>
+        <v>0.1535476714613981</v>
       </c>
       <c r="M201" t="n">
-        <v>0.216441337801744</v>
+        <v>0.1323611670455823</v>
       </c>
       <c r="N201" t="n">
-        <v>0.2315301991282041</v>
+        <v>0.2070367318557903</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2162412899131696</v>
+        <v>0.1322218787070243</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1192229633668591</v>
+        <v>0.04587534501205771</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2184951953905341</v>
+        <v>0.05214130587023558</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1072252725450034</v>
+        <v>0.04587534501205771</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2190475248006717</v>
+        <v>0.05214130587023558</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1692624316628557</v>
+        <v>0.1529194799849094</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2180328182267569</v>
+        <v>0.1333344109209174</v>
       </c>
       <c r="N202" t="n">
-        <v>0.2311734061252252</v>
+        <v>0.2083045518004455</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2178312993978252</v>
+        <v>0.1331940984033995</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1224001158570646</v>
+        <v>0.04526489457011715</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2200900508313409</v>
+        <v>0.05214103734177156</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1080810058476675</v>
+        <v>0.04526489457011715</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2206464118430123</v>
+        <v>0.05214103734177156</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1697035018140804</v>
+        <v>0.1520851969515115</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2196242986517697</v>
+        <v>0.1343076547962526</v>
       </c>
       <c r="N203" t="n">
-        <v>0.2315013949286603</v>
+        <v>0.2065667764563434</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2194213088824809</v>
+        <v>0.1341663180997747</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1145690133940044</v>
+        <v>0.04467448547503902</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2216849062721478</v>
+        <v>0.05214076881330754</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1080295294884703</v>
+        <v>0.04467448547503902</v>
       </c>
       <c r="K204" t="n">
-        <v>0.222245298885353</v>
+        <v>0.05214076881330754</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1708332765609543</v>
+        <v>0.1504493625884751</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2212157790767825</v>
+        <v>0.1352808986715878</v>
       </c>
       <c r="N204" t="n">
-        <v>0.2323139786224082</v>
+        <v>0.2061258123649233</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2210113183671365</v>
+        <v>0.1351385377961499</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.116729555284763</v>
+        <v>0.04410498078049541</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2232797617129546</v>
+        <v>0.05214050028484352</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1077707551363819</v>
+        <v>0.04410498078049541</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2238441859276937</v>
+        <v>0.05214050028484352</v>
       </c>
       <c r="L205" t="n">
-        <v>0.170251618631226</v>
+        <v>0.1497165171230714</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2228072595017954</v>
+        <v>0.1362541425469229</v>
       </c>
       <c r="N205" t="n">
-        <v>0.2329109702903674</v>
+        <v>0.2056840660676241</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2226013278517922</v>
+        <v>0.136110757492525</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.124881640836425</v>
+        <v>0.04355724354020872</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2248746171537614</v>
+        <v>0.05214023175637951</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1085045944603725</v>
+        <v>0.04355724354020872</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2254430729700344</v>
+        <v>0.05214023175637951</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1709583907526446</v>
+        <v>0.149291200782571</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2243987399268082</v>
+        <v>0.1372273864222581</v>
       </c>
       <c r="N206" t="n">
-        <v>0.2338921830164367</v>
+        <v>0.2057439441058844</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2241913373364479</v>
+        <v>0.1370829771889002</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1160251693560752</v>
+        <v>0.04303213680785291</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2264694725945682</v>
+        <v>0.05213996322791549</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1081309591294122</v>
+        <v>0.04303213680785291</v>
       </c>
       <c r="K207" t="n">
-        <v>0.227041960012375</v>
+        <v>0.05213996322791549</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1713534556529588</v>
+        <v>0.1493779537942451</v>
       </c>
       <c r="M207" t="n">
-        <v>0.225990220351821</v>
+        <v>0.1382006302975933</v>
       </c>
       <c r="N207" t="n">
-        <v>0.2337574298845141</v>
+        <v>0.2038078530211434</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2257813468211035</v>
+        <v>0.1380551968852754</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.123160040150798</v>
+        <v>0.0425305236371485</v>
       </c>
       <c r="G208" t="n">
-        <v>0.228064328035375</v>
+        <v>0.05213969469945148</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1088497608124712</v>
+        <v>0.0425305236371485</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2286408470547157</v>
+        <v>0.05213969469945148</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1701366760599174</v>
+        <v>0.1476813163853643</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2275817007768338</v>
+        <v>0.1391738741729285</v>
       </c>
       <c r="N208" t="n">
-        <v>0.2328065239784987</v>
+        <v>0.2049781993548399</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2273713563057592</v>
+        <v>0.1390274165816506</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1172861525276783</v>
+        <v>0.0420532670817714</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2296591834761819</v>
+        <v>0.05213942617098746</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1081609111785196</v>
+        <v>0.0420532670817714</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2302397340970563</v>
+        <v>0.05213942617098746</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1715079147012694</v>
+        <v>0.1480058287831997</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2291731812018467</v>
+        <v>0.1401471180482636</v>
       </c>
       <c r="N209" t="n">
-        <v>0.2346392783822888</v>
+        <v>0.2028573896484128</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2289613657904148</v>
+        <v>0.1399996362780258</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1184034057938005</v>
+        <v>0.04160123019544007</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2312540389169887</v>
+        <v>0.05213915764252344</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1089643218965276</v>
+        <v>0.04160123019544007</v>
       </c>
       <c r="K210" t="n">
-        <v>0.231838621139397</v>
+        <v>0.05213915764252344</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1704670343047636</v>
+        <v>0.1470560312150221</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2307646616268595</v>
+        <v>0.1411203619235988</v>
       </c>
       <c r="N210" t="n">
-        <v>0.234855506179783</v>
+        <v>0.202747830443301</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2305513752750705</v>
+        <v>0.1409718559744009</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1205116992562493</v>
+        <v>0.04117527603183259</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2328488943577955</v>
+        <v>0.05213888911405942</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1088599046354653</v>
+        <v>0.04117527603183259</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2334375081817377</v>
+        <v>0.05213888911405942</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1716138975981487</v>
+        <v>0.1461364639081024</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2323561420518723</v>
+        <v>0.1420936057989339</v>
       </c>
       <c r="N211" t="n">
-        <v>0.23445502045488</v>
+        <v>0.2029519282809435</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2321413847597261</v>
+        <v>0.1419440756707761</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1196109322221094</v>
+        <v>0.04077626764466517</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2344437497986023</v>
+        <v>0.0521386205855954</v>
       </c>
       <c r="J212" t="n">
-        <v>0.108247571064303</v>
+        <v>0.04077626764466517</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2350363952240784</v>
+        <v>0.0521386205855954</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1710483673091736</v>
+        <v>0.1457516670897116</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2339476224768851</v>
+        <v>0.1430668496742691</v>
       </c>
       <c r="N212" t="n">
-        <v>0.2352376342914783</v>
+        <v>0.2028720897027792</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2337313942443818</v>
+        <v>0.1429162953671513</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1217010039984653</v>
+        <v>0.04040506808761818</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2360386052394091</v>
+        <v>0.05213835205713138</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1086272328520106</v>
+        <v>0.04040506808761818</v>
       </c>
       <c r="K213" t="n">
-        <v>0.236635282266419</v>
+        <v>0.05213835205713138</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1716703061655871</v>
+        <v>0.1451061809871206</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2355391029018979</v>
+        <v>0.1440400935496043</v>
       </c>
       <c r="N213" t="n">
-        <v>0.2339031607734763</v>
+        <v>0.202610721250247</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2353214037290375</v>
+        <v>0.1438885150635265</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1137818138924018</v>
+        <v>0.0400625404144055</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2376334606802159</v>
+        <v>0.05213808352866737</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1084988016675584</v>
+        <v>0.0400625404144055</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2382341693087597</v>
+        <v>0.05213808352866737</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1720795768951383</v>
+        <v>0.1451045458276001</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2371305833269108</v>
+        <v>0.1450133374249394</v>
       </c>
       <c r="N214" t="n">
-        <v>0.2337514129847729</v>
+        <v>0.2009702294647857</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2369114132136931</v>
+        <v>0.1448607347599017</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1238532612110033</v>
+        <v>0.0400625404144055</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2392283161210227</v>
+        <v>0.05213808352866737</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1089621891799165</v>
+        <v>0.0400625404144055</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2398330563511004</v>
+        <v>0.05213808352866737</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1712760422255757</v>
+        <v>0.1440513018384212</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2387220637519236</v>
+        <v>0.1459865813002746</v>
       </c>
       <c r="N215" t="n">
-        <v>0.2340822040092663</v>
+        <v>0.2018530208878344</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2385014226983488</v>
+        <v>0.1458329544562768</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1179152452613546</v>
+        <v>0.03896138715540302</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2408231715618296</v>
+        <v>0.05213112886758025</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1086173070580551</v>
+        <v>0.03896138715540302</v>
       </c>
       <c r="K216" t="n">
-        <v>0.241431943393441</v>
+        <v>0.05213112886758025</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1710595648846485</v>
+        <v>0.1436509892468548</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2403135441769364</v>
+        <v>0.1469598251756097</v>
       </c>
       <c r="N216" t="n">
-        <v>0.2336953469308554</v>
+        <v>0.2000615020608318</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2400914321830044</v>
+        <v>0.146805174152652</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1149676653505403</v>
+        <v>0.03787237703348806</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2424180270026364</v>
+        <v>0.05212417420649312</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1091640669709443</v>
+        <v>0.03787237703348806</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2430308304357817</v>
+        <v>0.05212417420649312</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1717300076001052</v>
+        <v>0.1441081482801717</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2419050246019492</v>
+        <v>0.1479330690509449</v>
       </c>
       <c r="N217" t="n">
-        <v>0.2356906548334383</v>
+        <v>0.2011980795252169</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2416814416676601</v>
+        <v>0.1477773938490272</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1180104207856451</v>
+        <v>0.03679604527890099</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2440128824434432</v>
+        <v>0.05211721954540601</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1091023805875544</v>
+        <v>0.03679604527890099</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2446297174781224</v>
+        <v>0.05211721954540601</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1719872330996947</v>
+        <v>0.1425273191656428</v>
       </c>
       <c r="M218" t="n">
-        <v>0.243496505026962</v>
+        <v>0.1489063129262801</v>
       </c>
       <c r="N218" t="n">
-        <v>0.235467940800914</v>
+        <v>0.1987651598224287</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2432714511523157</v>
+        <v>0.1487496135454024</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1190434108737534</v>
+        <v>0.03573292712187949</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2456077378842501</v>
+        <v>0.05211026488431889</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1095321595768552</v>
+        <v>0.03573292712187949</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2462286045204631</v>
+        <v>0.05211026488431889</v>
       </c>
       <c r="L219" t="n">
-        <v>0.171731104111166</v>
+        <v>0.143613042130539</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2450879854519749</v>
+        <v>0.1498795568016152</v>
       </c>
       <c r="N219" t="n">
-        <v>0.2345270179171809</v>
+        <v>0.2005651494939061</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2448614606369714</v>
+        <v>0.1497218332417776</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.11906653492195</v>
+        <v>0.03468355779266395</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2472025933250569</v>
+        <v>0.05210331022323177</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1092533156078172</v>
+        <v>0.03468355779266395</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2478274915628037</v>
+        <v>0.05210331022323177</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1724614833622678</v>
+        <v>0.1423698574021313</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2466794658769877</v>
+        <v>0.1508528006769504</v>
       </c>
       <c r="N220" t="n">
-        <v>0.2357676992661377</v>
+        <v>0.2002004550810879</v>
       </c>
       <c r="O220" t="n">
-        <v>0.246451470121627</v>
+        <v>0.1506940529381527</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1160796922373195</v>
+        <v>0.03364847252149383</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2487974487658637</v>
+        <v>0.05209635556214465</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1095657603494104</v>
+        <v>0.03364847252149383</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2494263786051444</v>
+        <v>0.05209635556214465</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1718782335807491</v>
+        <v>0.1424800050040139</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2482709463020006</v>
+        <v>0.1518260445522856</v>
       </c>
       <c r="N221" t="n">
-        <v>0.2360897979316828</v>
+        <v>0.1987608751823087</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2480414796062827</v>
+        <v>0.1516662726345279</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.121076928763735</v>
+        <v>0.03262820653860865</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2503923042066705</v>
+        <v>0.05208940090105753</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1097683486432766</v>
+        <v>0.03262820653860865</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2510252656474851</v>
+        <v>0.05208940090105753</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1727642305517429</v>
+        <v>0.1417938882641225</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2498624267270134</v>
+        <v>0.1527992884276207</v>
       </c>
       <c r="N222" t="n">
-        <v>0.2338632015522651</v>
+        <v>0.1986225844382413</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2496314890909384</v>
+        <v>0.1526384923309031</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1148627233419773</v>
+        <v>0.03162329507424866</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2519871596474773</v>
+        <v>0.05208244623997041</v>
       </c>
       <c r="J223" t="n">
-        <v>0.108808952773662</v>
+        <v>0.03162329507424866</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2526241526898257</v>
+        <v>0.05208244623997041</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1723351367260741</v>
+        <v>0.1428094630072641</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2514539071520262</v>
+        <v>0.1537725323029559</v>
       </c>
       <c r="N223" t="n">
-        <v>0.2337931002268451</v>
+        <v>0.1988851171213429</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2512214985755941</v>
+        <v>0.1536107120272783</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1153648715792223</v>
+        <v>0.03063427335865174</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2535820150882841</v>
+        <v>0.05207549157888329</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1083985139347763</v>
+        <v>0.03063427335865174</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2542230397321664</v>
+        <v>0.05207549157888329</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1712222553819425</v>
+        <v>0.1429267453688131</v>
       </c>
       <c r="M224" t="n">
-        <v>0.253045387577039</v>
+        <v>0.1547457761782911</v>
       </c>
       <c r="N224" t="n">
-        <v>0.2333021431791078</v>
+        <v>0.1982486772961308</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2528115080602497</v>
+        <v>0.1545829317236534</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1226147638255026</v>
+        <v>0.02966167662205814</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2551768705290909</v>
+        <v>0.05206853691779617</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1082645687406456</v>
+        <v>0.02966167662205814</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2558219267745071</v>
+        <v>0.05206853691779617</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1698683802352485</v>
+        <v>0.1413457514841438</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2546368680020518</v>
+        <v>0.1557190200536262</v>
       </c>
       <c r="N225" t="n">
-        <v>0.2315486002667596</v>
+        <v>0.1984134690271221</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2544015175449054</v>
+        <v>0.1555551514200286</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1126437904308505</v>
+        <v>0.02870604009470738</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2567717259698978</v>
+        <v>0.05206158225670904</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1070346538052958</v>
+        <v>0.02870604009470738</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2574208138168477</v>
+        <v>0.05206158225670904</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1692163050018931</v>
+        <v>0.1414664974886308</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2562283484270647</v>
+        <v>0.1566922639289614</v>
       </c>
       <c r="N226" t="n">
-        <v>0.2290907413475068</v>
+        <v>0.1987796963788339</v>
       </c>
       <c r="O226" t="n">
-        <v>0.255991527029561</v>
+        <v>0.1565273711164038</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1104833417452987</v>
+        <v>0.02776789900683893</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2583665814107046</v>
+        <v>0.05205462759562193</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1059363057427529</v>
+        <v>0.02776789900683893</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2590197008591884</v>
+        <v>0.05205462759562193</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1662088233977768</v>
+        <v>0.1427889995176483</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2578198288520775</v>
+        <v>0.1576655078042966</v>
       </c>
       <c r="N227" t="n">
-        <v>0.2285868362790561</v>
+        <v>0.1968475634157832</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2575815365142167</v>
+        <v>0.157499590812779</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1181648081188794</v>
+        <v>0.02684778858869304</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2599614368515114</v>
+        <v>0.05204767293453481</v>
       </c>
       <c r="J228" t="n">
-        <v>0.105497061167043</v>
+        <v>0.02684778858869304</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2606185879015291</v>
+        <v>0.05204767293453481</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1659887291388006</v>
+        <v>0.1415132737065707</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2594113092770903</v>
+        <v>0.1586387516796317</v>
       </c>
       <c r="N228" t="n">
-        <v>0.2263951549191138</v>
+        <v>0.1961172742024875</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2591715459988723</v>
+        <v>0.1584718105091542</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1157195799016253</v>
+        <v>0.02594624407050765</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2615562922923182</v>
+        <v>0.05204071827344769</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1039444566921919</v>
+        <v>0.02594624407050765</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2622174749438698</v>
+        <v>0.05204071827344769</v>
       </c>
       <c r="L229" t="n">
-        <v>0.162598815940865</v>
+        <v>0.1416393361907726</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2610027897021031</v>
+        <v>0.1596119955549669</v>
       </c>
       <c r="N229" t="n">
-        <v>0.2218739671253864</v>
+        <v>0.1964890328034638</v>
       </c>
       <c r="O229" t="n">
-        <v>0.260761555483528</v>
+        <v>0.1594440302055293</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1121790474435687</v>
+        <v>0.02506380068252299</v>
       </c>
       <c r="G230" t="n">
-        <v>0.263151147733125</v>
+        <v>0.05203376361236057</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1029060289322258</v>
+        <v>0.02506380068252299</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2638163619862104</v>
+        <v>0.05203376361236057</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1605818775198707</v>
+        <v>0.1412672031056282</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2625942701271159</v>
+        <v>0.1605852394303021</v>
       </c>
       <c r="N230" t="n">
-        <v>0.2196815427555803</v>
+        <v>0.1962630432832291</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2623515649681836</v>
+        <v>0.1604162499019045</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1055746010947421</v>
+        <v>0.02420099365497859</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2647460031739318</v>
+        <v>0.05202680895127345</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1005093145011704</v>
+        <v>0.02420099365497859</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2654152490285511</v>
+        <v>0.05202680895127345</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1586807075917187</v>
+        <v>0.140896890586512</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2641857505521288</v>
+        <v>0.1615584833056372</v>
       </c>
       <c r="N231" t="n">
-        <v>0.216676151667402</v>
+        <v>0.1968395097063006</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2639415744528393</v>
+        <v>0.1613884695982797</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.111937631205178</v>
+        <v>0.02335835821811387</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2663408586147387</v>
+        <v>0.05201985429018632</v>
       </c>
       <c r="J232" t="n">
-        <v>0.099481850013052</v>
+        <v>0.02335835821811387</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2670141360708917</v>
+        <v>0.05201985429018632</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1571380998723095</v>
+        <v>0.1417284147687983</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2657772309771416</v>
+        <v>0.1625317271809724</v>
       </c>
       <c r="N232" t="n">
-        <v>0.2136160637185577</v>
+        <v>0.1970186361371956</v>
       </c>
       <c r="O232" t="n">
-        <v>0.265531583937495</v>
+        <v>0.1623606892946549</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1092995281249089</v>
+        <v>0.02253642960216903</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2679357140555455</v>
+        <v>0.05201289962909921</v>
       </c>
       <c r="J233" t="n">
-        <v>0.09875117208189639</v>
+        <v>0.02253642960216903</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2686130231132324</v>
+        <v>0.05201289962909921</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1537968480775438</v>
+        <v>0.1407617917878616</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2673687114021545</v>
+        <v>0.1635049710563075</v>
       </c>
       <c r="N233" t="n">
-        <v>0.2102595487667543</v>
+        <v>0.195400626640431</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2671215934221506</v>
+        <v>0.1633329089910301</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1086916822039672</v>
+        <v>0.02173574303738217</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2695305694963523</v>
+        <v>0.05200594496801209</v>
       </c>
       <c r="J234" t="n">
-        <v>0.09664481732172962</v>
+        <v>0.02173574303738217</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2702119101555731</v>
+        <v>0.05200594496801209</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1522997459233224</v>
+        <v>0.1407970377790762</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2689601918271672</v>
+        <v>0.1644782149316427</v>
       </c>
       <c r="N234" t="n">
-        <v>0.2084648766696979</v>
+        <v>0.195985685280524</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2687116029068063</v>
+        <v>0.1643051286874052</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1051454837923853</v>
+        <v>0.02095683375399345</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2711254249371591</v>
+        <v>0.05199899030692497</v>
       </c>
       <c r="J235" t="n">
-        <v>0.09569032234657764</v>
+        <v>0.02095683375399345</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2718107971979138</v>
+        <v>0.05199899030692497</v>
       </c>
       <c r="L235" t="n">
-        <v>0.1505895871255461</v>
+        <v>0.1408341688778167</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2705516722521801</v>
+        <v>0.1654514588069779</v>
       </c>
       <c r="N235" t="n">
-        <v>0.204690317285095</v>
+        <v>0.1960740161219918</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2703016123914619</v>
+        <v>0.1652773483837804</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.09769232324019583</v>
+        <v>0.02020023698224237</v>
       </c>
       <c r="G236" t="n">
-        <v>0.272720280377966</v>
+        <v>0.05199203564583785</v>
       </c>
       <c r="J236" t="n">
-        <v>0.09421522377046641</v>
+        <v>0.02020023698224237</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2734096842402545</v>
+        <v>0.05199203564583785</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1487091654001156</v>
+        <v>0.1407732012194572</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2721431526771929</v>
+        <v>0.166424702682313</v>
       </c>
       <c r="N236" t="n">
-        <v>0.2020941404706521</v>
+        <v>0.1961658232293517</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2718916218761176</v>
+        <v>0.1662495680801556</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.09836062736435996</v>
+        <v>0.01946648795236838</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2743151358187728</v>
+        <v>0.05198508098475072</v>
       </c>
       <c r="J237" t="n">
-        <v>0.09254597521436518</v>
+        <v>0.01946648795236838</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2750085712825951</v>
+        <v>0.05198508098475072</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1467944453295776</v>
+        <v>0.1419141509393723</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2737346331022057</v>
+        <v>0.1673979465576482</v>
       </c>
       <c r="N237" t="n">
-        <v>0.2004233370551393</v>
+        <v>0.1946613106671206</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2734816313607733</v>
+        <v>0.1672217877765308</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09907156885057875</v>
+        <v>0.01875612189461157</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2759099912595795</v>
+        <v>0.05197812632366361</v>
       </c>
       <c r="J238" t="n">
-        <v>0.09142114361999241</v>
+        <v>0.01875612189461157</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2766074583249358</v>
+        <v>0.05197812632366361</v>
       </c>
       <c r="L238" t="n">
-        <v>0.1453292782764894</v>
+        <v>0.1421570341729364</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2753261135272185</v>
+        <v>0.1683711904329833</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1962151407822538</v>
+        <v>0.1955606824998157</v>
       </c>
       <c r="O238" t="n">
-        <v>0.275071640845429</v>
+        <v>0.1681940074729059</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1007777483220141</v>
+        <v>0.01806967403921021</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2775048467003864</v>
+        <v>0.05197117166257649</v>
       </c>
       <c r="J239" t="n">
-        <v>0.09019214944478206</v>
+        <v>0.01806967403921021</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2782063453672765</v>
+        <v>0.05197117166257649</v>
       </c>
       <c r="L239" t="n">
-        <v>0.142457599925012</v>
+        <v>0.1407018670555238</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2769175939522314</v>
+        <v>0.1693444343083185</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1944980669087024</v>
+        <v>0.1946641427919541</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2766616503300846</v>
+        <v>0.1691662271692811</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.09247909141376254</v>
+        <v>0.01740549409292655</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2790997021411932</v>
+        <v>0.05196421700148936</v>
       </c>
       <c r="J240" t="n">
-        <v>0.08955892745347425</v>
+        <v>0.01740549409292655</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2798052324096171</v>
+        <v>0.05196421700148936</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1407793088952453</v>
+        <v>0.140348665722509</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2785090743772442</v>
+        <v>0.1703176781836537</v>
       </c>
       <c r="N240" t="n">
-        <v>0.193271977391031</v>
+        <v>0.1951718956080531</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2782516598147402</v>
+        <v>0.1701384468656563</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09617552376092103</v>
+        <v>0.01675100414513277</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2806945575820001</v>
+        <v>0.05195726234040225</v>
       </c>
       <c r="J241" t="n">
-        <v>0.08902141241080928</v>
+        <v>0.01675100414513277</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2814041194519578</v>
+        <v>0.05195726234040225</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1386943038072895</v>
+        <v>0.1418974463092663</v>
       </c>
       <c r="M241" t="n">
-        <v>0.280100554802257</v>
+        <v>0.1712909220589889</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1912367341857862</v>
+        <v>0.1936841450126296</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2798416692993959</v>
+        <v>0.1711106665620315</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09286697099858615</v>
+        <v>0.01610455390259104</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2822894130228069</v>
+        <v>0.05195030767931513</v>
       </c>
       <c r="J242" t="n">
-        <v>0.08687953908152728</v>
+        <v>0.01610455390259104</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2830030064942985</v>
+        <v>0.05195030767931513</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1372024832812447</v>
+        <v>0.14114822495117</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2816920352272698</v>
+        <v>0.172264165934324</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1874921992495138</v>
+        <v>0.193601095070201</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2814316787840516</v>
+        <v>0.1720828862584066</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.09355335876185467</v>
+        <v>0.01546667859553975</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2838842684636137</v>
+        <v>0.05194335301822801</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0861332422303686</v>
+        <v>0.01546667859553975</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2846018935366391</v>
+        <v>0.05194335301822801</v>
       </c>
       <c r="L243" t="n">
-        <v>0.136503745937211</v>
+        <v>0.1416010177835947</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2832835156522827</v>
+        <v>0.1732374098096592</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1848382345387605</v>
+        <v>0.1941229498452844</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2830216882687072</v>
+        <v>0.1730551059547818</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09323461268582328</v>
+        <v>0.01483791345421893</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2854791239044205</v>
+        <v>0.05193639835714089</v>
       </c>
       <c r="J244" t="n">
-        <v>0.08558245662207327</v>
+        <v>0.01483791345421893</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2862007805789798</v>
+        <v>0.05193639835714089</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1330979903952884</v>
+        <v>0.1412558409419149</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2848749960772954</v>
+        <v>0.1742106536849943</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1837747020100723</v>
+        <v>0.1934499134023967</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2846116977533629</v>
+        <v>0.174027325651157</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.08891065840558862</v>
+        <v>0.01421879370886805</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2870739793452273</v>
+        <v>0.05192944369605377</v>
       </c>
       <c r="J245" t="n">
-        <v>0.08332711702138167</v>
+        <v>0.01421879370886805</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2877996676213204</v>
+        <v>0.05192944369605377</v>
       </c>
       <c r="L245" t="n">
-        <v>0.132785115275577</v>
+        <v>0.1417127105615047</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2864664765023083</v>
+        <v>0.1751838975603295</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1814014636199957</v>
+        <v>0.1930821898060552</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2862017072380185</v>
+        <v>0.1749995453475322</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.08758142155624751</v>
+        <v>0.01360985458972662</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2886688347860341</v>
+        <v>0.05192248903496664</v>
       </c>
       <c r="J246" t="n">
-        <v>0.08266715819303395</v>
+        <v>0.01360985458972662</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2893985546636612</v>
+        <v>0.05192248903496664</v>
       </c>
       <c r="L246" t="n">
-        <v>0.129565019198177</v>
+        <v>0.1407716427777386</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2880579569273212</v>
+        <v>0.1761571414356647</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1775183813250765</v>
+        <v>0.1946199831207772</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2877917167226742</v>
+        <v>0.1759717650439074</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.08924682777289655</v>
+        <v>0.01301163132703456</v>
       </c>
       <c r="G247" t="n">
-        <v>0.290263690226841</v>
+        <v>0.05191553437387953</v>
       </c>
       <c r="J247" t="n">
-        <v>0.08130251490177036</v>
+        <v>0.01301163132703456</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2909974417060018</v>
+        <v>0.05191553437387953</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1281376007831884</v>
+        <v>0.1416326537259912</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2896494373523339</v>
+        <v>0.1771303853109998</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1750253170818611</v>
+        <v>0.1926634974110796</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2893817262073299</v>
+        <v>0.1769439847402826</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.09190680269063251</v>
+        <v>0.01242465915103037</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2918585456676478</v>
+        <v>0.05190857971279241</v>
       </c>
       <c r="J248" t="n">
-        <v>0.08093312191233105</v>
+        <v>0.01242465915103037</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2925963287483425</v>
+        <v>0.05190857971279241</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1258027586507114</v>
+        <v>0.1414957595416365</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2912409177773468</v>
+        <v>0.178103629186335</v>
       </c>
       <c r="N248" t="n">
-        <v>0.172922132846896</v>
+        <v>0.1925129367414795</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2909717356919855</v>
+        <v>0.1779162044366577</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.08256127194455209</v>
+        <v>0.01184947329195409</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2934534011084546</v>
+        <v>0.05190162505170529</v>
       </c>
       <c r="J249" t="n">
-        <v>0.07935891398945637</v>
+        <v>0.01184947329195409</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2941952157906831</v>
+        <v>0.05190162505170529</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1250603914208459</v>
+        <v>0.1401609763600492</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2928323982023596</v>
+        <v>0.1790768730616702</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1709086905767274</v>
+        <v>0.1935685051764943</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2925617451766412</v>
+        <v>0.1788884241330329</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08021016116975205</v>
+        <v>0.01128660898004512</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2950482565492614</v>
+        <v>0.05189467039061817</v>
       </c>
       <c r="J250" t="n">
-        <v>0.07797982589788642</v>
+        <v>0.01128660898004512</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2957941028330238</v>
+        <v>0.05189467039061817</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1230103977136921</v>
+        <v>0.1406283203166037</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2944238786273724</v>
+        <v>0.1800501169370053</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1686848522279012</v>
+        <v>0.194030406780641</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2941517546612968</v>
+        <v>0.1798606438294081</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.08885339600132905</v>
+        <v>0.01073660144554296</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2966431119900682</v>
+        <v>0.05188771572953105</v>
       </c>
       <c r="J251" t="n">
-        <v>0.07679579240236149</v>
+        <v>0.01073660144554296</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2973929898753644</v>
+        <v>0.05188771572953105</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1213526761493501</v>
+        <v>0.1413978075466742</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2960153590523853</v>
+        <v>0.1810233608123405</v>
       </c>
       <c r="N251" t="n">
-        <v>0.166150479756964</v>
+        <v>0.1928988456184367</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2957417641459525</v>
+        <v>0.1808328635257833</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.08449090207437976</v>
+        <v>0.01019998591868757</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2982379674308751</v>
+        <v>0.05188076106844393</v>
       </c>
       <c r="J252" t="n">
-        <v>0.07590674826762171</v>
+        <v>0.01019998591868757</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2989918769177051</v>
+        <v>0.05188076106844393</v>
       </c>
       <c r="L252" t="n">
-        <v>0.11908712534792</v>
+        <v>0.1410694541856352</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2976068394773981</v>
+        <v>0.1819966046876757</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1617054351204618</v>
+        <v>0.1916740257543986</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2973317736306081</v>
+        <v>0.1818050832221585</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.08412260502400096</v>
+        <v>0.009677297629717502</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2998328228716818</v>
+        <v>0.05187380640735681</v>
       </c>
       <c r="J253" t="n">
-        <v>0.07491262825840746</v>
+        <v>0.009677297629717502</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3005907639600458</v>
+        <v>0.05187380640735681</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1175136439295019</v>
+        <v>0.1404432763688613</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2991983199024109</v>
+        <v>0.1829698485630108</v>
       </c>
       <c r="N253" t="n">
-        <v>0.160349580274941</v>
+        <v>0.193256151253044</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2989217831152638</v>
+        <v>0.1827773029185336</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.07274843048528937</v>
+        <v>0.009169071808872678</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3014276783124887</v>
+        <v>0.05186685174626968</v>
       </c>
       <c r="J254" t="n">
-        <v>0.07351336713945873</v>
+        <v>0.009169071808872678</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3021896510023865</v>
+        <v>0.05186685174626968</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1162321305141959</v>
+        <v>0.1399192902317266</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3007898003274237</v>
+        <v>0.183943092438346</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1568827771769478</v>
+        <v>0.1926454261788896</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3005117925999194</v>
+        <v>0.1837495226149088</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.07536830409334161</v>
+        <v>0.008675843686392612</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3030225337532955</v>
+        <v>0.05185989708518256</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0717088996755159</v>
+        <v>0.008675843686392612</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3037885380447271</v>
+        <v>0.05185989708518256</v>
       </c>
       <c r="L255" t="n">
-        <v>0.113142483722102</v>
+        <v>0.1400975119096055</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3023812807524365</v>
+        <v>0.1849163363136811</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1557048877830284</v>
+        <v>0.1928420545964529</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3021018020845751</v>
+        <v>0.184721742311284</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.07598215148325441</v>
+        <v>0.00819814849251678</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3046173891941024</v>
+        <v>0.05185294242409545</v>
       </c>
       <c r="J256" t="n">
-        <v>0.07089916063131919</v>
+        <v>0.00819814849251678</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3053874250870678</v>
+        <v>0.05185294242409545</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1113446021733204</v>
+        <v>0.1412779575378726</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3039727611774494</v>
+        <v>0.1858895801890163</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1516157740497291</v>
+        <v>0.191846240570251</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3036918115692308</v>
+        <v>0.1856939620076592</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.07158989829012458</v>
+        <v>0.007736521457484991</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3062122446349091</v>
+        <v>0.05184598776300833</v>
       </c>
       <c r="J257" t="n">
-        <v>0.06988408477160878</v>
+        <v>0.007736521457484991</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3069863121294085</v>
+        <v>0.05184598776300833</v>
       </c>
       <c r="L257" t="n">
-        <v>0.109738384487951</v>
+        <v>0.1409606432519022</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3055642416024622</v>
+        <v>0.1868628240643515</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1506152979335961</v>
+        <v>0.192558188164801</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3052818210538865</v>
+        <v>0.1866661817040343</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.07819147014904873</v>
+        <v>0.007291497811536013</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3078071000757159</v>
+        <v>0.05183903310192121</v>
       </c>
       <c r="J258" t="n">
-        <v>0.06836360686112487</v>
+        <v>0.007291497811536013</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3085851991717491</v>
+        <v>0.05183903310192121</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1078237292860941</v>
+        <v>0.1408455851870687</v>
       </c>
       <c r="M258" t="n">
-        <v>0.307155722027475</v>
+        <v>0.1878360679396866</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1479033213911758</v>
+        <v>0.19117810144462</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3068718305385421</v>
+        <v>0.1876384014004095</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.07478679269512362</v>
+        <v>0.006863612784909684</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3094019555165228</v>
+        <v>0.05183207844083409</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0669376616646077</v>
+        <v>0.006863612784909684</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3101840862140898</v>
+        <v>0.05183207844083409</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1059005351878498</v>
+        <v>0.1413327994787465</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3087472024524878</v>
+        <v>0.1888093118150218</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1448797063790143</v>
+        <v>0.1917061844742251</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3084618400231978</v>
+        <v>0.1886106210967847</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.06937579156344589</v>
+        <v>0.006453401607845508</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3109968109573296</v>
+        <v>0.05182512377974696</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0664061839467975</v>
+        <v>0.006453401607845508</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3117829732564305</v>
+        <v>0.05182512377974696</v>
       </c>
       <c r="L260" t="n">
-        <v>0.103768700813318</v>
+        <v>0.1406223022623099</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3103386828775007</v>
+        <v>0.189782555690357</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1407443148536577</v>
+        <v>0.1921426413181336</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3100518495078534</v>
+        <v>0.1895828407931599</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.07095839238911236</v>
+        <v>0.006061399510582932</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3125916663981364</v>
+        <v>0.05181816911865984</v>
       </c>
       <c r="J261" t="n">
-        <v>0.06446910847243446</v>
+        <v>0.006061399510582932</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3133818602987712</v>
+        <v>0.05181816911865984</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1019281247825989</v>
+        <v>0.1409141096731335</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3119301633025135</v>
+        <v>0.1907557995656921</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1394970087716526</v>
+        <v>0.1929876760408626</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3116418589925091</v>
+        <v>0.190555060489535</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.06353452080721966</v>
+        <v>0.005688141723361753</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3141865218389432</v>
+        <v>0.05181121445757273</v>
       </c>
       <c r="J262" t="n">
-        <v>0.06342637000625885</v>
+        <v>0.005688141723361753</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3149807473411118</v>
+        <v>0.05181121445757273</v>
       </c>
       <c r="L262" t="n">
-        <v>0.09947870571579276</v>
+        <v>0.1403082378465916</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3135216437275263</v>
+        <v>0.1917290434410273</v>
       </c>
       <c r="N262" t="n">
-        <v>0.137137650089545</v>
+        <v>0.191741492706929</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3132318684771647</v>
+        <v>0.1915272801859102</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.06010410245286447</v>
+        <v>0.005334163476420864</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3157813772797501</v>
+        <v>0.0518042597964856</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0616779033130108</v>
+        <v>0.005334163476420864</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3165796343834525</v>
+        <v>0.0518042597964856</v>
       </c>
       <c r="L263" t="n">
-        <v>0.09822034223299941</v>
+        <v>0.1399047029180585</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3151131241525391</v>
+        <v>0.1927022873163625</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1329661007638811</v>
+        <v>0.1918042953808503</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3148218779618204</v>
+        <v>0.1924994998822854</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.07066706296114361</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3173762327205569</v>
+        <v>0.05179730513539849</v>
       </c>
       <c r="J264" t="n">
-        <v>0.06092364315743069</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3181785214257932</v>
+        <v>0.05179730513539849</v>
       </c>
       <c r="L264" t="n">
-        <v>0.09685293295431902</v>
+        <v>0.1397035210229087</v>
       </c>
       <c r="M264" t="n">
-        <v>0.316704604577552</v>
+        <v>0.1936755311916976</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1323822227512073</v>
+        <v>0.1922762881271435</v>
       </c>
       <c r="O264" t="n">
-        <v>0.316411887446476</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1934717195786606</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05178414724066165</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05178414724066165</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006038918999651144</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05178441576912566</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006038918999651144</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.05178441576912566</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.00707172212569504</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05178468429758968</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.00707172212569504</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05178468429758968</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.008098333713413217</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05178495282605369</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.008098333713413217</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.05178495282605369</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.009118678098176819</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05178522135451771</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.009118678098176819</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05178522135451771</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01013267961526793</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05178548988298173</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01013267961526793</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05178548988298173</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01114026260005714</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05178575841144575</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01114026260005714</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05178575841144575</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01214135138782708</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05178602693990977</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01214135138782708</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05178602693990977</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01313587031394779</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05178629546837379</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01313587031394779</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05178629546837379</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01412374371370248</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0517865639968378</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.01412374371370248</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.0517865639968378</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01510489592246059</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05178683252530182</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.01510489592246059</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05178683252530182</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01607925127550591</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05178710105376583</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01607925127550591</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05178710105376583</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01704673410820731</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05178736958222985</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.01704673410820731</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.05178736958222985</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01800726875584917</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05178763811069387</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.01800726875584917</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.05178763811069387</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01896077955379977</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05178790663915789</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.01896077955379977</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05178790663915789</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01990719083734407</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0517881751676219</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.01990719083734407</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.0517881751676219</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.02084642694184977</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05178844369608592</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.02084642694184977</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05178844369608592</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.02177841220260242</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05178871222454993</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.02177841220260242</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05178871222454993</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02270307095494904</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05178898075301395</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.02270307095494904</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05178898075301395</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.023620327534236</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05178924928147797</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.023620327534236</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05178924928147797</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02453010627574984</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05178951780994199</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.02453010627574984</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05178951780994199</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0254323315148566</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05178978633840601</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.0254323315148566</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05178978633840601</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02632692758684355</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05179005486687002</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.02632692758684355</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05179005486687002</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02721381882707606</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05179032339533404</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.02721381882707606</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05179032339533404</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02809292957084202</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05179059192379806</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.02809292957084202</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.05179059192379806</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02896449311758972</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05179086045226208</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.02896449311758972</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05179086045226208</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02983028758710908</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05179112898072609</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.02983028758710908</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05179112898072609</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.03069054627884778</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05179139750919011</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.03069054627884778</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05179139750919011</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.03154519352809484</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05179166603765412</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.03154519352809484</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05179166603765412</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.03239415367021399</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05179193456611814</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.03239415367021399</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05179193456611814</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.03323735104049469</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05179220309458216</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.03323735104049469</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.05179220309458216</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.03407470997430014</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05179247162304618</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.03407470997430014</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05179247162304618</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0349061548069204</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0517927401515102</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.0349061548069204</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.0517927401515102</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.03573160987370019</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05179300867997421</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.03573160987370019</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05179300867997421</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.03655099950998375</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05179327720843823</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.03655099950998375</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05179327720843823</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.03736424805106195</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05179354573690224</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.03736424805106195</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.05179354573690224</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0381712798322966</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05179381426536626</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.0381712798322966</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.05179381426536626</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03897201918897908</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05179408279383028</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.03897201918897908</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05179408279383028</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03976639045647071</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0517943513222943</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.03976639045647071</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.0517943513222943</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0405543179700634</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05179461985075831</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.0405543179700634</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05179461985075831</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.04133572606511789</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05179488837922233</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.04133572606511789</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05179488837922233</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.04211053907692666</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05179515690768634</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.04211053907692666</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.05179515690768634</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.04287868134084993</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05179542543615036</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.04287868134084993</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.05179542543615036</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.04364007719218072</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05179569396461439</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.04364007719218072</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05179569396461439</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.04439465096627866</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05179596249307841</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.04439465096627866</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.05179596249307841</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.04514232699843734</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05179623102154242</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.04514232699843734</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05179623102154242</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.04588302962401583</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05179649955000644</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.04588302962401583</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05179649955000644</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.04661668317830833</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05179676807847045</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.04661668317830833</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.05179676807847045</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.04734321199667327</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05179703660693447</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.04734321199667327</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05179703660693447</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.04806254041440551</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05179730513539849</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.04806254041440551</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05179730513539849</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.04806254041440551</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05178414724066165</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.04806254041440551</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05178414724066165</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.04895869221981326</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0517916389586768</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.04895869221981326</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.0517916389586768</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04984699633308426</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05179913067669195</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.04984699633308426</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05179913067669195</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.05072726481596465</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0518066223947071</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.05072726481596465</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.0518066223947071</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.05159930973019852</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05181411411272226</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.05159930973019852</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05181411411272226</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.05246294313753062</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05182160583073742</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.05246294313753062</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05182160583073742</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.05331797709970511</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05182909754875257</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.05331797709970511</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05182909754875257</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.05416422367846806</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05183658926676773</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.05416422367846806</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05183658926676773</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.05500149493556357</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05184408098478288</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.05500149493556357</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05184408098478288</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.05582960293273638</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05185157270279803</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.05582960293273638</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05185157270279803</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.05664835973173067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05185906442081319</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.05664835973173067</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05185906442081319</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.05745757739429246</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05186655613882835</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.05745757739429246</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05186655613882835</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.05825706798216589</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0518740478568435</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.05825706798216589</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.0518740478568435</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.05904664355709575</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05188153957485866</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.05904664355709575</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.05188153957485866</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.05982611618082621</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0518890312928738</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.05982611618082621</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.0518890312928738</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.06059529791510317</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05189652301088896</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.06059529791510317</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05189652301088896</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.06135400082167085</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05190401472890412</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.06135400082167085</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05190401472890412</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.06210203696227347</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05191150644691927</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.06210203696227347</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05191150644691927</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.06283921839865693</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05191899816493442</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.06283921839865693</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05191899816493442</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.06356535719256544</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05192648988294958</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.06356535719256544</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05192648988294958</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.06428026540574373</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05193398160096473</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.06428026540574373</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.05193398160096473</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.06498375509993605</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05194147331897989</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.06498375509993605</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05194147331897989</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.06567563833688823</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05194896503699504</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.06567563833688823</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.05194896503699504</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.06635572717834455</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0519564567550102</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.06635572717834455</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.0519564567550102</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.06702383368604976</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05196394847302535</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.06702383368604976</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05196394847302535</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.06768053733629027</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0519714401910405</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.06768053733629027</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.0519714401910405</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.06833025467806507</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05197893190905566</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.06833025467806507</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05197893190905566</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.06897356518766055</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05198642362707082</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.06897356518766055</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.05198642362707082</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.06961028092682155</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05199391534508597</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.06961028092682155</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05199391534508597</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.07024021395729226</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05200140706310112</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.07024021395729226</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05200140706310112</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.07086317634081844</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05200889878111627</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.07086317634081844</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05200889878111627</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.07147898013914443</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05201639049913143</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.07147898013914443</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.05201639049913143</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.07208743741401498</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05202388221714659</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.07208743741401498</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.05202388221714659</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.07268836022717441</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05203137393516174</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.07268836022717441</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05203137393516174</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.07328156064036835</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05203886565317689</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.07328156064036835</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.05203886565317689</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.07386685071534117</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05204635737119205</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.07386685071534117</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05204635737119205</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.0744440425138372</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0520538490892072</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.0744440425138372</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.0520538490892072</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.07501294809760208</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05206134080722236</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.07501294809760208</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.05206134080722236</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.07557337952838013</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05206883252523751</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.07557337952838013</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05206883252523751</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.07612514886791606</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05207632424325267</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.07612514886791606</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05207632424325267</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.07666806817795434</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05208381596126782</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.07666806817795434</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05208381596126782</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.07720194952024052</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05209130767928297</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.07720194952024052</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05209130767928297</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.07772660495651897</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05209879939729813</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.07772660495651897</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05209879939729813</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0782418465485344</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05210629111531329</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.0782418465485344</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05210629111531329</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07874748635803126</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05211378283332844</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.07874748635803126</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.05211378283332844</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07924333644675509</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05212127455134359</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.07924333644675509</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.05212127455134359</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07972920887645023</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05212876626935875</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.07972920887645023</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05212876626935875</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.08020491570886147</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.0521362579873739</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.08020491570886147</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.0521362579873739</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.08067026900573322</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05214374970538906</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.08067026900573322</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.05214374970538906</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.08112508082881099</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05215124142340421</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.08112508082881099</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05215124142340421</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.08112508082881099</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05215124142340421</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.08112508082881099</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05215124142340421</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07984562213297648</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0553316677720633</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.07984562213297648</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.0553316677720633</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.0787270456559236</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0585120941207224</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.0787270456559236</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.0585120941207224</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07775874576210588</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.0616925204693815</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.07775874576210588</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.0616925204693815</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07693011681597682</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06487294681804059</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.07693011681597682</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.06487294681804059</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07623055318198992</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06805337316669968</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.07623055318198992</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06805337316669968</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07564944922459867</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07123379951535878</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.07564944922459867</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07123379951535878</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07517619930825652</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07441422586401787</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.07517619930825652</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.07441422586401787</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.07480019779741705</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07759465221267697</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.07480019779741705</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07759465221267697</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0745108390565337</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08077507856133608</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.0745108390565337</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08077507856133608</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.07429751745006007</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08395550490999518</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.07429751745006007</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08395550490999518</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0741496273424495</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08713593125865426</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.0741496273424495</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08713593125865426</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.07405656309815563</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09031635760731337</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.07405656309815563</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09031635760731337</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.07400771908163188</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09349678395597245</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.07400771908163188</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09349678395597245</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.07399248965733175</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09667721030463156</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.07399248965733175</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09667721030463156</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.07423476978127523</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09985763665329064</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.07423476978127523</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09985763665329064</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.07495976016480134</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1030380630019497</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.07495976016480134</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1030380630019497</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.07601166952506942</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1062184893506088</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.07601166952506942</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1062184893506088</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.07723240246125691</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1093989156992679</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.07723240246125691</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1093989156992679</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.07846386357254127</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.112579342047927</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.07846386357254127</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.112579342047927</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.07954795745810002</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1157597683965861</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.07954795745810002</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1157597683965861</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.08032658871711064</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1189401947452452</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.08032658871711064</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1189401947452452</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.0806416619487506</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1221206210939043</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.0806416619487506</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1221206210939043</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.08050129847344946</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1253010474425634</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.08050129847344946</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1253010474425634</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.0800657551671095</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1284814737912225</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.0800657551671095</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1284814737912225</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.07936250511436861</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1316619001398816</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.07936250511436861</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1316619001398816</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.07841865563108667</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1348423264885407</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.07841865563108667</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1348423264885407</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.07726131403312335</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1380227528371998</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.07726131403312335</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1380227528371998</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.07591758763633837</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1412031791858589</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.07591758763633837</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1412031791858589</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.07441458375659153</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.144383605534518</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.07441458375659153</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.144383605534518</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.07277940970974252</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1475640318831771</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.07277940970974252</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1475640318831771</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.07103917281165116</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.07103917281165116</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06922098037817716</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1539248845804953</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.06922098037817716</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1539248845804953</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06735193972518023</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1571053109291544</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.06735193972518023</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1571053109291544</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06529409730610232</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1602857372778135</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.06529409730610232</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1602857372778135</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.06174992650713808</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1634661636264726</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.06174992650713808</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1634661636264726</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05779160156547124</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1666465899751317</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.05779160156547124</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1666465899751317</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05511731948378028</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1698270163237908</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.05511731948378028</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1698270163237908</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05478785365839632</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1730074426724499</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.05478785365839632</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1730074426724499</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05480776380826853</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1761878690211089</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.05480776380826853</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1761878690211089</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05484776636797718</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.179368295369768</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.05484776636797718</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.179368295369768</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.0549092304869135</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1825487217184271</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.0549092304869135</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1825487217184271</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0549935253144687</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1857291480670862</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.0549935253144687</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1857291480670862</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05510202000003399</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1889095744157453</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.05510202000003399</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1889095744157453</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.05523608369300055</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1920900007644044</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.05523608369300055</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1920900007644044</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.05539708554275956</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1952704271130635</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.05539708554275956</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1952704271130635</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05569396115648985</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1984508534617226</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.05569396115648985</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1984508534617226</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.05709631333925234</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2016312798103817</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.05709631333925234</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2016312798103817</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05906404539677081</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2048117061590408</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.05906404539677081</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2048117061590408</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.06063452216330721</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2079921325076999</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.06063452216330721</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2079921325076999</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.06176023305399429</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.211172558856359</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.06176023305399429</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.211172558856359</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.06277546863515955</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2143529852050181</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.06277546863515955</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2143529852050181</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.06371092910566946</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2175334115536772</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.06371092910566946</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2175334115536772</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.06459731466439055</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2207138379023363</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.06459731466439055</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2207138379023363</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.06546532551018926</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2238942642509954</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.06546532551018926</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2238942642509954</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.06633408384018942</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2270746905996545</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.06633408384018942</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2270746905996545</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.06710871998929104</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2302551169483136</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.06710871998929104</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2302551169483136</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.06784319068303761</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2334355432969727</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.06784319068303761</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2334355432969727</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0686416144137753</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2366159696456318</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.0686416144137753</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2366159696456318</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.06960810967384994</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2397963959942909</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.06960810967384994</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2397963959942909</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0709132188447865</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.24297682234295</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.0709132188447865</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.24297682234295</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.07263437517962033</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.246157248691609</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.07263437517962033</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.246157248691609</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.07471520483112033</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2493376750402682</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.07471520483112033</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2493376750402682</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.07709920409505215</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2525181013889273</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.07709920409505215</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2525181013889273</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.07972986926718144</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2556985277375863</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.07972986926718144</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2556985277375863</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.08255069664327373</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2588789540862454</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.08255069664327373</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2588789540862454</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.08550518251909457</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2620593804349046</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.08550518251909457</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2620593804349046</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.08853682319040963</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2652398067835636</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.08853682319040963</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2652398067835636</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09158911495298448</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2684202331322227</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.09158911495298448</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2684202331322227</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09460555410258469</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2716006594808819</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.09460555410258469</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2716006594808819</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09752963693497584</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2747810858295409</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.09752963693497584</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2747810858295409</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.1003048597459236</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2779615121782</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.1003048597459236</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2779615121782</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1028747188311934</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2811419385268591</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.1028747188311934</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2811419385268591</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.105182710486551</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2843223648755182</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.105182710486551</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2843223648755182</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.1071723310077619</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2875027912241773</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.1071723310077619</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2875027912241773</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.1087870766905917</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2906832175728364</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.1087870766905917</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2906832175728364</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.109970443830806</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2938636439214955</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.109970443830806</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2938636439214955</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.1108334411050813</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2970440702701546</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.1108334411050813</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2970440702701546</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1107161105407107</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3002244966188137</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.1107161105407107</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3002244966188137</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.107868837196339</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3034049229674728</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.107868837196339</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3034049229674728</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1019959873600834</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3065853493161318</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.1019959873600834</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3065853493161318</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.09414030851123616</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.309765775664791</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.09414030851123616</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.309765775664791</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.08534454812908944</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3129462020134501</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.08534454812908944</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3129462020134501</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.07665145369293548</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3161266283621091</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.07665145369293548</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3161266283621091</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.06910377268206642</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3193070547107683</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.06910377268206642</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3193070547107683</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.06374425257577439</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3224874810594274</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.06374425257577439</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3224874810594274</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.06085777493358073</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3256679074080864</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.06085777493358073</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3256679074080864</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.05829689501899894</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3288483337567455</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.05829689501899894</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3288483337567455</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.05585334824153938</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3320287601054047</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.05585334824153938</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3320287601054047</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.05354236730236987</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3352091864540638</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.05354236730236987</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3352091864540638</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.05137918490265815</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3383896128027228</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.05137918490265815</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3383896128027228</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.04937903374357208</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.341570039151382</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.04937903374357208</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.341570039151382</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.04755714652627945</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3447504655000411</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.04755714652627945</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3447504655000411</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.04592875595194808</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3479308918487001</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.04592875595194808</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3479308918487001</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.04450909472174575</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3511113181973592</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.04450909472174575</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3511113181973592</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.04331339553684029</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3542917445460184</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.04331339553684029</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3542917445460184</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.04235689109839949</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3574721708946774</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.04235689109839949</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3574721708946774</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.04165481410759116</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3606525972433365</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.04165481410759116</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3606525972433365</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.04122239726558311</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3638330235919956</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.04122239726558311</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3638330235919956</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.04107487327354313</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3670134499406547</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.04107487327354313</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3670134499406547</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
